--- a/학습자료/단답형/영어_기초단어.xlsx
+++ b/학습자료/단답형/영어_기초단어.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108">
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120">
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -3272,7 +3272,7 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143">
@@ -3332,7 +3332,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146">
@@ -3512,7 +3512,7 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158">
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161">
@@ -3752,7 +3752,7 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="186">
@@ -4272,7 +4272,7 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="193">
@@ -4352,7 +4352,7 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="197">
@@ -4412,7 +4412,7 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="200">
@@ -4632,7 +4632,7 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="211">
@@ -5152,7 +5152,7 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="237">
@@ -5272,7 +5272,7 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="243">
@@ -5532,7 +5532,7 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="256">
@@ -5552,7 +5552,7 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
@@ -5912,7 +5912,7 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="275">
@@ -6292,7 +6292,7 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="294">
@@ -6372,7 +6372,7 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="298">
@@ -6532,7 +6532,7 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306">
@@ -6692,7 +6692,7 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="314">
@@ -6932,7 +6932,7 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="326">
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="D329" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="330">
@@ -7112,7 +7112,7 @@
         </is>
       </c>
       <c r="D334" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="335">
@@ -7212,7 +7212,7 @@
         </is>
       </c>
       <c r="D339" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="340">
@@ -7272,7 +7272,7 @@
         </is>
       </c>
       <c r="D342" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="343">
@@ -7492,7 +7492,7 @@
         </is>
       </c>
       <c r="D353" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="354">
@@ -7672,7 +7672,7 @@
         </is>
       </c>
       <c r="D362" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="363">
@@ -7852,7 +7852,7 @@
         </is>
       </c>
       <c r="D371" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="372">
@@ -7872,7 +7872,7 @@
         </is>
       </c>
       <c r="D372" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="373">
@@ -7912,7 +7912,7 @@
         </is>
       </c>
       <c r="D374" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="375">
@@ -8092,7 +8092,7 @@
         </is>
       </c>
       <c r="D383" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="384">
@@ -8212,7 +8212,7 @@
         </is>
       </c>
       <c r="D389" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="390">
@@ -8332,7 +8332,7 @@
         </is>
       </c>
       <c r="D395" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="396">
@@ -8372,7 +8372,7 @@
         </is>
       </c>
       <c r="D397" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="398">
@@ -8692,7 +8692,7 @@
         </is>
       </c>
       <c r="D413" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="414">
@@ -9112,7 +9112,7 @@
         </is>
       </c>
       <c r="D434" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="435">
@@ -9152,7 +9152,7 @@
         </is>
       </c>
       <c r="D436" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="437">
@@ -9272,7 +9272,7 @@
         </is>
       </c>
       <c r="D442" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="443">
@@ -9432,7 +9432,7 @@
         </is>
       </c>
       <c r="D450" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="451">
@@ -9452,7 +9452,7 @@
         </is>
       </c>
       <c r="D451" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="452">
@@ -9532,7 +9532,7 @@
         </is>
       </c>
       <c r="D455" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="456">
@@ -9732,7 +9732,7 @@
         </is>
       </c>
       <c r="D465" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="466">
@@ -9752,7 +9752,7 @@
         </is>
       </c>
       <c r="D466" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="467">
@@ -9872,7 +9872,7 @@
         </is>
       </c>
       <c r="D472" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="473">
@@ -9892,7 +9892,7 @@
         </is>
       </c>
       <c r="D473" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="474">
@@ -9952,7 +9952,7 @@
         </is>
       </c>
       <c r="D476" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="477">
@@ -10152,7 +10152,7 @@
         </is>
       </c>
       <c r="D486" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="487">
@@ -10292,7 +10292,7 @@
         </is>
       </c>
       <c r="D493" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="494">
@@ -10452,7 +10452,7 @@
         </is>
       </c>
       <c r="D501" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="502">
@@ -10532,7 +10532,7 @@
         </is>
       </c>
       <c r="D505" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506">
@@ -10692,7 +10692,7 @@
         </is>
       </c>
       <c r="D513" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514">
@@ -11452,7 +11452,7 @@
         </is>
       </c>
       <c r="D551" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="552">
@@ -12052,7 +12052,7 @@
         </is>
       </c>
       <c r="D581" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="582">
@@ -12412,7 +12412,7 @@
         </is>
       </c>
       <c r="D599" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="600">
@@ -12672,7 +12672,7 @@
         </is>
       </c>
       <c r="D612" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613">
@@ -12692,7 +12692,7 @@
         </is>
       </c>
       <c r="D613" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="614">
@@ -12732,7 +12732,7 @@
         </is>
       </c>
       <c r="D615" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="616">
@@ -12772,7 +12772,7 @@
         </is>
       </c>
       <c r="D617" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="618">
@@ -12932,7 +12932,7 @@
         </is>
       </c>
       <c r="D625" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="626">
@@ -12992,7 +12992,7 @@
         </is>
       </c>
       <c r="D628" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="629">
@@ -13092,7 +13092,7 @@
         </is>
       </c>
       <c r="D633" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="634">
@@ -13292,7 +13292,7 @@
         </is>
       </c>
       <c r="D643" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644">
@@ -13372,7 +13372,7 @@
         </is>
       </c>
       <c r="D647" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="648">
@@ -13712,7 +13712,7 @@
         </is>
       </c>
       <c r="D664" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="665">
@@ -13972,7 +13972,7 @@
         </is>
       </c>
       <c r="D677" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="678">
@@ -14052,7 +14052,7 @@
         </is>
       </c>
       <c r="D681" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="682">
@@ -14072,7 +14072,7 @@
         </is>
       </c>
       <c r="D682" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="683">
@@ -14292,7 +14292,7 @@
         </is>
       </c>
       <c r="D693" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="694">
@@ -14492,7 +14492,7 @@
         </is>
       </c>
       <c r="D703" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="704">
@@ -14592,7 +14592,7 @@
         </is>
       </c>
       <c r="D708" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="709">
@@ -14632,7 +14632,7 @@
         </is>
       </c>
       <c r="D710" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="711">
@@ -14772,7 +14772,7 @@
         </is>
       </c>
       <c r="D717" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="718">
@@ -14932,7 +14932,7 @@
         </is>
       </c>
       <c r="D725" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="726">
@@ -14972,7 +14972,7 @@
         </is>
       </c>
       <c r="D727" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="728">
@@ -15172,7 +15172,7 @@
         </is>
       </c>
       <c r="D737" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="738">
@@ -15292,7 +15292,7 @@
         </is>
       </c>
       <c r="D743" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="744">
@@ -15492,7 +15492,7 @@
         </is>
       </c>
       <c r="D753" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="754">
@@ -15612,7 +15612,7 @@
         </is>
       </c>
       <c r="D759" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="760">
@@ -15652,7 +15652,7 @@
         </is>
       </c>
       <c r="D761" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="762">
@@ -15732,7 +15732,7 @@
         </is>
       </c>
       <c r="D765" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="766">
@@ -15892,7 +15892,7 @@
         </is>
       </c>
       <c r="D773" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="774">
@@ -16012,7 +16012,7 @@
         </is>
       </c>
       <c r="D779" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="780">
@@ -16032,7 +16032,7 @@
         </is>
       </c>
       <c r="D780" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="781">
@@ -16272,7 +16272,7 @@
         </is>
       </c>
       <c r="D792" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="793">
@@ -16332,7 +16332,7 @@
         </is>
       </c>
       <c r="D795" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="796">
@@ -16412,7 +16412,7 @@
         </is>
       </c>
       <c r="D799" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="800">
@@ -16452,7 +16452,7 @@
         </is>
       </c>
       <c r="D801" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="802">
@@ -16492,7 +16492,7 @@
         </is>
       </c>
       <c r="D803" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="804">
@@ -16732,7 +16732,7 @@
         </is>
       </c>
       <c r="D815" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="816">
@@ -16852,7 +16852,7 @@
         </is>
       </c>
       <c r="D821" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="822">
@@ -17012,7 +17012,7 @@
         </is>
       </c>
       <c r="D829" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="830">
@@ -17232,7 +17232,7 @@
         </is>
       </c>
       <c r="D840" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="841">
@@ -17292,7 +17292,7 @@
         </is>
       </c>
       <c r="D843" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="844">
@@ -17352,7 +17352,7 @@
         </is>
       </c>
       <c r="D846" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="847">
@@ -17492,7 +17492,7 @@
         </is>
       </c>
       <c r="D853" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="854">
@@ -17532,7 +17532,7 @@
         </is>
       </c>
       <c r="D855" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="856">
@@ -17612,7 +17612,7 @@
         </is>
       </c>
       <c r="D859" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="860">
@@ -17632,7 +17632,7 @@
         </is>
       </c>
       <c r="D860" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="861">
@@ -18472,7 +18472,7 @@
         </is>
       </c>
       <c r="D902" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="903">

--- a/학습자료/단답형/영어_기초단어.xlsx
+++ b/학습자료/단답형/영어_기초단어.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -463,7 +463,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>(값) 별로 가치를 평가하다</t>
+          <t>별로 가치를 평가하다</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -483,7 +483,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>(현재) 앞에 보내진→출석한</t>
+          <t>앞에 보내진→출석한</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>(자원 봉사자) 스스로 나서는 사람→자원봉사자</t>
+          <t>스스로 나서는 사람→자원봉사자</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -523,7 +523,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>(요금) 누가 내유산을 차지하면→비난하고 고소해서 책임지게하다</t>
+          <t>누가 내유산을 차지하면→비난하고 고소해서 책임지게하다</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>(공연하다) 끝까지 폼을 유지해→수행하다 공연하다</t>
+          <t>끝까지 폼을 유지해→수행하다 공연하다</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>(추천하다) 내꺼만 살짝 추천하다</t>
+          <t>내꺼만 살짝 추천하다</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -583,7 +583,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>(결정) 디엠지를 건너와 새터민이 되기로 결심하다</t>
+          <t>디엠지를 건너와 새터민이 되기로 결심하다</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -603,7 +603,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>(관찰하다) 앞에서 지키다→감시하다, 준수하다</t>
+          <t>앞에서 지키다→감시하다, 준수하다</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -623,7 +623,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>(제거하다) 다시 움직이다→제거하다</t>
+          <t>다시 움직이다→제거하다</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -643,7 +643,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>(시달리다) 섭하 → 섭하지만 참다</t>
+          <t>섭하 → 섭하지만 참다</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -663,7 +663,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>(대답하다) 연못(pond)에 돌던지면 반응하다</t>
+          <t>연못(pond)에 돌던지면 반응하다</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>(식별하다) 인터넷아이디 확인 동일시하다</t>
+          <t>인터넷아이디 확인 동일시하다</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>(혼란시키다) 함께부어 구별이 안됨→혼란시키다</t>
+          <t>함께부어 구별이 안됨→혼란시키다</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>(인식하다) 니코아니지?→알아보고 인정하다</t>
+          <t>니코아니지?→알아보고 인정하다</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>(풀어 주다) 다시 느슨하게 풀어주다, 발표하다</t>
+          <t>다시 느슨하게 풀어주다, 발표하다</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>(연관짓다) as+social(사교적인) → 결합시키다. 연상하다</t>
+          <t>as+social(사교적인) → 결합시키다. 연상하다</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -783,7 +783,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>(대표하다) 내선물로 마음을 표현하다. 대표하다</t>
+          <t>내선물로 마음을 표현하다. 대표하다</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -803,7 +803,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>(좌절합니다) 프러스가 틀어지자 그를 좌절시키다</t>
+          <t>프러스가 틀어지자 그를 좌절시키다</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -823,7 +823,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>(참가하다) 파티에 참가하다</t>
+          <t>파티에 참가하다</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -843,7 +843,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>(생산하다) 필드에서 농작물을 생산하다, 양도하다, 굴복하다</t>
+          <t>필드에서 농작물을 생산하다, 양도하다, 굴복하다</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -863,7 +863,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>(평가하다) 밖으로 가치를 평가하다</t>
+          <t>밖으로 가치를 평가하다</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>(원형 실) 확실하게 만들다</t>
+          <t>확실하게 만들다</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>(다시 덮다) 다시 덮다→회복하다</t>
+          <t>다시 덮다→회복하다</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -923,7 +923,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>(논평) 노코멘트는 논평안하다→논평하다</t>
+          <t>노코멘트는 논평안하다→논평하다</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -943,7 +943,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>(당황합니다) 장애물(bar)가 있어 당황하게하다</t>
+          <t>장애물(bar)가 있어 당황하게하다</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>(향상시키다) en+hance(high) → 높게하다</t>
+          <t>en+hance(high) → 높게하다</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>(예약하다) 뒤에 지키다→지키다, 보존하다</t>
+          <t>뒤에 지키다→지키다, 보존하다</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>(탐구하다) 인터넷을 탐험하다</t>
+          <t>인터넷을 탐험하다</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>(확인하다) 서로 확인하다→확증하다, 승인하다</t>
+          <t>서로 확인하다→확증하다, 승인하다</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>(극복하다) 넘어오다 → 극복하다</t>
+          <t>넘어오다 → 극복하다</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1063,7 +1063,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>(성취하다) 완전히 해내다 → 성취하다</t>
+          <t>완전히 해내다 → 성취하다</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>(추구하다) 포수가 짐승을 추적하다</t>
+          <t>포수가 짐승을 추적하다</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>(새끼를 낳다) 빵(bread)을 먹여서 기르다</t>
+          <t>빵(bread)을 먹여서 기르다</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1123,7 +1123,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>(전시하다) 가진 것을 밖으로 내놓다→전시하다</t>
+          <t>가진 것을 밖으로 내놓다→전시하다</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>(정의하다) 아래로 끝을 정하다→정의하다</t>
+          <t>아래로 끝을 정하다→정의하다</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1163,7 +1163,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>(자극) sting 찔러서 자극하다</t>
+          <t>sting 찔러서 자극하다</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>(구별하다) 뒤에서 찔러서 자국을 내어 구별하다</t>
+          <t>뒤에서 찔러서 자국을 내어 구별하다</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>(점령) 직업이란 내가 차지하고 있는 것</t>
+          <t>직업이란 내가 차지하고 있는 것</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>(전달하다) 큰배로 호송하다</t>
+          <t>큰배로 호송하다</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1243,7 +1243,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>(고의의) 심사숙고해서 덜입어라</t>
+          <t>심사숙고해서 덜입어라</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>(버리다) 애밴돈을 버리다</t>
+          <t>애밴돈을 버리다</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>(제거하다) 일르면 없애버린다→제거하다</t>
+          <t>일르면 없애버린다→제거하다</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>(언급하다) 멘트를 날리다 → 언급하다</t>
+          <t>멘트를 날리다 → 언급하다</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>(정장) 따라가니까 어울리다, 정장한벌, 소송</t>
+          <t>따라가니까 어울리다, 정장한벌, 소송</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>(파생) 강으로부터 물을 얻으니까 유래하다</t>
+          <t>강으로부터 물을 얻으니까 유래하다</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>(신경 쓰다) 다른 사람을 괴롭히다</t>
+          <t>다른 사람을 괴롭히다</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>(분석) 전체적으로 느슨하게 분석하다</t>
+          <t>전체적으로 느슨하게 분석하다</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>(칭찬) 상대방을 올려주는 것 → 칭찬하다</t>
+          <t>상대방을 올려주는 것 → 칭찬하다</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>(수정하다) 마더가 파이만드는 법을 바꾸다</t>
+          <t>마더가 파이만드는 법을 바꾸다</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>(광택) 파리시를 광내다</t>
+          <t>파리시를 광내다</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>(해치다) 인에게 상처를 줘 해치다</t>
+          <t>인에게 상처를 줘 해치다</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1483,7 +1483,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>(해치) 해치를 열다, 부화하다</t>
+          <t>해치를 열다, 부화하다</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>(짜증나게 하다) 이리떼이고 저리떼어 짜증나게하다</t>
+          <t>이리떼이고 저리떼어 짜증나게하다</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>(형편이되다) 어 포드차를 살 여유가 있다</t>
+          <t>어 포드차를 살 여유가 있다</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>(예상하다) 안티실패하리라 예상하다, 고대하다</t>
+          <t>안티실패하리라 예상하다, 고대하다</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1563,7 +1563,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>(감지하다) 덮어져 있는 것을 제거하니까 → 간파하다</t>
+          <t>덮어져 있는 것을 제거하니까 → 간파하다</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1583,7 +1583,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>(바래다) 색이바래서 파이다</t>
+          <t>색이바래서 파이다</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -1603,7 +1603,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>(축적하다) 어꾸물꾸물 재산이 쌓이다 → 축적하다</t>
+          <t>어꾸물꾸물 재산이 쌓이다 → 축적하다</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>(아끼다) 철이씨를 소중히 하다</t>
+          <t>철이씨를 소중히 하다</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -1643,7 +1643,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>(진화합니다) 밖으로 굴리다 전개하다, 진화하다</t>
+          <t>밖으로 굴리다 전개하다, 진화하다</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1663,7 +1663,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>(인식하다) 포를 씹어보고 인지하다</t>
+          <t>포를 씹어보고 인지하다</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>(자격을 갖추십시오) 자질이 되는 사람에게 자격을 주다</t>
+          <t>자질이 되는 사람에게 자격을 주다</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1703,7 +1703,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>(날기) 쏘아 날아 오르다</t>
+          <t>쏘아 날아 오르다</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1723,7 +1723,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>(얽매다) 다시 엄격하게 하니까 → 제한하다</t>
+          <t>다시 엄격하게 하니까 → 제한하다</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>(보장하다) 높은 게런티를 보증하다</t>
+          <t>높은 게런티를 보증하다</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>(~ 받을 만하다) 뒤져볼 가치 있는 누나의 서랍</t>
+          <t>뒤져볼 가치 있는 누나의 서랍</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>(해결하다) 다시풀기로 결심하다</t>
+          <t>다시풀기로 결심하다</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>(지원) 아이도 돕다</t>
+          <t>아이도 돕다</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1823,7 +1823,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>(승인하다) 그랜드피아노를 주다</t>
+          <t>그랜드피아노를 주다</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>(견디다) 끝까지 참다</t>
+          <t>끝까지 참다</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1863,7 +1863,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>(고소하다) 도망간 범인을 쫓아서 고소하다</t>
+          <t>도망간 범인을 쫓아서 고소하다</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -1883,7 +1883,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>(보증) 확실하게 근심이 없게하다 보증하다, 장담하다</t>
+          <t>확실하게 근심이 없게하다 보증하다, 장담하다</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -1903,7 +1903,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>(복원) 다시 가게를 되찾다, 회복하다</t>
+          <t>다시 가게를 되찾다, 회복하다</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -1923,7 +1923,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>(억누르다) 지배하는 거니까 지배하다</t>
+          <t>지배하는 거니까 지배하다</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>(뛰다) 바비큐 립을 먹는다고 좋아서 껑충뛰다</t>
+          <t>바비큐 립을 먹는다고 좋아서 껑충뛰다</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -1963,7 +1963,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>(유혹) 캠핑가자고 신상텐트로 유혹하다</t>
+          <t>캠핑가자고 신상텐트로 유혹하다</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>(놀라게 하다) 어 스타온다 놀라게 하다</t>
+          <t>어 스타온다 놀라게 하다</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>(바치다) 디지게 표얻기 위해 헌신하다, 바치다</t>
+          <t>디지게 표얻기 위해 헌신하다, 바치다</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>(발휘) 운동하며 힘을 사용하다, 노력하다</t>
+          <t>운동하며 힘을 사용하다, 노력하다</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2043,7 +2043,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>(숨기다) 큰실수를 숨기다</t>
+          <t>큰실수를 숨기다</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2063,7 +2063,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>(추적하다) 투레이스에서 찾거나 추적하고 발자국을 찾다</t>
+          <t>투레이스에서 찾거나 추적하고 발자국을 찾다</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2083,7 +2083,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>(시작하다) 런치먹고나서 일을 시작하다</t>
+          <t>런치먹고나서 일을 시작하다</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2103,7 +2103,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>(타협) 함께 약속하다 → 타협하다</t>
+          <t>함께 약속하다 → 타협하다</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>(알리다) 정보를 알려주다</t>
+          <t>정보를 알려주다</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2143,7 +2143,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>(마이그레이션) 이동하는 거니까 이주하다</t>
+          <t>이동하는 거니까 이주하다</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>(화합물) 함게 놓으니까 혼합하다, 혼합의</t>
+          <t>함게 놓으니까 혼합하다, 혼합의</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2183,7 +2183,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>(방해하다) 뒤에서 톱질하며 방해하다</t>
+          <t>뒤에서 톱질하며 방해하다</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2203,7 +2203,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>(칭찬) 아이를 칭찬하다</t>
+          <t>아이를 칭찬하다</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2223,7 +2223,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>(충돌) 범퍼끼리 충돌하다</t>
+          <t>범퍼끼리 충돌하다</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2243,7 +2243,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>(감탄시키다) 안으로 눌러 깊은 인상을 주다</t>
+          <t>안으로 눌러 깊은 인상을 주다</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2263,7 +2263,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>(번영) 프로스포츠가 번영하다</t>
+          <t>프로스포츠가 번영하다</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2283,7 +2283,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>(보충) 공급하다, 보충하다</t>
+          <t>공급하다, 보충하다</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2303,7 +2303,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>(규제) 규칙적이니까 규제하다, 조절하다</t>
+          <t>규칙적이니까 규제하다, 조절하다</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>(덤프) 덤프트럭이 짐을 내리다</t>
+          <t>덤프트럭이 짐을 내리다</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>(굶어 죽다) 숱하게 굶주리다</t>
+          <t>숱하게 굶주리다</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2363,7 +2363,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>(수축) 새우가 오그라들다, 움츠리다</t>
+          <t>새우가 오그라들다, 움츠리다</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2383,7 +2383,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>(절망) 짝을 잃었을때 디지게 절망한다</t>
+          <t>짝을 잃었을때 디지게 절망한다</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2403,7 +2403,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>(남용) 없어 많이 사용해서 남용하다</t>
+          <t>없어 많이 사용해서 남용하다</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2423,7 +2423,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>(보상하십시오) 큰펜세트로 보상하다</t>
+          <t>큰펜세트로 보상하다</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -2443,7 +2443,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>(줄다) 치마가 더미니해지다 → 감소하다</t>
+          <t>치마가 더미니해지다 → 감소하다</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2463,7 +2463,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>(스위프) 스위퍼가 공격수를 다 휩쓸어버리다(스위퍼)</t>
+          <t>스위퍼가 공격수를 다 휩쓸어버리다(스위퍼)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>(포옹하다) 경주에서 임과 포옹하다</t>
+          <t>경주에서 임과 포옹하다</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2503,7 +2503,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>(해당) 서로 응답하다→교신하다, 일치하다</t>
+          <t>서로 응답하다→교신하다, 일치하다</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -2523,7 +2523,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>(inres) 상속하다, 물려받다</t>
+          <t>상속하다, 물려받다</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2543,7 +2543,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>(파악) 잔디를 움켜쥐다</t>
+          <t>잔디를 움켜쥐다</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2563,7 +2563,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>(거주합니다) 안에서 습관적으로 있는것 → 살다, 거주하다</t>
+          <t>안에서 습관적으로 있는것 → 살다, 거주하다</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -2583,7 +2583,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>(철회하다) 함께 잡아당겨서 철수하다</t>
+          <t>함께 잡아당겨서 철수하다</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -2603,7 +2603,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>(애쓰다) 수받으려고 트라이해보자 노력하다</t>
+          <t>수받으려고 트라이해보자 노력하다</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -2623,7 +2623,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>(공격하다) 어 펜대로 공격하다</t>
+          <t>어 펜대로 공격하다</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>(뒤쪽) 니어미가 너를 길렀다, 리어카의 뒤</t>
+          <t>니어미가 너를 길렀다, 리어카의 뒤</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -2663,7 +2663,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>(산) 산을 오르다</t>
+          <t>산을 오르다</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -2683,7 +2683,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>(유증) 아래를 보며 궁리하다 → 고안하다</t>
+          <t>아래를 보며 궁리하다 → 고안하다</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>(설명) 다 일러쓰! 예를들어 설명해쓰!</t>
+          <t>다 일러쓰! 예를들어 설명해쓰!</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -2723,7 +2723,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>(유예하다) 서서 펜대를 매달다</t>
+          <t>서서 펜대를 매달다</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -2743,7 +2743,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>(과장하십시오) 입째져라 떠벌리다 → 과장하다</t>
+          <t>입째져라 떠벌리다 → 과장하다</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -2763,7 +2763,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>(왜곡) 비틀다, 왜곡하다</t>
+          <t>비틀다, 왜곡하다</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -2783,7 +2783,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>(대립합니다) 함께 앞에 직면하다</t>
+          <t>함께 앞에 직면하다</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>(대군) 플럭플럭 새무리 떼, 모이다</t>
+          <t>플럭플럭 새무리 떼, 모이다</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -2823,7 +2823,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>(줄기) 체계, 줄기</t>
+          <t>체계, 줄기</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -2843,7 +2843,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>(수용) 어 꼬마들이 숙박하네, 수용하네</t>
+          <t>어 꼬마들이 숙박하네, 수용하네</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -2863,7 +2863,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>(받다) 언더 생활을 겪다, 경험하다</t>
+          <t>언더 생활을 겪다, 경험하다</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -2883,7 +2883,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>(삭제) 일없으니까 없애고 지우다</t>
+          <t>일없으니까 없애고 지우다</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -2903,7 +2903,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>(대리자) 아래서있는이가 대신하다</t>
+          <t>아래서있는이가 대신하다</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -2923,7 +2923,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>(실행하다) 밖으로 내보내니 실행하다</t>
+          <t>밖으로 내보내니 실행하다</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -2943,7 +2943,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>(버티다) 함께 서서 저항하다, 견디다</t>
+          <t>함께 서서 저항하다, 견디다</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>(번창하다) 드라이브가 많으니 번영하다</t>
+          <t>드라이브가 많으니 번영하다</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>(명령) 컴맨! 이리와 명령하다</t>
+          <t>컴맨! 이리와 명령하다</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -3003,7 +3003,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>(경사) 안으로 기울다 → 기울다</t>
+          <t>안으로 기울다 → 기울다</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -3023,7 +3023,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>(약탈) 수포 일 일이 수포로 돌아가다, 망치다</t>
+          <t>수포 일 일이 수포로 돌아가다, 망치다</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -3043,7 +3043,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>(즐겁게 하다) 납짝엎드리다 아첨하다</t>
+          <t>납짝엎드리다 아첨하다</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -3063,7 +3063,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>(엎지르다) 소피를 흘리다</t>
+          <t>소피를 흘리다</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -3083,7 +3083,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>(해고하다) 뒤에서 차다 석방하다, 해고하다</t>
+          <t>뒤에서 차다 석방하다, 해고하다</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -3103,7 +3103,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>(강조하다) 안에서 보이도록 강조하다</t>
+          <t>안에서 보이도록 강조하다</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -3123,7 +3123,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>(삭제) del키는 지우다</t>
+          <t>del키는 지우다</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -3143,7 +3143,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>(빌다) 백원 달라고 간청하다</t>
+          <t>백원 달라고 간청하다</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -3163,7 +3163,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>(새기다) 카에 브이자를 새기다, 조각하다</t>
+          <t>카에 브이자를 새기다, 조각하다</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -3183,7 +3183,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>(나뉘다) 수풀이 둘로 쪼개지다</t>
+          <t>수풀이 둘로 쪼개지다</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -3203,7 +3203,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>(진단) 다이아가 코속에 들어가 진단하다</t>
+          <t>다이아가 코속에 들어가 진단하다</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -3223,7 +3223,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>(구현) 실체를 만드니 구체화하다</t>
+          <t>실체를 만드니 구체화하다</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -3243,7 +3243,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>(흩어지게하다) 수캐들이 흩뜨려 놓다</t>
+          <t>수캐들이 흩뜨려 놓다</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -3252,7 +3252,7 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -3263,7 +3263,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>(달래다) 수두앓는 아이를 진정시키다</t>
+          <t>수두앓는 아이를 진정시키다</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -3272,7 +3272,7 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -3283,7 +3283,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>(닦음) 와이퍼로 유리를 닦다</t>
+          <t>와이퍼로 유리를 닦다</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -3303,7 +3303,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>(젓다) 스타를 자극하다</t>
+          <t>스타를 자극하다</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -3323,7 +3323,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>(개선) 다시 좋게하다 정제하다, 순화하다</t>
+          <t>다시 좋게하다 정제하다, 순화하다</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -3332,7 +3332,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -3343,7 +3343,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>(늦추다) 느슨하게하다</t>
+          <t>느슨하게하다</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -3363,7 +3363,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>(튀김) 스프레이뿌려서 튀다</t>
+          <t>스프레이뿌려서 튀다</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -3383,7 +3383,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>(부활) 다시 살아나다</t>
+          <t>다시 살아나다</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -3392,7 +3392,7 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -3403,7 +3403,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>(기르다) 포스터를 붙여 흥행을 촉진하다</t>
+          <t>포스터를 붙여 흥행을 촉진하다</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>(항복) 서랜다 항복하다, 포기하다</t>
+          <t>서랜다 항복하다, 포기하다</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -3443,7 +3443,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>(새싹) 수풀밖으로 싹이트다</t>
+          <t>수풀밖으로 싹이트다</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -3463,7 +3463,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>(노호) 사자가 노하니까 으르렁거리다, 포효하다</t>
+          <t>사자가 노하니까 으르렁거리다, 포효하다</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -3483,7 +3483,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>(희미한) 페인트칠이 희미해진</t>
+          <t>페인트칠이 희미해진</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -3503,7 +3503,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>(부담) 타이트하게 잡아당기다 긴장시키다</t>
+          <t>타이트하게 잡아당기다 긴장시키다</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -3523,7 +3523,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>(주의) 코에손! 독가스 조심</t>
+          <t>코에손! 독가스 조심</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -3543,7 +3543,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>(녹다) 말투 애간장 녹이는 말투</t>
+          <t>말투 애간장 녹이는 말투</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -3563,7 +3563,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>(붙잡다) 내쪽에 놓다 → 소유하다</t>
+          <t>내쪽에 놓다 → 소유하다</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -3583,7 +3583,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>(중독자) 더하면 중독된다</t>
+          <t>더하면 중독된다</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
@@ -3603,7 +3603,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>(노력) 스스로 의무를 지우다 노력하다</t>
+          <t>스스로 의무를 지우다 노력하다</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -3623,7 +3623,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>(익숙합니다) 관습으로 되니까 익숙하게 하다</t>
+          <t>관습으로 되니까 익숙하게 하다</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -3643,7 +3643,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>(금지) 금지를 명령하다 금지하다</t>
+          <t>금지를 명령하다 금지하다</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -3663,7 +3663,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>(펄쩍 뛸 만한 놀람) 스타들이 나와 깜짝 놀라게 하다</t>
+          <t>스타들이 나와 깜짝 놀라게 하다</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -3683,7 +3683,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>(묶다) 바인더로 묶다</t>
+          <t>바인더로 묶다</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -3703,7 +3703,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>(포장길) 길을 지나도록 포장하다</t>
+          <t>길을 지나도록 포장하다</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -3712,7 +3712,7 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -3723,7 +3723,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>(비추다) 일류미인만 비추다</t>
+          <t>일류미인만 비추다</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -3743,7 +3743,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>(격노) 레인지에 호일을 넣으면 분노폭발</t>
+          <t>레인지에 호일을 넣으면 분노폭발</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -3752,7 +3752,7 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -3763,7 +3763,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>(목례) 너도나도 끄덕이다, 꾸벅꾸벅 졸다</t>
+          <t>너도나도 끄덕이다, 꾸벅꾸벅 졸다</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -3783,7 +3783,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>(시들다) 여자와 함께 시들어 가다</t>
+          <t>여자와 함께 시들어 가다</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -3803,7 +3803,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>(곰팡이) 몰두해서 주조하다</t>
+          <t>몰두해서 주조하다</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -3823,7 +3823,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>(맡다) 아래에서 짐을 받다 떠맡다, 착수하다</t>
+          <t>아래에서 짐을 받다 떠맡다, 착수하다</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -3843,7 +3843,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>(싸게 사는 물건) 바겐세일로 싸게산 물건</t>
+          <t>바겐세일로 싸게산 물건</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -3863,7 +3863,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>(세우다) 낸다 돈을 주다</t>
+          <t>낸다 돈을 주다</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -3883,7 +3883,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>(녹) 신뢰가 녹슬다</t>
+          <t>신뢰가 녹슬다</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -3903,7 +3903,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>(폐하다) 어 발리시가 공항을 폐지하다</t>
+          <t>어 발리시가 공항을 폐지하다</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -3912,7 +3912,7 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -3923,7 +3923,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>(창고) 그녀가 눈물을 흘리다</t>
+          <t>그녀가 눈물을 흘리다</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -3943,7 +3943,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>(방해) 힌두교가 방해하다, 저지하다</t>
+          <t>힌두교가 방해하다, 저지하다</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -3963,7 +3963,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>(억제) 갖지 못하게 하다, 방해하다</t>
+          <t>갖지 못하게 하다, 방해하다</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -3983,7 +3983,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>(구현하다) 임풀려면 도구가 필요</t>
+          <t>임풀려면 도구가 필요</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -4003,7 +4003,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>(속이다) 뒤에서 나를 씹다 → 속이다</t>
+          <t>뒤에서 나를 씹다 → 속이다</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -4023,7 +4023,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>(안 들리게 하다) 드러운 물에 빠져 익사하다</t>
+          <t>드러운 물에 빠져 익사하다</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -4043,7 +4043,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>(살다) 두애를 낳고 살다, 거주하다</t>
+          <t>두애를 낳고 살다, 거주하다</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -4052,7 +4052,7 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
@@ -4063,7 +4063,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>(다하다) 가득 채워넣다 이행하다, 수행하다</t>
+          <t>가득 채워넣다 이행하다, 수행하다</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -4083,7 +4083,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>(막다) 아래로 누르다 억누르다, 진압하다</t>
+          <t>아래로 누르다 억누르다, 진압하다</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -4103,7 +4103,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>(드러내다) 닫지않다 드러내다, 폭로하다</t>
+          <t>닫지않다 드러내다, 폭로하다</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -4123,7 +4123,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>(의히 알게 하다) 왕에게 이상한 사건을 알리다</t>
+          <t>왕에게 이상한 사건을 알리다</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -4143,7 +4143,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>(오염) 콘때문에 옷을 더럽히다, 오염시키다</t>
+          <t>콘때문에 옷을 더럽히다, 오염시키다</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -4163,7 +4163,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>(몹시 괴롭히다) 페르시아 죽다, 사라지다</t>
+          <t>페르시아 죽다, 사라지다</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -4183,7 +4183,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>(썩음) 뿌리부터 썩다</t>
+          <t>뿌리부터 썩다</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -4203,7 +4203,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>(초크) 초크가루가 나를 질식시키다</t>
+          <t>초크가루가 나를 질식시키다</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -4223,7 +4223,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>(선입견) 미리차지하다 → 선점하다</t>
+          <t>미리차지하다 → 선점하다</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -4243,7 +4243,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>(만연하다) 먼저 베니까 우세하다</t>
+          <t>먼저 베니까 우세하다</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -4263,7 +4263,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>(호리다) 인천 앞바다가 사람을 매혹시키다</t>
+          <t>인천 앞바다가 사람을 매혹시키다</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -4272,7 +4272,7 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
@@ -4283,7 +4283,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>(정지) 홀드해서 멈추다, 중지하다</t>
+          <t>홀드해서 멈추다, 중지하다</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -4303,7 +4303,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>(난파선) 렉걸려 난파 되다</t>
+          <t>렉걸려 난파 되다</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -4323,7 +4323,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>(흐느낌) 섭섭해서 흐느껴 울다</t>
+          <t>섭섭해서 흐느껴 울다</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -4343,7 +4343,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>(돌리다) 원을 돌며 순환하다</t>
+          <t>원을 돌며 순환하다</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -4352,7 +4352,7 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
@@ -4363,7 +4363,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>(회전) 로테이션으로 교대하다</t>
+          <t>로테이션으로 교대하다</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -4383,7 +4383,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>(경향) 둘이붙들고 표류하다</t>
+          <t>둘이붙들고 표류하다</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -4403,7 +4403,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>(나타나다) 헌트 사냥터에 출몰하다</t>
+          <t>헌트 사냥터에 출몰하다</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -4412,7 +4412,7 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
@@ -4423,7 +4423,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>(묵상) 큰 절에가서 심사숙고하다</t>
+          <t>큰 절에가서 심사숙고하다</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -4443,7 +4443,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>(조종하다) 스타(별)를 보고 배를 조종하다</t>
+          <t>스타(별)를 보고 배를 조종하다</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -4463,7 +4463,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>(개요) 바깥선 윤곽, 개요</t>
+          <t>바깥선 윤곽, 개요</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -4483,7 +4483,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>(살금살금 기다) 게(크랩)는 옆으로 기어 다니다</t>
+          <t>게(크랩)는 옆으로 기어 다니다</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -4503,7 +4503,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>(위반) 비와 늦어 약속을 어기다</t>
+          <t>비와 늦어 약속을 어기다</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -4523,7 +4523,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>(차별) 죄를 지어 격리하니까 구별하다</t>
+          <t>죄를 지어 격리하니까 구별하다</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -4543,7 +4543,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>(버리다) 카드를 떼어놓으니 버리다</t>
+          <t>카드를 떼어놓으니 버리다</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -4552,7 +4552,7 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
@@ -4563,7 +4563,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>(가속) 엑셀러레이터를 밟아 가속하다</t>
+          <t>엑셀러레이터를 밟아 가속하다</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -4583,7 +4583,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>(관리) 어느 장관이나 그 부서를 관리한다</t>
+          <t>어느 장관이나 그 부서를 관리한다</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -4603,7 +4603,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>(무시하십시오) 아래로 하다 무시하다, 반항하다</t>
+          <t>아래로 하다 무시하다, 반항하다</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -4623,7 +4623,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>(화나게 하다) 앞으로 목소리를 내다 자극하다, 화나게 하다</t>
+          <t>앞으로 목소리를 내다 자극하다, 화나게 하다</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -4632,7 +4632,7 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
@@ -4643,7 +4643,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>(자격) 제목을 만들다 자격을 주다</t>
+          <t>제목을 만들다 자격을 주다</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -4663,7 +4663,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>(이익) 누군가에게 값어치가 있는 도움이 되다</t>
+          <t>누군가에게 값어치가 있는 도움이 되다</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>(분산) 뒤서퍼져 퍼뜨리다</t>
+          <t>뒤서퍼져 퍼뜨리다</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -4703,7 +4703,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>(기계화) 기계화하다</t>
+          <t>기계화하다</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -4723,7 +4723,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>(침투하십시오) 펜으로 뚫어 꿰뚫다, 관통하다</t>
+          <t>펜으로 뚫어 꿰뚫다, 관통하다</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -4743,7 +4743,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>(뛰어나다) 밖에서도 높은 능가하다, 뛰어나다</t>
+          <t>밖에서도 높은 능가하다, 뛰어나다</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -4763,7 +4763,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>(꽉 붙잡음) 골프 그립을 꽉잡다</t>
+          <t>골프 그립을 꽉잡다</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -4783,7 +4783,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>(침략) 배안으로 침입하다</t>
+          <t>배안으로 침입하다</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -4803,7 +4803,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>(피하다) 배밖으로 피하다</t>
+          <t>배밖으로 피하다</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -4823,7 +4823,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>(돌진) 푸른쥐가 강물로 뛰어들다</t>
+          <t>푸른쥐가 강물로 뛰어들다</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -4843,7 +4843,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>(놀리다) 튀지 튀니까 괴롭히다</t>
+          <t>튀지 튀니까 괴롭히다</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -4863,7 +4863,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>(충돌) 함께 미끌어져 충돌하다</t>
+          <t>함께 미끌어져 충돌하다</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -4883,7 +4883,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>(금지) 가진것을 앞으로 내놓다 금지하다</t>
+          <t>가진것을 앞으로 내놓다 금지하다</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -4892,7 +4892,7 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
@@ -4903,7 +4903,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>(위에 놓다) 산을 오르다, 극복하다</t>
+          <t>산을 오르다, 극복하다</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -4923,7 +4923,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>(보어) 완전하게 보완하다, 보충하다</t>
+          <t>완전하게 보완하다, 보충하다</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -4943,7 +4943,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>(배다) 큰 사부를 마음에 품다</t>
+          <t>큰 사부를 마음에 품다</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -4963,7 +4963,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>(떨림) 틀어! 불 떨면서 떨다</t>
+          <t>틀어! 불 떨면서 떨다</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -4983,7 +4983,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>(억누르다) 함께 잡다 못하게 하다, 억누르다</t>
+          <t>함께 잡다 못하게 하다, 억누르다</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -5003,7 +5003,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>(억압) 압박해서 누르다 억누르다</t>
+          <t>압박해서 누르다 억누르다</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
@@ -5023,7 +5023,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>(가두다) 완전히 제한하다, 가두다</t>
+          <t>완전히 제한하다, 가두다</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -5043,7 +5043,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>(인상) 스낵칩을 강탈하다</t>
+          <t>스낵칩을 강탈하다</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -5063,7 +5063,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>(가리키다) 디자인회사를 지명하다</t>
+          <t>디자인회사를 지명하다</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -5083,7 +5083,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>(연기하다) 뒤로 놓다 → 연기하다</t>
+          <t>뒤로 놓다 → 연기하다</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -5103,7 +5103,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>(위협) 메놓고 협박하다</t>
+          <t>메놓고 협박하다</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -5123,7 +5123,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>(화내다) 반대로 느끼니까 분개하다</t>
+          <t>반대로 느끼니까 분개하다</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -5143,7 +5143,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>(보증) 전쟁에는 정당한 이유와 근거가 있어야 한다</t>
+          <t>전쟁에는 정당한 이유와 근거가 있어야 한다</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -5152,7 +5152,7 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
@@ -5163,7 +5163,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>(의무) 무거운거 업으라지 강요하다</t>
+          <t>무거운거 업으라지 강요하다</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -5183,7 +5183,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>(술책) 캐취해서 데려오다</t>
+          <t>캐취해서 데려오다</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -5203,7 +5203,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>(쟁기) 풀 나온 곳을 쟁기질하다</t>
+          <t>풀 나온 곳을 쟁기질하다</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -5223,7 +5223,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>(꾀하다) 중용의 도를 닦으니까 숙고하다</t>
+          <t>중용의 도를 닦으니까 숙고하다</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -5243,7 +5243,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>(클래터) 달가닥 소리 클래? 털털</t>
+          <t>달가닥 소리 클래? 털털</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -5263,7 +5263,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>(협상) 니 꼬시어 협상하다</t>
+          <t>니 꼬시어 협상하다</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -5272,7 +5272,7 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
@@ -5283,7 +5283,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>(논쟁) 서로 반대로 놓다 논쟁, 토론</t>
+          <t>서로 반대로 놓다 논쟁, 토론</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -5303,7 +5303,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>(저주) 지갑훔쳐가면 저주하고 욕한다</t>
+          <t>지갑훔쳐가면 저주하고 욕한다</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -5323,7 +5323,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>(슬픔) 마음이 무겁다 슬퍼하다</t>
+          <t>마음이 무겁다 슬퍼하다</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -5343,7 +5343,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>(구속) 뒤로 묶다 제지하다, 억누르다</t>
+          <t>뒤로 묶다 제지하다, 억누르다</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -5363,7 +5363,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>(비탄) 왜이래 하며 울부짓다</t>
+          <t>왜이래 하며 울부짓다</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -5383,7 +5383,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>(추력) 신뢰가 녹슬어 찌르다</t>
+          <t>신뢰가 녹슬어 찌르다</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -5403,7 +5403,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>(나누다) 등급화하다 분류하다</t>
+          <t>등급화하다 분류하다</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -5423,7 +5423,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>(항의) 프로선수가 테스트에 항의하다</t>
+          <t>프로선수가 테스트에 항의하다</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -5443,7 +5443,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>(생략) 오밑에다 빠트리다, 생략하다</t>
+          <t>오밑에다 빠트리다, 생략하다</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -5463,7 +5463,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>(끽끽 우는 소리) 잡담하는 것 재잘거리다, 수다 떨다</t>
+          <t>잡담하는 것 재잘거리다, 수다 떨다</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -5483,7 +5483,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>(떨리다) 바이브레이션 진동하다</t>
+          <t>바이브레이션 진동하다</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -5503,7 +5503,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>(침) 침 뱉으면 안돼죠</t>
+          <t>침 뱉으면 안돼죠</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -5523,7 +5523,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>(안전하게 하다) 인쉬어 보험 들었으니 인제 쉬어</t>
+          <t>인쉬어 보험 들었으니 인제 쉬어</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -5532,7 +5532,7 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256">
@@ -5543,7 +5543,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>(기다) 코를 땅에 대고 포복하다</t>
+          <t>코를 땅에 대고 포복하다</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -5563,7 +5563,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>(확인) 확고 하게하다, 확인하다</t>
+          <t>확고 하게하다, 확인하다</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -5583,7 +5583,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>(방사) 빛 열을 발하다, 방사하다</t>
+          <t>빛 열을 발하다, 방사하다</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -5603,7 +5603,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>(방패) 시위를 방패로 막다</t>
+          <t>시위를 방패로 막다</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -5612,7 +5612,7 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
@@ -5623,7 +5623,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>(시도) 날리다 내던지다</t>
+          <t>날리다 내던지다</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -5643,7 +5643,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>(한가롭게 이리저리 거닐다) 길을 굴러가듯이 산책하다</t>
+          <t>길을 굴러가듯이 산책하다</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -5663,7 +5663,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>(예배) 월10% 예배드리러 가서 숭배하다</t>
+          <t>월10% 예배드리러 가서 숭배하다</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -5683,7 +5683,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>(참다) 화장실 가려다 참다</t>
+          <t>화장실 가려다 참다</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -5703,7 +5703,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>(눈빛) 별 빛이 반짝이다</t>
+          <t>별 빛이 반짝이다</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -5723,7 +5723,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>(지명) 이름을 부르다 지명하다, 추천하다</t>
+          <t>이름을 부르다 지명하다, 추천하다</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -5743,7 +5743,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>(조소) 니 뒤꼴 보고 비웃다, 조롱하다</t>
+          <t>니 뒤꼴 보고 비웃다, 조롱하다</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -5763,7 +5763,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>(추측) 습한굴에서 사색하다</t>
+          <t>습한굴에서 사색하다</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -5783,7 +5783,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>(투옥) 감옥안에 넣다, 투옥하다</t>
+          <t>감옥안에 넣다, 투옥하다</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -5803,7 +5803,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>(맹세) 바위에 맹세하다</t>
+          <t>바위에 맹세하다</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -5823,7 +5823,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>(순찰) 패트롤카 순찰차</t>
+          <t>패트롤카 순찰차</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -5843,7 +5843,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>(융성) 플러스해서 번창하다</t>
+          <t>플러스해서 번창하다</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -5863,7 +5863,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>(애도) 먼산을 보며 슬퍼하다</t>
+          <t>먼산을 보며 슬퍼하다</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -5883,7 +5883,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>(신음 소리) 괴로운 신음소리를 내다</t>
+          <t>괴로운 신음소리를 내다</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -5903,7 +5903,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>(세게 끌기) 홀 안으로 잡아끌다</t>
+          <t>홀 안으로 잡아끌다</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -5912,7 +5912,7 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
@@ -5923,7 +5923,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>(싫음) 뒤섞어져 메스껍다, 역겹게 하다</t>
+          <t>뒤섞어져 메스껍다, 역겹게 하다</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -5943,7 +5943,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>(활용하십시오) 너의티를 이용하다</t>
+          <t>너의티를 이용하다</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -5963,7 +5963,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>(가하다) 안에 때리다 입히다, 가하다</t>
+          <t>안에 때리다 입히다, 가하다</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -5983,7 +5983,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>(고발하다) 억 내돈을 사용했다 비난하다, 고소하다</t>
+          <t>억 내돈을 사용했다 비난하다, 고소하다</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -5992,7 +5992,7 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279">
@@ -6003,7 +6003,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>(베다) 리프 거두다, 획득하다</t>
+          <t>리프 거두다, 획득하다</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -6023,7 +6023,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>(반란) 후에 돌아서서 반항, 반란을 일으키다</t>
+          <t>후에 돌아서서 반항, 반란을 일으키다</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -6043,7 +6043,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>(두다) 베스트하면 상을 수여하죠</t>
+          <t>베스트하면 상을 수여하죠</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -6063,7 +6063,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>(팔다) 비틀어 배반한놈 목 → 배신하다</t>
+          <t>비틀어 배반한놈 목 → 배신하다</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -6083,7 +6083,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>(주입) 안에 여전히 남아 불어넣다</t>
+          <t>안에 여전히 남아 불어넣다</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -6103,7 +6103,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>(다투다) 함께 손뻗어 다투다</t>
+          <t>함께 손뻗어 다투다</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -6123,7 +6123,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>(마블) 놀라운 말벌이었어</t>
+          <t>놀라운 말벌이었어</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -6143,7 +6143,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>(망명) 에그 잘도 추방하다</t>
+          <t>에그 잘도 추방하다</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -6163,7 +6163,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>(깨닫다) 앞으로 손 체포하다</t>
+          <t>앞으로 손 체포하다</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -6183,7 +6183,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>(실험) 체험해보는 것 실험</t>
+          <t>체험해보는 것 실험</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -6192,7 +6192,7 @@
         </is>
       </c>
       <c r="D288" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289">
@@ -6203,7 +6203,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>(인내심 있는) 페이쓴 직장에서 인내하다</t>
+          <t>페이쓴 직장에서 인내하다</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -6223,7 +6223,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>(잠재적인) 강력한, 잠재적인</t>
+          <t>강력한, 잠재적인</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -6243,7 +6243,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>(불안한) 신경상태에 따라 바뀌니까 신경질적인</t>
+          <t>신경상태에 따라 바뀌니까 신경질적인</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -6263,7 +6263,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>(희귀한) 내어드려 진귀한 음식</t>
+          <t>내어드려 진귀한 음식</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -6283,7 +6283,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>(특정한) 볼수있도록 만드는 것 특수한, 독특한</t>
+          <t>볼수있도록 만드는 것 특수한, 독특한</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -6292,7 +6292,7 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294">
@@ -6303,7 +6303,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>(요인) 배우가 되려면 여러 요소를</t>
+          <t>배우가 되려면 여러 요소를</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -6323,7 +6323,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>(전문가) 다양한 경험 전문가</t>
+          <t>다양한 경험 전문가</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -6343,7 +6343,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>(수단) 파리시의 정책</t>
+          <t>파리시의 정책</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -6363,7 +6363,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>(적절한) 플어보리 적절하게</t>
+          <t>플어보리 적절하게</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -6372,7 +6372,7 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298">
@@ -6383,7 +6383,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>(시설) 만들기에 적합한 시설, 편의</t>
+          <t>만들기에 적합한 시설, 편의</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -6403,7 +6403,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>(무관심한) 무관심한</t>
+          <t>무관심한</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -6423,7 +6423,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>(도시의) 오번가 도시</t>
+          <t>오번가 도시</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -6432,7 +6432,7 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301">
@@ -6443,7 +6443,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>(소득) 집안으로 들어오는 것 → 수입</t>
+          <t>집안으로 들어오는 것 → 수입</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -6463,7 +6463,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>(대안) 얼터너티비로 대체</t>
+          <t>얼터너티비로 대체</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303">
@@ -6483,7 +6483,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>(실혐실) 과학자들이 일하는 곳 실험실</t>
+          <t>과학자들이 일하는 곳 실험실</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -6503,7 +6503,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>(우수한) 우수한</t>
+          <t>우수한</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -6523,7 +6523,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>(특성) 적당한 재산</t>
+          <t>적당한 재산</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -6532,7 +6532,7 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306">
@@ -6543,7 +6543,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>(현상) 피나면은 피곤한 현상</t>
+          <t>피나면은 피곤한 현상</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -6563,7 +6563,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>(적절한) 본인에게 자기자신의 것이니까 적절한</t>
+          <t>본인에게 자기자신의 것이니까 적절한</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -6583,7 +6583,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>(상태) 우리의 지위</t>
+          <t>우리의 지위</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -6603,7 +6603,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>(요즘에는) 지금 날들 요즘, 오늘날</t>
+          <t>지금 날들 요즘, 오늘날</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -6623,7 +6623,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>(징후) 심통은 병의 징조</t>
+          <t>심통은 병의 징조</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -6643,7 +6643,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>(위험) 해져서 골목은 위험</t>
+          <t>해져서 골목은 위험</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -6652,7 +6652,7 @@
         </is>
       </c>
       <c r="D311" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312">
@@ -6663,7 +6663,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>(극심한) 안에서 강렬한 댄스</t>
+          <t>안에서 강렬한 댄스</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -6683,7 +6683,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>(즉각적인) 인스턴트 식품은 즉석, 즉각</t>
+          <t>인스턴트 식품은 즉석, 즉각</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -6692,7 +6692,7 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314">
@@ -6703,7 +6703,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>(유효한) 대머리가 발라도 효과있는, 타당한</t>
+          <t>대머리가 발라도 효과있는, 타당한</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -6723,7 +6723,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>(특허) 특허 받은 파란텐트</t>
+          <t>특허 받은 파란텐트</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -6743,7 +6743,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>(근본적인) 펀드와 정신은 기초적이다</t>
+          <t>펀드와 정신은 기초적이다</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -6752,7 +6752,7 @@
         </is>
       </c>
       <c r="D316" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317">
@@ -6763,7 +6763,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>(물리학) 피식스 구하는 물리학</t>
+          <t>피식스 구하는 물리학</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -6783,7 +6783,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>(협력) 함께 운영 → 협동</t>
+          <t>함께 운영 → 협동</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -6803,7 +6803,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>(초상화) 특성을 보여주는 초상화</t>
+          <t>특성을 보여주는 초상화</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -6823,7 +6823,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>(특성) 끌어져 나오는 것 → 특성</t>
+          <t>끌어져 나오는 것 → 특성</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -6843,7 +6843,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>(음울한) 구름이 많아 우울한</t>
+          <t>구름이 많아 우울한</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -6863,7 +6863,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>(장애) 압서테클로 방해</t>
+          <t>압서테클로 방해</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -6883,7 +6883,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>(규율) 뒤서풀린 규율, 훈련</t>
+          <t>뒤서풀린 규율, 훈련</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -6903,7 +6903,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>(부족한) 스타는 드물다</t>
+          <t>스타는 드물다</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -6923,7 +6923,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>(줄무늬) 스트라이프 티셔츠 줄무늬</t>
+          <t>스트라이프 티셔츠 줄무늬</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -6932,7 +6932,7 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326">
@@ -6943,7 +6943,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>(자극) 인센티브 장려금</t>
+          <t>인센티브 장려금</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -6963,7 +6963,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>(사과) 어쪽팔리지 사과</t>
+          <t>어쪽팔리지 사과</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -6983,7 +6983,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>(조류) 대 맞춰 들어오고 나가는 조수</t>
+          <t>대 맞춰 들어오고 나가는 조수</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -7003,7 +7003,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>(비상) 이모 전시에요 → 비상사태</t>
+          <t>이모 전시에요 → 비상사태</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="D329" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330">
@@ -7023,7 +7023,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>(먹이) 사냥으로 잡힌 동물 먹이, 희생자</t>
+          <t>사냥으로 잡힌 동물 먹이, 희생자</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -7043,7 +7043,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>(환각) 몸이 아프면 환상이 보여</t>
+          <t>몸이 아프면 환상이 보여</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -7063,7 +7063,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>(상인) 뭐 잔뜩 파는 상인</t>
+          <t>뭐 잔뜩 파는 상인</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -7083,7 +7083,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>(안정적인) 서있는 안정된 견고한</t>
+          <t>서있는 안정된 견고한</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -7103,7 +7103,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>(상대) 반대하는 적수</t>
+          <t>반대하는 적수</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -7112,7 +7112,7 @@
         </is>
       </c>
       <c r="D334" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335">
@@ -7123,7 +7123,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>(필수적인) 비타민은 필수적인 요소</t>
+          <t>비타민은 필수적인 요소</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -7143,7 +7143,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>(목적지) 돼서 튄나라가 목적지</t>
+          <t>돼서 튄나라가 목적지</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -7163,7 +7163,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>(망치다) 누이는 파멸했다</t>
+          <t>누이는 파멸했다</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -7183,7 +7183,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>(정교한) 일을 들인 공들인</t>
+          <t>일을 들인 공들인</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -7203,7 +7203,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>(기부) 돈내셔 기부하셔</t>
+          <t>돈내셔 기부하셔</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -7212,7 +7212,7 @@
         </is>
       </c>
       <c r="D339" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340">
@@ -7223,7 +7223,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>(자신감) 큰피던데 자신하는</t>
+          <t>큰피던데 자신하는</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -7243,7 +7243,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>(피로) 버티기 힘든 피로</t>
+          <t>버티기 힘든 피로</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -7263,7 +7263,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>(피해자) 빅팀의 희생자들</t>
+          <t>빅팀의 희생자들</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -7272,7 +7272,7 @@
         </is>
       </c>
       <c r="D342" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343">
@@ -7283,7 +7283,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>(목장) 소들을 패서처 넣는곳 → 목장</t>
+          <t>소들을 패서처 넣는곳 → 목장</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -7303,7 +7303,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>(여유) 마진(이익)이 남다</t>
+          <t>마진(이익)이 남다</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -7323,7 +7323,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>(중요한) 앞으로 튀어 나온 것 눈에띄는, 두드러진</t>
+          <t>앞으로 튀어 나온 것 눈에띄는, 두드러진</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -7343,7 +7343,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>(부족) 속타지 돈이 부족해서</t>
+          <t>속타지 돈이 부족해서</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -7363,7 +7363,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>(연민) 피티기니 불쌍</t>
+          <t>피티기니 불쌍</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -7383,7 +7383,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>(행성) 비행기처럼 나는 것 → 행성</t>
+          <t>비행기처럼 나는 것 → 행성</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -7403,7 +7403,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>(중력) 무거우니까 중력</t>
+          <t>무거우니까 중력</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -7423,7 +7423,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>(단단한) 땅은 단단한 고체</t>
+          <t>땅은 단단한 고체</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -7443,7 +7443,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>(물질) 아래에 서있는것 본질 실체</t>
+          <t>아래에 서있는것 본질 실체</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -7463,7 +7463,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>(심오한) 프로가 찾은 심오함</t>
+          <t>프로가 찾은 심오함</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -7483,7 +7483,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>(공포) 죽은사람보면 무서워지다</t>
+          <t>죽은사람보면 무서워지다</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -7492,7 +7492,7 @@
         </is>
       </c>
       <c r="D353" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354">
@@ -7503,7 +7503,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>(비참한) 틀에찍 비극적이다</t>
+          <t>틀에찍 비극적이다</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -7523,7 +7523,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>(열광) 인수와 지애는 열정적이다</t>
+          <t>인수와 지애는 열정적이다</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -7543,7 +7543,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>(트렁크) 트렁크 가방</t>
+          <t>트렁크 가방</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -7563,7 +7563,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>(성숙한) 맞추어 성숙하다</t>
+          <t>맞추어 성숙하다</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -7583,7 +7583,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>(사나운) 성질이 불같은, 사나운, 맹렬한</t>
+          <t>성질이 불같은, 사나운, 맹렬한</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -7603,7 +7603,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>(눈에 띄게) 알수 있는 현저한, 뚜렷한</t>
+          <t>알수 있는 현저한, 뚜렷한</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -7623,7 +7623,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>(나머지) 후에 남겨진것 나머지, 남은음식</t>
+          <t>후에 남겨진것 나머지, 남은음식</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -7643,7 +7643,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>(동상) 추워서 우는 조각상</t>
+          <t>추워서 우는 조각상</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -7663,7 +7663,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>(작별) 잘가 작별인사</t>
+          <t>잘가 작별인사</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -7672,7 +7672,7 @@
         </is>
       </c>
       <c r="D362" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363">
@@ -7683,7 +7683,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>(공황) 패닉에 빠져 공포</t>
+          <t>패닉에 빠져 공포</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -7703,7 +7703,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>(적의) 호스트를 몹시 싫어하는, 적대적인</t>
+          <t>호스트를 몹시 싫어하는, 적대적인</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -7723,7 +7723,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>(의심 많은) SK는 회의가 많아 회의적</t>
+          <t>SK는 회의가 많아 회의적</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -7743,7 +7743,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>(장점) 메리트증권의 장점</t>
+          <t>메리트증권의 장점</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -7763,7 +7763,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>(드물게) 셀돈이 거의 없는</t>
+          <t>셀돈이 거의 없는</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="D367" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368">
@@ -7783,7 +7783,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>(본능) 안에서 찌르는 것 → 본능</t>
+          <t>안에서 찌르는 것 → 본능</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -7803,7 +7803,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>(그 동안에) 그동안 미인이 되는 타임 미인타임</t>
+          <t>그동안 미인이 되는 타임 미인타임</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -7812,7 +7812,7 @@
         </is>
       </c>
       <c r="D369" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370">
@@ -7823,7 +7823,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>(포유류) 맘마먹는 포유동물</t>
+          <t>맘마먹는 포유동물</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -7843,7 +7843,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>(생생한) 비비다! 농부들이 활기찬</t>
+          <t>비비다! 농부들이 활기찬</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -7852,7 +7852,7 @@
         </is>
       </c>
       <c r="D371" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372">
@@ -7863,7 +7863,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>(특별한) 밖으로 끄집어낸 예외적인, 뛰어난</t>
+          <t>밖으로 끄집어낸 예외적인, 뛰어난</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -7872,7 +7872,7 @@
         </is>
       </c>
       <c r="D372" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373">
@@ -7883,7 +7883,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>(콘크리트) 콘크리트가 구체적인</t>
+          <t>콘크리트가 구체적인</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -7903,7 +7903,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>(운명) 대스타가 운명</t>
+          <t>대스타가 운명</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -7912,7 +7912,7 @@
         </is>
       </c>
       <c r="D374" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375">
@@ -7923,7 +7923,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>(강도) 버거를 훔치면 강도</t>
+          <t>버거를 훔치면 강도</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -7932,7 +7932,7 @@
         </is>
       </c>
       <c r="D375" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376">
@@ -7943,7 +7943,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>(애정) 영향을 끼치는 것은 엄마의 애정</t>
+          <t>영향을 끼치는 것은 엄마의 애정</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -7963,7 +7963,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>(내과 의사) 육체를 다루는 의사</t>
+          <t>육체를 다루는 의사</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -7983,7 +7983,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>(근교) 서부 교외</t>
+          <t>서부 교외</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -8003,7 +8003,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>(덕) 벗츄를 외치는 순결한 원더걸스</t>
+          <t>벗츄를 외치는 순결한 원더걸스</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -8023,7 +8023,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>(혼돈) 카오스 혼돈</t>
+          <t>카오스 혼돈</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -8032,7 +8032,7 @@
         </is>
       </c>
       <c r="D380" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381">
@@ -8043,7 +8043,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>(간친회) 결합할 수 있는 사교적인</t>
+          <t>결합할 수 있는 사교적인</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -8052,7 +8052,7 @@
         </is>
       </c>
       <c r="D381" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382">
@@ -8063,7 +8063,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>(주저하는) 대항하여 씨름하는 내키지 않는, 꺼리는</t>
+          <t>대항하여 씨름하는 내키지 않는, 꺼리는</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -8083,7 +8083,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>(야만적인) 소 비지 먹는 야만인</t>
+          <t>소 비지 먹는 야만인</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -8092,7 +8092,7 @@
         </is>
       </c>
       <c r="D383" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384">
@@ -8103,7 +8103,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>(운명) 둠스데이 운명의 날</t>
+          <t>둠스데이 운명의 날</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -8123,7 +8123,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>(똑바로) 곧장 앞으로 솔직한</t>
+          <t>곧장 앞으로 솔직한</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -8143,7 +8143,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>(두번째 손) 두번째손 간접적인, 중고의</t>
+          <t>두번째손 간접적인, 중고의</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -8152,7 +8152,7 @@
         </is>
       </c>
       <c r="D386" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387">
@@ -8163,7 +8163,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>(엄격한) 똑바른 엄격한, 완고한</t>
+          <t>똑바른 엄격한, 완고한</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -8183,7 +8183,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>(불행) 머저리의 불행</t>
+          <t>머저리의 불행</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -8192,7 +8192,7 @@
         </is>
       </c>
       <c r="D388" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389">
@@ -8203,7 +8203,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>(굵게) 벌두 무서워 않는 대담한</t>
+          <t>벌두 무서워 않는 대담한</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -8212,7 +8212,7 @@
         </is>
       </c>
       <c r="D389" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390">
@@ -8223,7 +8223,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>(피곤한) 왜이리 피로한</t>
+          <t>왜이리 피로한</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -8232,7 +8232,7 @@
         </is>
       </c>
       <c r="D390" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391">
@@ -8243,7 +8243,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>(관련 있는) 날려번트 → 적절한 번트</t>
+          <t>날려번트 → 적절한 번트</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -8263,7 +8263,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>(회보) 불에탄 게시판</t>
+          <t>불에탄 게시판</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -8283,7 +8283,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>(위엄) 깊이 연구하여 존엄한, 품위</t>
+          <t>깊이 연구하여 존엄한, 품위</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -8292,7 +8292,7 @@
         </is>
       </c>
       <c r="D393" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394">
@@ -8303,7 +8303,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>(능숙한) 컴퓨턴 능력 있는 물건</t>
+          <t>컴퓨턴 능력 있는 물건</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -8323,7 +8323,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>(훌륭해) 밖으로 나와 서있는 두드러진, 현저한</t>
+          <t>밖으로 나와 서있는 두드러진, 현저한</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -8332,7 +8332,7 @@
         </is>
       </c>
       <c r="D395" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396">
@@ -8343,7 +8343,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>(심각한) 어끄테가 날카로운</t>
+          <t>어끄테가 날카로운</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -8363,7 +8363,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>(콤팩트) 컴팩트 디스크는 소형</t>
+          <t>컴팩트 디스크는 소형</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -8372,7 +8372,7 @@
         </is>
       </c>
       <c r="D397" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398">
@@ -8383,7 +8383,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>(적절한) 아파트 살기 적절한</t>
+          <t>아파트 살기 적절한</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -8403,7 +8403,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>(가혹한) 하씨~ 거친</t>
+          <t>하씨~ 거친</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -8423,7 +8423,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>(시간 엄수) 펑추월해서 시간을 엄수하는</t>
+          <t>펑추월해서 시간을 엄수하는</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -8443,7 +8443,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>(모호) 치료책이 없어 불명확한, 애매한</t>
+          <t>치료책이 없어 불명확한, 애매한</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -8463,7 +8463,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>(이해력) 리딩 컴프리헨션은 독해, 이해</t>
+          <t>리딩 컴프리헨션은 독해, 이해</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -8483,7 +8483,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>(마찰) 쁘릭쁘릭 마찰, 충돌</t>
+          <t>쁘릭쁘릭 마찰, 충돌</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -8503,7 +8503,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>(무질서) 질서를 멀리 무질서</t>
+          <t>질서를 멀리 무질서</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -8523,7 +8523,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>(역병) 플라그는 전염된다</t>
+          <t>플라그는 전염된다</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -8543,7 +8543,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>(윤리학) 애씩스를 보니 윤리학을 가르치고 싶다</t>
+          <t>애씩스를 보니 윤리학을 가르치고 싶다</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -8563,7 +8563,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>(유력한) 포가10개 강력한</t>
+          <t>포가10개 강력한</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -8572,7 +8572,7 @@
         </is>
       </c>
       <c r="D407" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408">
@@ -8583,7 +8583,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>(치명적인) 살찐사람은 치명적이다</t>
+          <t>살찐사람은 치명적이다</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="D408" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409">
@@ -8603,7 +8603,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>(성질) 시간에 따라 변하는 기분, 기질</t>
+          <t>시간에 따라 변하는 기분, 기질</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -8623,7 +8623,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>(양심) 큰선수의 양심</t>
+          <t>큰선수의 양심</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -8643,7 +8643,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>(어둑한) 눈이 딤딤한 침침한, 희미한</t>
+          <t>눈이 딤딤한 침침한, 희미한</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -8663,7 +8663,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>(창백한) 파래서 창백한</t>
+          <t>파래서 창백한</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -8683,7 +8683,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>(비율) 이 비율을 풀어보셔</t>
+          <t>이 비율을 풀어보셔</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -8692,7 +8692,7 @@
         </is>
       </c>
       <c r="D413" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414">
@@ -8703,7 +8703,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>(정치가) 시민 사람 정치가</t>
+          <t>시민 사람 정치가</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -8723,7 +8723,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>(터무니없는) 없어두돼 불합리한 사람은</t>
+          <t>없어두돼 불합리한 사람은</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -8732,7 +8732,7 @@
         </is>
       </c>
       <c r="D415" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416">
@@ -8743,7 +8743,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>(빠른) 재빠르게 바꾸다</t>
+          <t>재빠르게 바꾸다</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -8763,7 +8763,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>(정크) 정크푸드는 쓰레기 음식</t>
+          <t>정크푸드는 쓰레기 음식</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -8783,7 +8783,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>(절약) 검소(thrift)해야 번영(thrive)하지</t>
+          <t>검소(thrift)해야 번영(thrive)하지</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -8803,7 +8803,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>(유창한) 물흐르듯 유창한</t>
+          <t>물흐르듯 유창한</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -8812,7 +8812,7 @@
         </is>
       </c>
       <c r="D419" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420">
@@ -8823,7 +8823,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>(공급) 미리 앞서 보는것 대비, 공급</t>
+          <t>미리 앞서 보는것 대비, 공급</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -8843,7 +8843,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>(저명한) 이미넌 탁월해</t>
+          <t>이미넌 탁월해</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -8863,7 +8863,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>(강도) 나빠 강도</t>
+          <t>나빠 강도</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -8883,7 +8883,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>(유아) 오빠는 고아</t>
+          <t>오빠는 고아</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -8903,7 +8903,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>(수녀) 넌 수녀</t>
+          <t>넌 수녀</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -8923,7 +8923,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>(전쟁) 전쟁의 여정 전쟁, 전투</t>
+          <t>전쟁의 여정 전쟁, 전투</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -8943,7 +8943,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>(태블릿) 테이블위 알약</t>
+          <t>테이블위 알약</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -8952,7 +8952,7 @@
         </is>
       </c>
       <c r="D426" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427">
@@ -8963,7 +8963,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>(무죄) 인어순수 순결</t>
+          <t>인어순수 순결</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -8983,7 +8983,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>(고물) 강한인상가진 엄격한 군인</t>
+          <t>강한인상가진 엄격한 군인</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -9003,7 +9003,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>(적도) 같게 만들다 적도</t>
+          <t>같게 만들다 적도</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -9023,7 +9023,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>(치명적인) 죽게하는 것 치명적인</t>
+          <t>죽게하는 것 치명적인</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -9043,7 +9043,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>(엄숙한) 솔로몬왕 앞에 엄숙히</t>
+          <t>솔로몬왕 앞에 엄숙히</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -9063,7 +9063,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>(진지한) 돈버는 데 열심인 성실한</t>
+          <t>돈버는 데 열심인 성실한</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -9083,7 +9083,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>(불규칙한) 이리굴러 불규칙한</t>
+          <t>이리굴러 불규칙한</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -9103,7 +9103,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>(공식) 수학풀때 형태 공식</t>
+          <t>수학풀때 형태 공식</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -9112,7 +9112,7 @@
         </is>
       </c>
       <c r="D434" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435">
@@ -9123,7 +9123,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>(위험) 폐를 다치는 위험</t>
+          <t>폐를 다치는 위험</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -9143,7 +9143,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>(공포) 싸움하는거 보면 공포를 느낀다</t>
+          <t>싸움하는거 보면 공포를 느낀다</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -9152,7 +9152,7 @@
         </is>
       </c>
       <c r="D436" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437">
@@ -9163,7 +9163,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>(낙천주의) 선택가능하다 믿는 것 낙천주의</t>
+          <t>선택가능하다 믿는 것 낙천주의</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -9172,7 +9172,7 @@
         </is>
       </c>
       <c r="D437" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438">
@@ -9183,7 +9183,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>(염세주의) 패스미스 비관적</t>
+          <t>패스미스 비관적</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -9203,7 +9203,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>(사기) 모래알 같은 사기</t>
+          <t>모래알 같은 사기</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -9223,7 +9223,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>(쓰레기) 차고(garage)에 쓰레기</t>
+          <t>차고(garage)에 쓰레기</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -9243,7 +9243,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>(기근) 가족이 많으면 부족으로 기근</t>
+          <t>가족이 많으면 부족으로 기근</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -9263,7 +9263,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>(부분) 부분</t>
+          <t>부분</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -9272,7 +9272,7 @@
         </is>
       </c>
       <c r="D442" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443">
@@ -9283,7 +9283,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>(무딘) 눈이멀어 행동이 무딘</t>
+          <t>눈이멀어 행동이 무딘</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -9303,7 +9303,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>(탐욕) 그리도 탐욕스러운지</t>
+          <t>그리도 탐욕스러운지</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -9312,7 +9312,7 @@
         </is>
       </c>
       <c r="D444" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445">
@@ -9323,7 +9323,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>(자비) 뭣이 자비냐</t>
+          <t>뭣이 자비냐</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -9343,7 +9343,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>(언어) 언어(학)에 대해 연구하는 사람</t>
+          <t>언어(학)에 대해 연구하는 사람</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -9363,7 +9363,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>(구체) 지구의 대부분은 숲이여</t>
+          <t>지구의 대부분은 숲이여</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -9383,7 +9383,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>(졸업 증서) 디플로 마감한 졸업장성적</t>
+          <t>디플로 마감한 졸업장성적</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -9403,7 +9403,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>(결함) 바닥에 결점이 많다</t>
+          <t>바닥에 결점이 많다</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -9423,7 +9423,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>(타고난) 태어나면서 안에 있는 선천적인</t>
+          <t>태어나면서 안에 있는 선천적인</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -9432,7 +9432,7 @@
         </is>
       </c>
       <c r="D450" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451">
@@ -9443,7 +9443,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>(감염병 유행) 많은 사람들 사이에 있는 유행, 전염</t>
+          <t>많은 사람들 사이에 있는 유행, 전염</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -9452,7 +9452,7 @@
         </is>
       </c>
       <c r="D451" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452">
@@ -9463,7 +9463,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>(총알) 불이튀는 총알</t>
+          <t>불이튀는 총알</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -9483,7 +9483,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>(체액) 흐르는 것 유동체, 액체</t>
+          <t>흐르는 것 유동체, 액체</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -9503,7 +9503,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>(풍부합니다) 풀앤드또풀 풀이 풍부한, 많은</t>
+          <t>풀앤드또풀 풀이 풍부한, 많은</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -9523,7 +9523,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>(방사성) 빛이 활동하는 거니까 방사능의, 방사의</t>
+          <t>빛이 활동하는 거니까 방사능의, 방사의</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -9532,7 +9532,7 @@
         </is>
       </c>
       <c r="D455" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456">
@@ -9543,7 +9543,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>(유산) 허리띠지 유산으로 받은 허리띠지</t>
+          <t>허리띠지 유산으로 받은 허리띠지</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -9563,7 +9563,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>(냉소적) 신이껄 신이 껄껄 웃으며 냉소적인</t>
+          <t>신이껄 신이 껄껄 웃으며 냉소적인</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -9583,7 +9583,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>(고집스러운) 스타본다는걸 굽히지 않는, 고집센</t>
+          <t>스타본다는걸 굽히지 않는, 고집센</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -9603,7 +9603,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>(영양가) 영양분이 많은 넛(nut) 드리셨어</t>
+          <t>영양분이 많은 넛(nut) 드리셨어</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -9623,7 +9623,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>(명성) 명성(위신)있는 사람은 맨앞에 튀지</t>
+          <t>명성(위신)있는 사람은 맨앞에 튀지</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -9643,7 +9643,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>(가뭄) 들이 드라이한것 가뭄</t>
+          <t>들이 드라이한것 가뭄</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -9663,7 +9663,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>(배심) 주리 배심원이 판결을 주리</t>
+          <t>주리 배심원이 판결을 주리</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -9683,7 +9683,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>(미신) 위에 놓여 사람들의 생각을 지배하는 것 미신</t>
+          <t>위에 놓여 사람들의 생각을 지배하는 것 미신</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -9703,7 +9703,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>(명성) 다시 이름 거듭이름을 댐 명성</t>
+          <t>다시 이름 거듭이름을 댐 명성</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -9723,7 +9723,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>(달의) 누나 달만 뜨면 우는 누나</t>
+          <t>누나 달만 뜨면 우는 누나</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -9732,7 +9732,7 @@
         </is>
       </c>
       <c r="D465" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466">
@@ -9743,7 +9743,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>(겁쟁이) cow(소)를 무서워하는 겁쟁이</t>
+          <t>cow(소)를 무서워하는 겁쟁이</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -9752,7 +9752,7 @@
         </is>
       </c>
       <c r="D466" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467">
@@ -9763,7 +9763,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>(감정) 센치 감정이 센치하네</t>
+          <t>센치 감정이 센치하네</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -9772,7 +9772,7 @@
         </is>
       </c>
       <c r="D467" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468">
@@ -9783,7 +9783,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>(후계자) 에워 할아버지를 에워싼 상속자들</t>
+          <t>에워 할아버지를 에워싼 상속자들</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -9803,7 +9803,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>(유전) 우리의 허례와더티한 의식은 유전되지 않도록 하자</t>
+          <t>우리의 허례와더티한 의식은 유전되지 않도록 하자</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -9823,7 +9823,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>(갈등) 함께 싸우다 싸우다, 충돌하다</t>
+          <t>함께 싸우다 싸우다, 충돌하다</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -9843,7 +9843,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>(복장) 복장을 보면 풍습(custom)을 알 수 있다</t>
+          <t>복장을 보면 풍습(custom)을 알 수 있다</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -9863,7 +9863,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>(안전한) 걱정에서 벗어난 안전한</t>
+          <t>걱정에서 벗어난 안전한</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -9872,7 +9872,7 @@
         </is>
       </c>
       <c r="D472" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473">
@@ -9883,7 +9883,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>(슬픔) 서러워 슬퍼하다</t>
+          <t>서러워 슬퍼하다</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -9892,7 +9892,7 @@
         </is>
       </c>
       <c r="D473" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474">
@@ -9903,7 +9903,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>(기업) 한 조직의 몸체에 해당하니 법인의</t>
+          <t>한 조직의 몸체에 해당하니 법인의</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -9923,7 +9923,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>(보통의) 한 마디가 겸손한 학생</t>
+          <t>한 마디가 겸손한 학생</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -9943,7 +9943,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>(고귀한) 노비를 부리는 귀족</t>
+          <t>노비를 부리는 귀족</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -9952,7 +9952,7 @@
         </is>
       </c>
       <c r="D476" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477">
@@ -9963,7 +9963,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>(인식) 코그으니선 인식위해 코에 선 긋는</t>
+          <t>코그으니선 인식위해 코에 선 긋는</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -9983,7 +9983,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>(환불하다) 돈을 돌려받으니 환불하다</t>
+          <t>돈을 돌려받으니 환불하다</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -9992,7 +9992,7 @@
         </is>
       </c>
       <c r="D478" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479">
@@ -10003,7 +10003,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>(생태학) 생태에 관한 학문 생태학</t>
+          <t>생태에 관한 학문 생태학</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -10023,7 +10023,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>(경작) 칼티베이 칼로 티나게 베임 경작하다</t>
+          <t>칼티베이 칼로 티나게 베임 경작하다</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -10043,7 +10043,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>(후손) 조상으로부터 내려온 사람 후손</t>
+          <t>조상으로부터 내려온 사람 후손</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -10063,7 +10063,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>(등록) 네짓스트레이트로 기록하겠다</t>
+          <t>네짓스트레이트로 기록하겠다</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -10083,7 +10083,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>(검색하다) 다시 찾다 회복하다, 되찾다</t>
+          <t>다시 찾다 회복하다, 되찾다</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -10103,7 +10103,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>(인공의) 예술품은 인공적인</t>
+          <t>예술품은 인공적인</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -10123,7 +10123,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>(논박) 나를 발로 차며 주장을 논박하다</t>
+          <t>나를 발로 차며 주장을 논박하다</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -10143,7 +10143,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>(처벌) 퍼니씨만 처벌받다</t>
+          <t>퍼니씨만 처벌받다</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -10152,7 +10152,7 @@
         </is>
       </c>
       <c r="D486" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487">
@@ -10163,7 +10163,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>(루틴) 항상 같은 길을 가는 일상의, 판에 박힌일</t>
+          <t>항상 같은 길을 가는 일상의, 판에 박힌일</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -10183,7 +10183,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>(학기) 씨마스터 학기중에 씨마스터</t>
+          <t>씨마스터 학기중에 씨마스터</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -10203,7 +10203,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>(대피소) 쉴터 피난처</t>
+          <t>쉴터 피난처</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -10223,7 +10223,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>(보행자) 발로 걷는 사람 보행자</t>
+          <t>발로 걷는 사람 보행자</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -10243,7 +10243,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>(짜다) 이브가 뜨개질하다</t>
+          <t>이브가 뜨개질하다</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -10263,7 +10263,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>(손질) 트리를 정돈하다</t>
+          <t>트리를 정돈하다</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -10272,7 +10272,7 @@
         </is>
       </c>
       <c r="D492" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493">
@@ -10283,7 +10283,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>(지름길) 짧게자른길 지름길</t>
+          <t>짧게자른길 지름길</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -10292,7 +10292,7 @@
         </is>
       </c>
       <c r="D493" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494">
@@ -10303,7 +10303,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>(냉기) 치를 떠는 추위, 한기</t>
+          <t>치를 떠는 추위, 한기</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -10323,7 +10323,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>(재단사) 자르는 사람 재봉사</t>
+          <t>자르는 사람 재봉사</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -10343,7 +10343,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>(신부) 결혼식날 브라이트한(bright) 신부</t>
+          <t>결혼식날 브라이트한(bright) 신부</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -10363,7 +10363,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>(향수) 폐품 향수</t>
+          <t>폐품 향수</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -10372,7 +10372,7 @@
         </is>
       </c>
       <c r="D497" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498">
@@ -10383,7 +10383,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>(촙) 찹찹찹 자르다</t>
+          <t>찹찹찹 자르다</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -10403,7 +10403,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>(외피) 까만티 의복, 의상</t>
+          <t>까만티 의복, 의상</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -10423,7 +10423,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>(차림새) 밖으로 딱 맞는 의상한벌</t>
+          <t>밖으로 딱 맞는 의상한벌</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -10443,7 +10443,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>(잔치) 동쪽에서 불을지펴 잔치를 벌이다</t>
+          <t>동쪽에서 불을지펴 잔치를 벌이다</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -10452,7 +10452,7 @@
         </is>
       </c>
       <c r="D501" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502">
@@ -10463,7 +10463,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>(섞다) 맹글 섞어 맹글다</t>
+          <t>맹글 섞어 맹글다</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
@@ -10483,7 +10483,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>(야단법석) 버스안은 야단법석</t>
+          <t>버스안은 야단법석</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
@@ -10503,7 +10503,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>(던지다) 그녀를 던지다</t>
+          <t>그녀를 던지다</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
@@ -10523,7 +10523,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>(선잠) 랩하는 친구가 낮잠잔다</t>
+          <t>랩하는 친구가 낮잠잔다</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
@@ -10532,7 +10532,7 @@
         </is>
       </c>
       <c r="D505" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506">
@@ -10543,7 +10543,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>(선잠) 또조는 졸다</t>
+          <t>또조는 졸다</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
@@ -10563,7 +10563,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>(튼튼한) 지속할 수 있으니까 내구력 있는, 튼튼한</t>
+          <t>지속할 수 있으니까 내구력 있는, 튼튼한</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
@@ -10583,7 +10583,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>(인접) 결합하려니까 접하다, 인접하다</t>
+          <t>결합하려니까 접하다, 인접하다</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
@@ -10603,7 +10603,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>(용법) 사용, 사용법</t>
+          <t>사용, 사용법</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
@@ -10623,7 +10623,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>(곱슬 곱슬하다) C모양 구부러져 있는 곱슬머리</t>
+          <t>C모양 구부러져 있는 곱슬머리</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
@@ -10632,7 +10632,7 @@
         </is>
       </c>
       <c r="D510" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511">
@@ -10643,7 +10643,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>(장난) 미스치부 미스치부를 드러내는 나쁜행동</t>
+          <t>미스치부 미스치부를 드러내는 나쁜행동</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
@@ -10663,7 +10663,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>(많이 있다) 어 바운드하는 풍부한 물고기</t>
+          <t>어 바운드하는 풍부한 물고기</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
@@ -10683,7 +10683,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>(생기다) 나도 언젠가는 빛 볼날이 생기다</t>
+          <t>나도 언젠가는 빛 볼날이 생기다</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
@@ -10692,7 +10692,7 @@
         </is>
       </c>
       <c r="D513" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514">
@@ -10703,7 +10703,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>(품위 있는) 보기좋은 것 맞는, 예의바른</t>
+          <t>보기좋은 것 맞는, 예의바른</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
@@ -10723,7 +10723,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>(기부) 이리다우해서 주다</t>
+          <t>이리다우해서 주다</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
@@ -10743,7 +10743,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>(과부) 창문(window)에 서있는 과부(widow)</t>
+          <t>창문(window)에 서있는 과부(widow)</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
@@ -10763,7 +10763,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>(신랑) 구름에 날아가는 신랑</t>
+          <t>구름에 날아가는 신랑</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
@@ -10783,7 +10783,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>(인도적) 인간적인것 자비로운, 인도적인</t>
+          <t>인간적인것 자비로운, 인도적인</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -10803,7 +10803,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>(기숙사) 델몬트먹고 자는 기숙사</t>
+          <t>델몬트먹고 자는 기숙사</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
@@ -10823,7 +10823,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>(레시피) 레시피 조리법</t>
+          <t>레시피 조리법</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
@@ -10843,7 +10843,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>(설명) 아래로 그리다 그리다, 묘사하다</t>
+          <t>아래로 그리다 그리다, 묘사하다</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
@@ -10863,7 +10863,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>(하기 싫은 일) 치워 허드렛일</t>
+          <t>치워 허드렛일</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
@@ -10883,7 +10883,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>(타고난) 안에서 태어난 선천적인, 타고난</t>
+          <t>안에서 태어난 선천적인, 타고난</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
@@ -10903,7 +10903,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>(싸다) 안에 두루마리 두루마리에 등록하다</t>
+          <t>안에 두루마리 두루마리에 등록하다</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
@@ -10923,7 +10923,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>(공급업체) 파는 사람 행상, 상인</t>
+          <t>파는 사람 행상, 상인</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
@@ -10943,7 +10943,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>(갈다) 코밑으로 통근하다</t>
+          <t>코밑으로 통근하다</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
@@ -10952,7 +10952,7 @@
         </is>
       </c>
       <c r="D526" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527">
@@ -10963,7 +10963,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>(변화 없는) 서있는 곳의 고정된, 정지된</t>
+          <t>서있는 곳의 고정된, 정지된</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
@@ -10983,7 +10983,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>(인원) 사람을 다루는 부서 인사과</t>
+          <t>사람을 다루는 부서 인사과</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
@@ -11003,7 +11003,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>(배우자) 서로 함께하기로 한 사람 배우자</t>
+          <t>서로 함께하기로 한 사람 배우자</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
@@ -11023,7 +11023,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>(깜박거리다) 전구를 전선에 연결하니 깜박이다</t>
+          <t>전구를 전선에 연결하니 깜박이다</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
@@ -11043,7 +11043,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>(거주자) 떼는 소작료 떼는 소작인, 세입자</t>
+          <t>떼는 소작료 떼는 소작인, 세입자</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
@@ -11063,7 +11063,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>(기저귀) 아이예뻐 기저귀한 아기</t>
+          <t>아이예뻐 기저귀한 아기</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
@@ -11083,7 +11083,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>(끌리는 배) 투우사가 소의 시선을 끌다, 견인하다</t>
+          <t>투우사가 소의 시선을 끌다, 견인하다</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
@@ -11103,7 +11103,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>(괴롭히는 사람) 불리한자를 괴롭히다</t>
+          <t>불리한자를 괴롭히다</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
@@ -11123,7 +11123,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>(살림) 살아가는 처지, 생계</t>
+          <t>살아가는 처지, 생계</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
@@ -11143,7 +11143,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>(상품) 일반적인 상품 일용품, 상품</t>
+          <t>일반적인 상품 일용품, 상품</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
@@ -11163,7 +11163,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>(음료) 음료수를 많이 마시면 배버리지</t>
+          <t>음료수를 많이 마시면 배버리지</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
@@ -11183,7 +11183,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>(먹을 수 있는) 잇(eat)터블 먹을 수 있는</t>
+          <t>잇(eat)터블 먹을 수 있는</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
@@ -11203,7 +11203,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>(냄새) 오더 오더러운 냄새, 향기</t>
+          <t>오더 오더러운 냄새, 향기</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
@@ -11223,7 +11223,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>(환대) 병원에 입원하니 환대해주다</t>
+          <t>병원에 입원하니 환대해주다</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
@@ -11243,7 +11243,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>(생명 있는) 애니메이션에 생명을 불어넣다</t>
+          <t>애니메이션에 생명을 불어넣다</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
@@ -11263,7 +11263,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>(최고) 나를 능가하는 최고의</t>
+          <t>나를 능가하는 최고의</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
@@ -11283,7 +11283,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>(흉터) 스카프로 흉터가림, 자국</t>
+          <t>스카프로 흉터가림, 자국</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
@@ -11303,7 +11303,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>(경향이 있습니다) 앞치마(apron)를 두르는 경향이 있어</t>
+          <t>앞치마(apron)를 두르는 경향이 있어</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
@@ -11323,7 +11323,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>(훼손하십시오) 아래를 파니까 손상시키다</t>
+          <t>아래를 파니까 손상시키다</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
@@ -11343,7 +11343,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>(깔끔한) 타이를 디처럼 매니 단정한, 잘 정돈된</t>
+          <t>타이를 디처럼 매니 단정한, 잘 정돈된</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
@@ -11363,7 +11363,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>(채식) 뱉지 고기는 뱉지 채식주의자</t>
+          <t>뱉지 고기는 뱉지 채식주의자</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
@@ -11383,7 +11383,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>(향긋한) 향기로운</t>
+          <t>향기로운</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
@@ -11403,7 +11403,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>(악취) 스컹크는 악취를 풍기다</t>
+          <t>스컹크는 악취를 풍기다</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
@@ -11423,7 +11423,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>(토하다) 봐밑 토한거 → 토하다</t>
+          <t>봐밑 토한거 → 토하다</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
@@ -11432,7 +11432,7 @@
         </is>
       </c>
       <c r="D550" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551">
@@ -11443,7 +11443,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>(책임이 있습니다) 나이먹을 나이먹을수록 책임이 있는</t>
+          <t>나이먹을 나이먹을수록 책임이 있는</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
@@ -11452,7 +11452,7 @@
         </is>
       </c>
       <c r="D551" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552">
@@ -11463,7 +11463,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>(운동 선수) 애쓰리 운동선수가 애쓰리</t>
+          <t>애쓰리 운동선수가 애쓰리</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
@@ -11483,7 +11483,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>(시큼한) 싸워 서로 신거 먹겟다고 싸워</t>
+          <t>싸워 서로 신거 먹겟다고 싸워</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
@@ -11503,7 +11503,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>(손목) 레슬링(wrestling)선수가 상대 손목(wrist)을 비틀다(wrest)</t>
+          <t>레슬링(wrestling)선수가 상대 손목(wrist)을 비틀다(wrest)</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
@@ -11512,7 +11512,7 @@
         </is>
       </c>
       <c r="D554" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555">
@@ -11523,7 +11523,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>(팽창) 작은(small) 재산을 잘(well) 부풀리다(swell)</t>
+          <t>작은(small) 재산을 잘(well) 부풀리다(swell)</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
@@ -11543,7 +11543,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>(맥박) 벌써 맥박이 뛰다</t>
+          <t>벌써 맥박이 뛰다</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
@@ -11563,7 +11563,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>(치료) 다시 중간으로 치료하다, 교정하다</t>
+          <t>다시 중간으로 치료하다, 교정하다</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
@@ -11583,7 +11583,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>(라운지) 라운지에서 빈둥거리다</t>
+          <t>라운지에서 빈둥거리다</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
@@ -11603,7 +11603,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>(전적인) 어 터 어 터놓고 말하다</t>
+          <t>어 터 어 터놓고 말하다</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
@@ -11623,7 +11623,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>(해부) 아나토막 아 나 토막나네 해부학</t>
+          <t>아나토막 아 나 토막나네 해부학</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
@@ -11643,7 +11643,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>(청년기) 아들에쌘스 사춘기 아들에게 에쌘스</t>
+          <t>아들에쌘스 사춘기 아들에게 에쌘스</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
@@ -11663,7 +11663,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>(활기) 비가 오니 활기띠는 농촌</t>
+          <t>비가 오니 활기띠는 농촌</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
@@ -11683,7 +11683,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>(요람) 다이제스티브 먹고 소화하다</t>
+          <t>다이제스티브 먹고 소화하다</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
@@ -11692,7 +11692,7 @@
         </is>
       </c>
       <c r="D563" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564">
@@ -11703,7 +11703,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>(세균) 점처럼 생긴 세균</t>
+          <t>점처럼 생긴 세균</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
@@ -11723,7 +11723,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>(뻣뻣한) 스틱은 빳빳한, 경직된</t>
+          <t>스틱은 빳빳한, 경직된</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
@@ -11732,7 +11732,7 @@
         </is>
       </c>
       <c r="D565" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566">
@@ -11743,7 +11743,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>(통통한) 덩어리(lump) 살찐 엉덩이, 뚱뚱한</t>
+          <t>덩어리(lump) 살찐 엉덩이, 뚱뚱한</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
@@ -11763,7 +11763,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>(날씬한) 설렌다 날씬하니 설렌다</t>
+          <t>설렌다 날씬하니 설렌다</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
@@ -11783,7 +11783,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>(이마) 브라운 갈색 이마</t>
+          <t>브라운 갈색 이마</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
@@ -11803,7 +11803,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>(동맥) 줄기처럼 갈라지는 것 동맥</t>
+          <t>줄기처럼 갈라지는 것 동맥</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
@@ -11823,7 +11823,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>(마비) 패를 나이제 폐가 마비(못쓰게 되다)되어 이제 못쓴다</t>
+          <t>패를 나이제 폐가 마비(못쓰게 되다)되어 이제 못쓴다</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
@@ -11843,7 +11843,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>(면역) 의문 면제라니 의문이네, 면역의</t>
+          <t>의문 면제라니 의문이네, 면역의</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
@@ -11863,7 +11863,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>(독성) 톡 코를 톡쏘는 독성의, 독소의</t>
+          <t>톡 코를 톡쏘는 독성의, 독소의</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
@@ -11872,7 +11872,7 @@
         </is>
       </c>
       <c r="D572" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573">
@@ -11883,7 +11883,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>(어지러운) 디지게 현기증 나는</t>
+          <t>디지게 현기증 나는</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
@@ -11903,7 +11903,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>(배) 벨리댄스 배(복부)춤</t>
+          <t>벨리댄스 배(복부)춤</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
@@ -11923,7 +11923,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>(만성병 환자) 끌으니 질질끌으니 만성적이 되지, 장기간 지속 되는</t>
+          <t>끌으니 질질끌으니 만성적이 되지, 장기간 지속 되는</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
@@ -11943,7 +11943,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>(당뇨병) 다이어트 하지 않으면 당뇨병</t>
+          <t>다이어트 하지 않으면 당뇨병</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
@@ -11963,7 +11963,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>(보이지 않는) 볼수 없는 보이지 않는</t>
+          <t>볼수 없는 보이지 않는</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
@@ -11983,7 +11983,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>(모호한) 엥 비겼어? 애매한 경기</t>
+          <t>엥 비겼어? 애매한 경기</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
@@ -12003,7 +12003,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>(냉철한) 소버 소주를 버리다 술 취하지 않은 진지한, 냉정한</t>
+          <t>소버 소주를 버리다 술 취하지 않은 진지한, 냉정한</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
@@ -12023,7 +12023,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>(중립적) 어느 하나도 아닌 것 중립의</t>
+          <t>어느 하나도 아닌 것 중립의</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
@@ -12043,7 +12043,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>(방아쇠) 방아쇠</t>
+          <t>방아쇠</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
@@ -12052,7 +12052,7 @@
         </is>
       </c>
       <c r="D581" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582">
@@ -12063,7 +12063,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>(스테이플) 숱해 애플 애플이 주요산물</t>
+          <t>숱해 애플 애플이 주요산물</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
@@ -12083,7 +12083,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>(악화) 악화시키다</t>
+          <t>악화시키다</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
@@ -12103,7 +12103,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>(짜내다) 수퀴즈 수많은 퀴즈로 머리를 짜내다</t>
+          <t>수퀴즈 수많은 퀴즈로 머리를 짜내다</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
@@ -12123,7 +12123,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>(분자) 모래처럼 작은 분자</t>
+          <t>모래처럼 작은 분자</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
@@ -12143,7 +12143,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>(개념) 노선 노선(생각)</t>
+          <t>노선 노선(생각)</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
@@ -12163,7 +12163,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>(공상) 환타지 소설 공상소설</t>
+          <t>환타지 소설 공상소설</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
@@ -12183,7 +12183,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>(무작위의) 닥치는 대로 냉동, 무작위의</t>
+          <t>닥치는 대로 냉동, 무작위의</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
@@ -12203,7 +12203,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>(단계) 페이지 한페이지 책의 한 면</t>
+          <t>페이지 한페이지 책의 한 면</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
@@ -12223,7 +12223,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>(고대 미술) 엔틱 가구 골동품 가구</t>
+          <t>엔틱 가구 골동품 가구</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
@@ -12243,7 +12243,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>(초안) 뗏목을 디자인하니까 도안, 설계</t>
+          <t>뗏목을 디자인하니까 도안, 설계</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
@@ -12263,7 +12263,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>(피난) 내빼지 피난처로</t>
+          <t>내빼지 피난처로</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
@@ -12272,7 +12272,7 @@
         </is>
       </c>
       <c r="D592" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593">
@@ -12283,7 +12283,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>(연대) 일어 일어나는 시대, 연대</t>
+          <t>일어 일어나는 시대, 연대</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
@@ -12303,7 +12303,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>(피상적) 표면의, 피상적인</t>
+          <t>표면의, 피상적인</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
@@ -12323,7 +12323,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>(치수) 맨션의 규모</t>
+          <t>맨션의 규모</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
@@ -12343,7 +12343,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>(입자) 부분처럼 작고 티끌 같은 것 분자</t>
+          <t>부분처럼 작고 티끌 같은 것 분자</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
@@ -12363,7 +12363,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>(평행한) 레일(렐)은 평행하다</t>
+          <t>레일(렐)은 평행하다</t>
         </is>
       </c>
       <c r="C597" t="inlineStr">
@@ -12383,7 +12383,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>(백과 사전) 빙돌아 다방면으로 교육하다 백과사전</t>
+          <t>빙돌아 다방면으로 교육하다 백과사전</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
@@ -12403,7 +12403,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>(영원한) 이터널은 끝없다 영원한, 불변의</t>
+          <t>이터널은 끝없다 영원한, 불변의</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
@@ -12412,7 +12412,7 @@
         </is>
       </c>
       <c r="D599" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600">
@@ -12423,7 +12423,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>(수수께끼) 니들 니들 수수께끼 맞혀봐</t>
+          <t>니들 니들 수수께끼 맞혀봐</t>
         </is>
       </c>
       <c r="C600" t="inlineStr">
@@ -12443,7 +12443,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>(궤도) 오 빛! 오 빛의 궤도</t>
+          <t>오 빛! 오 빛의 궤도</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
@@ -12463,7 +12463,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>(탐구) 질문에 답을 찾다, 추구하다</t>
+          <t>질문에 답을 찾다, 추구하다</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
@@ -12483,7 +12483,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>(기구) 앞에라투스 앞에 기계 놔두다, 기구, 장치</t>
+          <t>앞에라투스 앞에 기계 놔두다, 기구, 장치</t>
         </is>
       </c>
       <c r="C603" t="inlineStr">
@@ -12503,7 +12503,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>(조각품) 시골부처 조각상</t>
+          <t>시골부처 조각상</t>
         </is>
       </c>
       <c r="C604" t="inlineStr">
@@ -12523,7 +12523,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>(교양 있는) 글자를 읽고 쓸 수 있는</t>
+          <t>글자를 읽고 쓸 수 있는</t>
         </is>
       </c>
       <c r="C605" t="inlineStr">
@@ -12543,7 +12543,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>(요정) 페어리 테일 요정 이야기</t>
+          <t>페어리 테일 요정 이야기</t>
         </is>
       </c>
       <c r="C606" t="inlineStr">
@@ -12563,7 +12563,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>(신성한) 뒤바위 뒤바위는 신성한, 신의</t>
+          <t>뒤바위 뒤바위는 신성한, 신의</t>
         </is>
       </c>
       <c r="C607" t="inlineStr">
@@ -12583,7 +12583,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>(성자) 세인들 세인들이 존경하는 성인, 성자</t>
+          <t>세인들 세인들이 존경하는 성인, 성자</t>
         </is>
       </c>
       <c r="C608" t="inlineStr">
@@ -12603,7 +12603,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>(마법사) 위저어 항아리 위를 저어가는 마법사</t>
+          <t>위저어 항아리 위를 저어가는 마법사</t>
         </is>
       </c>
       <c r="C609" t="inlineStr">
@@ -12623,7 +12623,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>(미혼 남자) 배쫄러 독신남성</t>
+          <t>배쫄러 독신남성</t>
         </is>
       </c>
       <c r="C610" t="inlineStr">
@@ -12643,7 +12643,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>(과외의 외과) 교과과정 외의, 과외의</t>
+          <t>교과과정 외의, 과외의</t>
         </is>
       </c>
       <c r="C611" t="inlineStr">
@@ -12663,7 +12663,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>(기념물) 생각나는 것 기념물</t>
+          <t>생각나는 것 기념물</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
@@ -12683,7 +12683,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>(시대) 입학 입학으로 새시대, 신기원</t>
+          <t>입학 입학으로 새시대, 신기원</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
@@ -12692,7 +12692,7 @@
         </is>
       </c>
       <c r="D613" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614">
@@ -12703,7 +12703,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>(혁신) 혁신</t>
+          <t>혁신</t>
         </is>
       </c>
       <c r="C614" t="inlineStr">
@@ -12723,7 +12723,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>(평형) 균형, 평형</t>
+          <t>균형, 평형</t>
         </is>
       </c>
       <c r="C615" t="inlineStr">
@@ -12732,7 +12732,7 @@
         </is>
       </c>
       <c r="D615" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616">
@@ -12743,7 +12743,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>(정교한) 소피의스케이트가 세련된, 정교한</t>
+          <t>소피의스케이트가 세련된, 정교한</t>
         </is>
       </c>
       <c r="C616" t="inlineStr">
@@ -12763,7 +12763,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>(스크립트) 글로 써 놓은 것이니까 원고, 대본</t>
+          <t>글로 써 놓은 것이니까 원고, 대본</t>
         </is>
       </c>
       <c r="C617" t="inlineStr">
@@ -12772,7 +12772,7 @@
         </is>
       </c>
       <c r="D617" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618">
@@ -12783,7 +12783,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>(개정하다) 어맨뒤 어머니가 맨뒤를 고치다</t>
+          <t>어맨뒤 어머니가 맨뒤를 고치다</t>
         </is>
       </c>
       <c r="C618" t="inlineStr">
@@ -12792,7 +12792,7 @@
         </is>
       </c>
       <c r="D618" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619">
@@ -12803,7 +12803,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>(왕조) 다 이것이 내것 명문, 왕조, 명가</t>
+          <t>다 이것이 내것 명문, 왕조, 명가</t>
         </is>
       </c>
       <c r="C619" t="inlineStr">
@@ -12823,7 +12823,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>(탄력있는) 엘라스틴 하세요 탄력있는, 유연한</t>
+          <t>엘라스틴 하세요 탄력있는, 유연한</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
@@ -12843,7 +12843,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>(웃더껑이) 스킵하듯 흝어보다, 걷어내다</t>
+          <t>스킵하듯 흝어보다, 걷어내다</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
@@ -12863,7 +12863,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>(산문) 풀어서 쓴글 산문</t>
+          <t>풀어서 쓴글 산문</t>
         </is>
       </c>
       <c r="C622" t="inlineStr">
@@ -12883,7 +12883,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>(모조품) 막 조롱하다</t>
+          <t>막 조롱하다</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
@@ -12903,7 +12903,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>(자필) 스스로 쓴거니까 자필, 서명</t>
+          <t>스스로 쓴거니까 자필, 서명</t>
         </is>
       </c>
       <c r="C624" t="inlineStr">
@@ -12923,7 +12923,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>(인용하다) 사이트를 인용하다</t>
+          <t>사이트를 인용하다</t>
         </is>
       </c>
       <c r="C625" t="inlineStr">
@@ -12932,7 +12932,7 @@
         </is>
       </c>
       <c r="D625" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626">
@@ -12943,7 +12943,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>(성가대) 콰이어 가요 부르는 합창단</t>
+          <t>콰이어 가요 부르는 합창단</t>
         </is>
       </c>
       <c r="C626" t="inlineStr">
@@ -12963,7 +12963,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>(의식) 의식, 의례</t>
+          <t>의식, 의례</t>
         </is>
       </c>
       <c r="C627" t="inlineStr">
@@ -12983,7 +12983,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>(존중) 에스팀을 존경하다</t>
+          <t>에스팀을 존경하다</t>
         </is>
       </c>
       <c r="C628" t="inlineStr">
@@ -12992,7 +12992,7 @@
         </is>
       </c>
       <c r="D628" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629">
@@ -13003,7 +13003,7 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>(소환) 쌈한 사람을 호출하다, 소환하다</t>
+          <t>쌈한 사람을 호출하다, 소환하다</t>
         </is>
       </c>
       <c r="C629" t="inlineStr">
@@ -13023,7 +13023,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>(밑줄) 밑줄긋다, 강조하다</t>
+          <t>밑줄긋다, 강조하다</t>
         </is>
       </c>
       <c r="C630" t="inlineStr">
@@ -13043,7 +13043,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>(노선) 나가는 루트 길, 통로</t>
+          <t>나가는 루트 길, 통로</t>
         </is>
       </c>
       <c r="C631" t="inlineStr">
@@ -13063,7 +13063,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>(선박) 베었을 혈관, 용기, 배</t>
+          <t>베었을 혈관, 용기, 배</t>
         </is>
       </c>
       <c r="C632" t="inlineStr">
@@ -13083,7 +13083,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>(갑옷) 무장하는 것 갑옷, 부대</t>
+          <t>무장하는 것 갑옷, 부대</t>
         </is>
       </c>
       <c r="C633" t="inlineStr">
@@ -13092,7 +13092,7 @@
         </is>
       </c>
       <c r="D633" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634">
@@ -13103,7 +13103,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>(뱃짐) 차로 가는 화물</t>
+          <t>차로 가는 화물</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
@@ -13123,7 +13123,7 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>(담그다) 디프 깊이 담그다</t>
+          <t>디프 깊이 담그다</t>
         </is>
       </c>
       <c r="C635" t="inlineStr">
@@ -13143,7 +13143,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>(로밍) 로마를 배회하다</t>
+          <t>로마를 배회하다</t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
@@ -13163,7 +13163,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>(외양간) 반으로 시작하는 반창고, 헛간</t>
+          <t>반으로 시작하는 반창고, 헛간</t>
         </is>
       </c>
       <c r="C637" t="inlineStr">
@@ -13183,7 +13183,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>(별장) 통나무(log)로 만든 오두막집(lodge)</t>
+          <t>통나무(log)로 만든 오두막집(lodge)</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
@@ -13203,7 +13203,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>(굴뚝) 집뉘 집위 굴뚝</t>
+          <t>집뉘 집위 굴뚝</t>
         </is>
       </c>
       <c r="C639" t="inlineStr">
@@ -13223,7 +13223,7 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>(수염) 비어도 비어도 계속나는 턱수염</t>
+          <t>비어도 비어도 계속나는 턱수염</t>
         </is>
       </c>
       <c r="C640" t="inlineStr">
@@ -13243,7 +13243,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>(현관) 포지 표지가 붙은 현관, 베란다</t>
+          <t>포지 표지가 붙은 현관, 베란다</t>
         </is>
       </c>
       <c r="C641" t="inlineStr">
@@ -13263,7 +13263,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>(흩어진) 방황하는 길을 잃은</t>
+          <t>방황하는 길을 잃은</t>
         </is>
       </c>
       <c r="C642" t="inlineStr">
@@ -13283,7 +13283,7 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>(문방구) 문구점</t>
+          <t>문구점</t>
         </is>
       </c>
       <c r="C643" t="inlineStr">
@@ -13303,7 +13303,7 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>(실행 취소) 반대로 하다 원상태로 하다</t>
+          <t>반대로 하다 원상태로 하다</t>
         </is>
       </c>
       <c r="C644" t="inlineStr">
@@ -13312,7 +13312,7 @@
         </is>
       </c>
       <c r="D644" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645">
@@ -13323,7 +13323,7 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>(나선) 나선형의</t>
+          <t>나선형의</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
@@ -13343,7 +13343,7 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>(이국적인) 이국저틱 이국적인</t>
+          <t>이국저틱 이국적인</t>
         </is>
       </c>
       <c r="C646" t="inlineStr">
@@ -13363,7 +13363,7 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>(송어) 트로트 부르는 송어</t>
+          <t>트로트 부르는 송어</t>
         </is>
       </c>
       <c r="C647" t="inlineStr">
@@ -13372,7 +13372,7 @@
         </is>
       </c>
       <c r="D647" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648">
@@ -13383,7 +13383,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>(꽃) 불났음 꽃을 피우다, 번영하다</t>
+          <t>불났음 꽃을 피우다, 번영하다</t>
         </is>
       </c>
       <c r="C648" t="inlineStr">
@@ -13403,7 +13403,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>(가축) 살아있는것을 비축하는 것 가축</t>
+          <t>살아있는것을 비축하는 것 가축</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
@@ -13423,7 +13423,7 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>(토끼) 헤어나오지 못하는 산토끼</t>
+          <t>헤어나오지 못하는 산토끼</t>
         </is>
       </c>
       <c r="C650" t="inlineStr">
@@ -13443,7 +13443,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>(뿔) 혼을빼는 경적소리, 뿔</t>
+          <t>혼을빼는 경적소리, 뿔</t>
         </is>
       </c>
       <c r="C651" t="inlineStr">
@@ -13463,7 +13463,7 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>(주방) 깃든 새끼 고양이</t>
+          <t>깃든 새끼 고양이</t>
         </is>
       </c>
       <c r="C652" t="inlineStr">
@@ -13483,7 +13483,7 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>(연어) 쌔면 연어야</t>
+          <t>쌔면 연어야</t>
         </is>
       </c>
       <c r="C653" t="inlineStr">
@@ -13503,7 +13503,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>(발) 포 크로 사용하는 발톱</t>
+          <t>포 크로 사용하는 발톱</t>
         </is>
       </c>
       <c r="C654" t="inlineStr">
@@ -13523,7 +13523,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>(잔인한) 부르르떨 짐승같은</t>
+          <t>부르르떨 짐승같은</t>
         </is>
       </c>
       <c r="C655" t="inlineStr">
@@ -13543,7 +13543,7 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>(돼지) 돼지삼겹살을 와인에</t>
+          <t>돼지삼겹살을 와인에</t>
         </is>
       </c>
       <c r="C656" t="inlineStr">
@@ -13563,7 +13563,7 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>(덩굴) 포도나무(vine)로 포도주(wine)</t>
+          <t>포도나무(vine)로 포도주(wine)</t>
         </is>
       </c>
       <c r="C657" t="inlineStr">
@@ -13583,7 +13583,7 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>(포식자) 뿌리다털 뿌리까지 다 털어먹는 약탈자, 육식동물</t>
+          <t>뿌리다털 뿌리까지 다 털어먹는 약탈자, 육식동물</t>
         </is>
       </c>
       <c r="C658" t="inlineStr">
@@ -13603,7 +13603,7 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>(송아지) 카우프 카우 친구는 송아지</t>
+          <t>카우프 카우 친구는 송아지</t>
         </is>
       </c>
       <c r="C659" t="inlineStr">
@@ -13623,7 +13623,7 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>(전형적인) 타이프 칼 칼같이 유형을 정하는 전형적인, 일반적인</t>
+          <t>타이프 칼 칼같이 유형을 정하는 전형적인, 일반적인</t>
         </is>
       </c>
       <c r="C660" t="inlineStr">
@@ -13643,7 +13643,7 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>(자식) 튀어나와 분리 된 것 자손, 자식</t>
+          <t>튀어나와 분리 된 것 자손, 자식</t>
         </is>
       </c>
       <c r="C661" t="inlineStr">
@@ -13663,7 +13663,7 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>(닻) 뉴스앵커가 닻을 내리다</t>
+          <t>뉴스앵커가 닻을 내리다</t>
         </is>
       </c>
       <c r="C662" t="inlineStr">
@@ -13683,7 +13683,7 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>(고장) 부서져 내리는 붕괴, 고장</t>
+          <t>부서져 내리는 붕괴, 고장</t>
         </is>
       </c>
       <c r="C663" t="inlineStr">
@@ -13692,7 +13692,7 @@
         </is>
       </c>
       <c r="D663" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664">
@@ -13703,7 +13703,7 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>(적) 포쏘는 적군</t>
+          <t>포쏘는 적군</t>
         </is>
       </c>
       <c r="C664" t="inlineStr">
@@ -13712,7 +13712,7 @@
         </is>
       </c>
       <c r="D664" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665">
@@ -13723,7 +13723,7 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>(서두르다) 자유찾아 달아나다</t>
+          <t>자유찾아 달아나다</t>
         </is>
       </c>
       <c r="C665" t="inlineStr">
@@ -13743,7 +13743,7 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>(자취) 기차레일처럼 뒤를 추적하다</t>
+          <t>기차레일처럼 뒤를 추적하다</t>
         </is>
       </c>
       <c r="C666" t="inlineStr">
@@ -13763,7 +13763,7 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>(원격) 멀리옮겨간 먼, 원격의</t>
+          <t>멀리옮겨간 먼, 원격의</t>
         </is>
       </c>
       <c r="C667" t="inlineStr">
@@ -13772,7 +13772,7 @@
         </is>
       </c>
       <c r="D667" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668">
@@ -13783,7 +13783,7 @@
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>(기구) 유텐쓸 당신은 열개의 도구를 쓸 수없다, 도구, 기구</t>
+          <t>유텐쓸 당신은 열개의 도구를 쓸 수없다, 도구, 기구</t>
         </is>
       </c>
       <c r="C668" t="inlineStr">
@@ -13803,7 +13803,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>(기념품) 아래서 가져온 것 기념품</t>
+          <t>아래서 가져온 것 기념품</t>
         </is>
       </c>
       <c r="C669" t="inlineStr">
@@ -13812,7 +13812,7 @@
         </is>
       </c>
       <c r="D669" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670">
@@ -13823,7 +13823,7 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>(분절) 세구멍 세개의 부분 구멍, 부분, 구획, 조각</t>
+          <t>세구멍 세개의 부분 구멍, 부분, 구획, 조각</t>
         </is>
       </c>
       <c r="C670" t="inlineStr">
@@ -13843,7 +13843,7 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>(보관소) 아치모양의 문서보관소</t>
+          <t>아치모양의 문서보관소</t>
         </is>
       </c>
       <c r="C671" t="inlineStr">
@@ -13863,7 +13863,7 @@
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>(통로) 아일 통로에 두지마세요, 복도, 통로</t>
+          <t>아일 통로에 두지마세요, 복도, 통로</t>
         </is>
       </c>
       <c r="C672" t="inlineStr">
@@ -13883,7 +13883,7 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>(친숙한) 친구같은 우호적인</t>
+          <t>친구같은 우호적인</t>
         </is>
       </c>
       <c r="C673" t="inlineStr">
@@ -13903,7 +13903,7 @@
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>(시대에 뒤쳐진) 날짜에서 벗어난 구식의, 시대에 뒤떨어진</t>
+          <t>날짜에서 벗어난 구식의, 시대에 뒤떨어진</t>
         </is>
       </c>
       <c r="C674" t="inlineStr">
@@ -13923,7 +13923,7 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>(장식) 오너만의 장식품</t>
+          <t>오너만의 장식품</t>
         </is>
       </c>
       <c r="C675" t="inlineStr">
@@ -13943,7 +13943,7 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>(사치) 럭쉬어리 사치품</t>
+          <t>럭쉬어리 사치품</t>
         </is>
       </c>
       <c r="C676" t="inlineStr">
@@ -13963,7 +13963,7 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>(위장하다) 모양에서 멀어지다 변장하다, 위장하다</t>
+          <t>모양에서 멀어지다 변장하다, 위장하다</t>
         </is>
       </c>
       <c r="C677" t="inlineStr">
@@ -13972,7 +13972,7 @@
         </is>
       </c>
       <c r="D677" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678">
@@ -13983,7 +13983,7 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>(드문) 함께 의무를 나누는게 아닌 것 드문, 보통이 아닌</t>
+          <t>함께 의무를 나누는게 아닌 것 드문, 보통이 아닌</t>
         </is>
       </c>
       <c r="C678" t="inlineStr">
@@ -14003,7 +14003,7 @@
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>(동료) 피어나서 동료를 자세히보다</t>
+          <t>피어나서 동료를 자세히보다</t>
         </is>
       </c>
       <c r="C679" t="inlineStr">
@@ -14023,7 +14023,7 @@
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>(악용하다) 접힌것을 밖으로 개발하다, 착취하다</t>
+          <t>접힌것을 밖으로 개발하다, 착취하다</t>
         </is>
       </c>
       <c r="C680" t="inlineStr">
@@ -14032,7 +14032,7 @@
         </is>
       </c>
       <c r="D680" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681">
@@ -14043,7 +14043,7 @@
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>(분리하다) 뒤떼지? 분리하다, 떼어내다</t>
+          <t>뒤떼지? 분리하다, 떼어내다</t>
         </is>
       </c>
       <c r="C681" t="inlineStr">
@@ -14052,7 +14052,7 @@
         </is>
       </c>
       <c r="D681" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682">
@@ -14063,7 +14063,7 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>(선박) 스타크래프트는 기술이 있어야한다</t>
+          <t>스타크래프트는 기술이 있어야한다</t>
         </is>
       </c>
       <c r="C682" t="inlineStr">
@@ -14072,7 +14072,7 @@
         </is>
       </c>
       <c r="D682" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683">
@@ -14083,7 +14083,7 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>(표준) 그 cafeteria는 기준이 된다</t>
+          <t>그 cafeteria는 기준이 된다</t>
         </is>
       </c>
       <c r="C683" t="inlineStr">
@@ -14103,7 +14103,7 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>(간단한 기계 장치) 가제트는 기계장치로 된 인간이다</t>
+          <t>가제트는 기계장치로 된 인간이다</t>
         </is>
       </c>
       <c r="C684" t="inlineStr">
@@ -14123,7 +14123,7 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>(가짜) 가짜모션 페이크</t>
+          <t>가짜모션 페이크</t>
         </is>
       </c>
       <c r="C685" t="inlineStr">
@@ -14143,7 +14143,7 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>(본뜨다) 이미 취한 것을 흉내내다</t>
+          <t>이미 취한 것을 흉내내다</t>
         </is>
       </c>
       <c r="C686" t="inlineStr">
@@ -14163,7 +14163,7 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>(이상한) 특이한 피클이야</t>
+          <t>특이한 피클이야</t>
         </is>
       </c>
       <c r="C687" t="inlineStr">
@@ -14183,7 +14183,7 @@
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>(입력) 안에다 놓다 투입</t>
+          <t>안에다 놓다 투입</t>
         </is>
       </c>
       <c r="C688" t="inlineStr">
@@ -14192,7 +14192,7 @@
         </is>
       </c>
       <c r="D688" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689">
@@ -14203,7 +14203,7 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>(검색) 브라운색을 둘러보다</t>
+          <t>브라운색을 둘러보다</t>
         </is>
       </c>
       <c r="C689" t="inlineStr">
@@ -14223,7 +14223,7 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>(위성) 새털처럼 가벼운 인공위성</t>
+          <t>새털처럼 가벼운 인공위성</t>
         </is>
       </c>
       <c r="C690" t="inlineStr">
@@ -14243,7 +14243,7 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>(시뮬레이션) 시뮬레이션 가상게임</t>
+          <t>시뮬레이션 가상게임</t>
         </is>
       </c>
       <c r="C691" t="inlineStr">
@@ -14263,7 +14263,7 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>(삑 하는 소리) 삐하고 경적을 울리다</t>
+          <t>삐하고 경적을 울리다</t>
         </is>
       </c>
       <c r="C692" t="inlineStr">
@@ -14283,7 +14283,7 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>(줄기) 스토커가 뒤를밟다 줄기</t>
+          <t>스토커가 뒤를밟다 줄기</t>
         </is>
       </c>
       <c r="C693" t="inlineStr">
@@ -14292,7 +14292,7 @@
         </is>
       </c>
       <c r="D693" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694">
@@ -14303,7 +14303,7 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>(흔들다) 아지트를 흔들다</t>
+          <t>아지트를 흔들다</t>
         </is>
       </c>
       <c r="C694" t="inlineStr">
@@ -14323,7 +14323,7 @@
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>(법정) 보렴 공개토론회</t>
+          <t>보렴 공개토론회</t>
         </is>
       </c>
       <c r="C695" t="inlineStr">
@@ -14343,7 +14343,7 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>(상호간의) 무우철에는 상호협력</t>
+          <t>무우철에는 상호협력</t>
         </is>
       </c>
       <c r="C696" t="inlineStr">
@@ -14363,7 +14363,7 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>(엄청난) 거대한 이면수</t>
+          <t>거대한 이면수</t>
         </is>
       </c>
       <c r="C697" t="inlineStr">
@@ -14383,7 +14383,7 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>(최상의 것) 울트라모스트 최고의</t>
+          <t>울트라모스트 최고의</t>
         </is>
       </c>
       <c r="C698" t="inlineStr">
@@ -14403,7 +14403,7 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>(길게 하다) 앞으로 길게 연장하다</t>
+          <t>앞으로 길게 연장하다</t>
         </is>
       </c>
       <c r="C699" t="inlineStr">
@@ -14423,7 +14423,7 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>(끔찍한) 네스트(둥지)가 더러운</t>
+          <t>네스트(둥지)가 더러운</t>
         </is>
       </c>
       <c r="C700" t="inlineStr">
@@ -14443,7 +14443,7 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>(때문) 새익 새로운 이익</t>
+          <t>새익 새로운 이익</t>
         </is>
       </c>
       <c r="C701" t="inlineStr">
@@ -14463,7 +14463,7 @@
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>(동시) 비슷한(=like) 때이니 동시의</t>
+          <t>비슷한(=like) 때이니 동시의</t>
         </is>
       </c>
       <c r="C702" t="inlineStr">
@@ -14472,7 +14472,7 @@
         </is>
       </c>
       <c r="D702" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703">
@@ -14483,7 +14483,7 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>(어형 변화표) 본보기로 패러다님</t>
+          <t>본보기로 패러다님</t>
         </is>
       </c>
       <c r="C703" t="inlineStr">
@@ -14492,7 +14492,7 @@
         </is>
       </c>
       <c r="D703" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704">
@@ -14503,7 +14503,7 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>(의견 일치) 큰선수들의 합의 일치</t>
+          <t>큰선수들의 합의 일치</t>
         </is>
       </c>
       <c r="C704" t="inlineStr">
@@ -14523,7 +14523,7 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>(특정한) 특별한 파티끌어</t>
+          <t>특별한 파티끌어</t>
         </is>
       </c>
       <c r="C705" t="inlineStr">
@@ -14532,7 +14532,7 @@
         </is>
       </c>
       <c r="D705" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706">
@@ -14543,7 +14543,7 @@
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>(모호한) 의심스러운 두부였어</t>
+          <t>의심스러운 두부였어</t>
         </is>
       </c>
       <c r="C706" t="inlineStr">
@@ -14563,7 +14563,7 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>(맹렬한) 풀(=full)이었어 꽉차서 격노한</t>
+          <t>풀(=full)이었어 꽉차서 격노한</t>
         </is>
       </c>
       <c r="C707" t="inlineStr">
@@ -14572,7 +14572,7 @@
         </is>
       </c>
       <c r="D707" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708">
@@ -14583,7 +14583,7 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>(모험) 애들이 벤처기업하는건 모험이다</t>
+          <t>애들이 벤처기업하는건 모험이다</t>
         </is>
       </c>
       <c r="C708" t="inlineStr">
@@ -14592,7 +14592,7 @@
         </is>
       </c>
       <c r="D708" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709">
@@ -14603,7 +14603,7 @@
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>(원천) 소스가 음식맛의 원천이다</t>
+          <t>소스가 음식맛의 원천이다</t>
         </is>
       </c>
       <c r="C709" t="inlineStr">
@@ -14623,7 +14623,7 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>(감각) 감각적으로 센세이션을 일으킴</t>
+          <t>감각적으로 센세이션을 일으킴</t>
         </is>
       </c>
       <c r="C710" t="inlineStr">
@@ -14632,7 +14632,7 @@
         </is>
       </c>
       <c r="D710" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711">
@@ -14643,7 +14643,7 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>(프로필) 옆모습, 윤곽, 개요</t>
+          <t>옆모습, 윤곽, 개요</t>
         </is>
       </c>
       <c r="C711" t="inlineStr">
@@ -14663,7 +14663,7 @@
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>(관점) 완전히 봄 관점, 시각, 원근법</t>
+          <t>완전히 봄 관점, 시각, 원근법</t>
         </is>
       </c>
       <c r="C712" t="inlineStr">
@@ -14683,7 +14683,7 @@
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>(오락) 과거시간에 즐긴 오락, 취미</t>
+          <t>과거시간에 즐긴 오락, 취미</t>
         </is>
       </c>
       <c r="C713" t="inlineStr">
@@ -14703,7 +14703,7 @@
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>(논리) 오로지 논리</t>
+          <t>오로지 논리</t>
         </is>
       </c>
       <c r="C714" t="inlineStr">
@@ -14723,7 +14723,7 @@
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>(누출) 니 키지? 키크기가 유출되다</t>
+          <t>니 키지? 키크기가 유출되다</t>
         </is>
       </c>
       <c r="C715" t="inlineStr">
@@ -14743,7 +14743,7 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>(앰플) 예가 충분한</t>
+          <t>예가 충분한</t>
         </is>
       </c>
       <c r="C716" t="inlineStr">
@@ -14763,7 +14763,7 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>(더 나아가) 뻗어 멀리</t>
+          <t>뻗어 멀리</t>
         </is>
       </c>
       <c r="C717" t="inlineStr">
@@ -14772,7 +14772,7 @@
         </is>
       </c>
       <c r="D717" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718">
@@ -14783,7 +14783,7 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>(관대한) 쟤 넣었어 관대하게</t>
+          <t>쟤 넣었어 관대하게</t>
         </is>
       </c>
       <c r="C718" t="inlineStr">
@@ -14803,7 +14803,7 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>(기이) 놀라운 말벌이었어</t>
+          <t>놀라운 말벌이었어</t>
         </is>
       </c>
       <c r="C719" t="inlineStr">
@@ -14812,7 +14812,7 @@
         </is>
       </c>
       <c r="D719" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720">
@@ -14823,7 +14823,7 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>(유망한 후보자) 먼가 있을거야 풀어봐봐</t>
+          <t>먼가 있을거야 풀어봐봐</t>
         </is>
       </c>
       <c r="C720" t="inlineStr">
@@ -14843,7 +14843,7 @@
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>(미묘한) 미묘한 셔틀</t>
+          <t>미묘한 셔틀</t>
         </is>
       </c>
       <c r="C721" t="inlineStr">
@@ -14863,7 +14863,7 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>(순수한) 완전히 앞서랬다</t>
+          <t>완전히 앞서랬다</t>
         </is>
       </c>
       <c r="C722" t="inlineStr">
@@ -14883,7 +14883,7 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>(불가피한) 이내 애비 테이블을 피할 수 없는</t>
+          <t>이내 애비 테이블을 피할 수 없는</t>
         </is>
       </c>
       <c r="C723" t="inlineStr">
@@ -14903,7 +14903,7 @@
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>(홀리다) 패션으로 매혹시키다</t>
+          <t>패션으로 매혹시키다</t>
         </is>
       </c>
       <c r="C724" t="inlineStr">
@@ -14923,7 +14923,7 @@
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>(알리다) 적색경보는 red alert</t>
+          <t>적색경보는 red alert</t>
         </is>
       </c>
       <c r="C725" t="inlineStr">
@@ -14932,7 +14932,7 @@
         </is>
       </c>
       <c r="D725" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726">
@@ -14943,7 +14943,7 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>(신성한) 신성한 새를 그리다</t>
+          <t>신성한 새를 그리다</t>
         </is>
       </c>
       <c r="C726" t="inlineStr">
@@ -14963,7 +14963,7 @@
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>(예배당) 예배당에서 차빼래(채플)</t>
+          <t>예배당에서 차빼래(채플)</t>
         </is>
       </c>
       <c r="C727" t="inlineStr">
@@ -14972,7 +14972,7 @@
         </is>
       </c>
       <c r="D727" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728">
@@ -14983,7 +14983,7 @@
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>(바이스) 악행을 봤어</t>
+          <t>악행을 봤어</t>
         </is>
       </c>
       <c r="C728" t="inlineStr">
@@ -15003,7 +15003,7 @@
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>(두려움) 오 경이롭고 두렵다</t>
+          <t>오 경이롭고 두렵다</t>
         </is>
       </c>
       <c r="C729" t="inlineStr">
@@ -15023,7 +15023,7 @@
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>(아주 멋진) 호화로운 집을 가졌어</t>
+          <t>호화로운 집을 가졌어</t>
         </is>
       </c>
       <c r="C730" t="inlineStr">
@@ -15043,7 +15043,7 @@
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>(우아) 엘레강스 구두는 우아해</t>
+          <t>엘레강스 구두는 우아해</t>
         </is>
       </c>
       <c r="C731" t="inlineStr">
@@ -15063,7 +15063,7 @@
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>(오만한) 거만한 애로가</t>
+          <t>거만한 애로가</t>
         </is>
       </c>
       <c r="C732" t="inlineStr">
@@ -15083,7 +15083,7 @@
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>(경멸) 함께유혹을 경멸하다</t>
+          <t>함께유혹을 경멸하다</t>
         </is>
       </c>
       <c r="C733" t="inlineStr">
@@ -15103,7 +15103,7 @@
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>(얇은) 순수한 시어</t>
+          <t>순수한 시어</t>
         </is>
       </c>
       <c r="C734" t="inlineStr">
@@ -15123,7 +15123,7 @@
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>(솔직한) 캔디도 솔직한</t>
+          <t>캔디도 솔직한</t>
         </is>
       </c>
       <c r="C735" t="inlineStr">
@@ -15143,7 +15143,7 @@
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>(구멍) 화로 속이 빈, 움푹 들어간</t>
+          <t>화로 속이 빈, 움푹 들어간</t>
         </is>
       </c>
       <c r="C736" t="inlineStr">
@@ -15163,7 +15163,7 @@
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>(점) 서있는점 관점, 입장</t>
+          <t>서있는점 관점, 입장</t>
         </is>
       </c>
       <c r="C737" t="inlineStr">
@@ -15172,7 +15172,7 @@
         </is>
       </c>
       <c r="D737" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738">
@@ -15183,7 +15183,7 @@
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>(충동) 안에서 펄스 자극, 충동</t>
+          <t>안에서 펄스 자극, 충동</t>
         </is>
       </c>
       <c r="C738" t="inlineStr">
@@ -15203,7 +15203,7 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>(이를 드러내고 웃다) 구린입으로 씽긋 웃다</t>
+          <t>구린입으로 씽긋 웃다</t>
         </is>
       </c>
       <c r="C739" t="inlineStr">
@@ -15223,7 +15223,7 @@
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>(길들인) 퇴임하고 길들이다</t>
+          <t>퇴임하고 길들이다</t>
         </is>
       </c>
       <c r="C740" t="inlineStr">
@@ -15243,7 +15243,7 @@
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>(음성) 드라이해서 따분한, 황량한</t>
+          <t>드라이해서 따분한, 황량한</t>
         </is>
       </c>
       <c r="C741" t="inlineStr">
@@ -15263,7 +15263,7 @@
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>(당황) 철저히 얽혀 당황하게 하다</t>
+          <t>철저히 얽혀 당황하게 하다</t>
         </is>
       </c>
       <c r="C742" t="inlineStr">
@@ -15283,7 +15283,7 @@
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>(당황) 이거(this)매 하니 당황하다</t>
+          <t>이거(this)매 하니 당황하다</t>
         </is>
       </c>
       <c r="C743" t="inlineStr">
@@ -15292,7 +15292,7 @@
         </is>
       </c>
       <c r="D743" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744">
@@ -15303,7 +15303,7 @@
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>(무모한) 무모하게 내가끌렸어</t>
+          <t>무모하게 내가끌렸어</t>
         </is>
       </c>
       <c r="C744" t="inlineStr">
@@ -15323,7 +15323,7 @@
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>(조잡한) 코스가 거칠은 난코스</t>
+          <t>코스가 거칠은 난코스</t>
         </is>
       </c>
       <c r="C745" t="inlineStr">
@@ -15343,7 +15343,7 @@
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>(비탄) 또 라면? 슬프다…, 한탄하다</t>
+          <t>또 라면? 슬프다…, 한탄하다</t>
         </is>
       </c>
       <c r="C746" t="inlineStr">
@@ -15363,7 +15363,7 @@
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>(빠지다) 인도지에 몰두하다</t>
+          <t>인도지에 몰두하다</t>
         </is>
       </c>
       <c r="C747" t="inlineStr">
@@ -15383,7 +15383,7 @@
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>(박수) 앞으로 박수치다</t>
+          <t>앞으로 박수치다</t>
         </is>
       </c>
       <c r="C748" t="inlineStr">
@@ -15403,7 +15403,7 @@
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>(예의 바른) 코오트에서는 예의바르게</t>
+          <t>코오트에서는 예의바르게</t>
         </is>
       </c>
       <c r="C749" t="inlineStr">
@@ -15423,7 +15423,7 @@
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>(이상주의) 아이돌만 생각하는 이상적인</t>
+          <t>아이돌만 생각하는 이상적인</t>
         </is>
       </c>
       <c r="C750" t="inlineStr">
@@ -15443,7 +15443,7 @@
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>(이상) 어부놈이 정상이 아니다 비정상적인</t>
+          <t>어부놈이 정상이 아니다 비정상적인</t>
         </is>
       </c>
       <c r="C751" t="inlineStr">
@@ -15463,7 +15463,7 @@
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>(신중한) 문제를 신중히 풀던데</t>
+          <t>문제를 신중히 풀던데</t>
         </is>
       </c>
       <c r="C752" t="inlineStr">
@@ -15483,7 +15483,7 @@
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>(복수) 오번지에 복수하다</t>
+          <t>오번지에 복수하다</t>
         </is>
       </c>
       <c r="C753" t="inlineStr">
@@ -15492,7 +15492,7 @@
         </is>
       </c>
       <c r="D753" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754">
@@ -15503,7 +15503,7 @@
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>(그만두다) 이프레임을 금지해라</t>
+          <t>이프레임을 금지해라</t>
         </is>
       </c>
       <c r="C754" t="inlineStr">
@@ -15523,7 +15523,7 @@
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>(불가피합니다) 임피던 담배버려서 뻔뻔한</t>
+          <t>임피던 담배버려서 뻔뻔한</t>
         </is>
       </c>
       <c r="C755" t="inlineStr">
@@ -15543,7 +15543,7 @@
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>(악의) 악당 멜리스 악의</t>
+          <t>악당 멜리스 악의</t>
         </is>
       </c>
       <c r="C756" t="inlineStr">
@@ -15563,7 +15563,7 @@
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>(합리적인) 이성적인 내선</t>
+          <t>이성적인 내선</t>
         </is>
       </c>
       <c r="C757" t="inlineStr">
@@ -15583,7 +15583,7 @@
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>(고통) 더스트레스받게 괴롭히다</t>
+          <t>더스트레스받게 괴롭히다</t>
         </is>
       </c>
       <c r="C758" t="inlineStr">
@@ -15603,7 +15603,7 @@
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>(시선) 게이지 하고 응시하다</t>
+          <t>게이지 하고 응시하다</t>
         </is>
       </c>
       <c r="C759" t="inlineStr">
@@ -15612,7 +15612,7 @@
         </is>
       </c>
       <c r="D759" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760">
@@ -15623,7 +15623,7 @@
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>(순진한) 나이브는 순진한 (아담과 이브)</t>
+          <t>나이브는 순진한 (아담과 이브)</t>
         </is>
       </c>
       <c r="C760" t="inlineStr">
@@ -15643,7 +15643,7 @@
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>(사기) 프로 사기꾼</t>
+          <t>프로 사기꾼</t>
         </is>
       </c>
       <c r="C761" t="inlineStr">
@@ -15652,7 +15652,7 @@
         </is>
       </c>
       <c r="D761" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762">
@@ -15663,7 +15663,7 @@
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>(뮤즈 신) 뮤직들으며 명상하다</t>
+          <t>뮤직들으며 명상하다</t>
         </is>
       </c>
       <c r="C762" t="inlineStr">
@@ -15683,7 +15683,7 @@
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>(소심한) 겁많은 팀이다</t>
+          <t>겁많은 팀이다</t>
         </is>
       </c>
       <c r="C763" t="inlineStr">
@@ -15703,7 +15703,7 @@
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>(무감각) 넘 추워 무감각한</t>
+          <t>넘 추워 무감각한</t>
         </is>
       </c>
       <c r="C764" t="inlineStr">
@@ -15723,7 +15723,7 @@
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>(능숙합니다) 능숙한 프로피션</t>
+          <t>능숙한 프로피션</t>
         </is>
       </c>
       <c r="C765" t="inlineStr">
@@ -15732,7 +15732,7 @@
         </is>
       </c>
       <c r="D765" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766">
@@ -15743,7 +15743,7 @@
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>(인내하십시오) 철저히 엄격한 인내하다</t>
+          <t>철저히 엄격한 인내하다</t>
         </is>
       </c>
       <c r="C766" t="inlineStr">
@@ -15763,7 +15763,7 @@
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>(고문) 또쳐 괴롭히다 고문하다</t>
+          <t>또쳐 괴롭히다 고문하다</t>
         </is>
       </c>
       <c r="C767" t="inlineStr">
@@ -15783,7 +15783,7 @@
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>(어리석은) 비가 와일드해서 당황하다</t>
+          <t>비가 와일드해서 당황하다</t>
         </is>
       </c>
       <c r="C768" t="inlineStr">
@@ -15803,7 +15803,7 @@
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>(분별하다) 뒷선을 분간하다, 식별하다</t>
+          <t>뒷선을 분간하다, 식별하다</t>
         </is>
       </c>
       <c r="C769" t="inlineStr">
@@ -15823,7 +15823,7 @@
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>(해적) 파리떼 같은 해적</t>
+          <t>파리떼 같은 해적</t>
         </is>
       </c>
       <c r="C770" t="inlineStr">
@@ -15843,7 +15843,7 @@
       </c>
       <c r="B771" t="inlineStr">
         <is>
-          <t>(밀집한) 빽빽한 댄스장</t>
+          <t>빽빽한 댄스장</t>
         </is>
       </c>
       <c r="C771" t="inlineStr">
@@ -15863,7 +15863,7 @@
       </c>
       <c r="B772" t="inlineStr">
         <is>
-          <t>(탄소) 차본넷에서 나오는 탄소</t>
+          <t>차본넷에서 나오는 탄소</t>
         </is>
       </c>
       <c r="C772" t="inlineStr">
@@ -15883,7 +15883,7 @@
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>(풍부한) 어번돈도 많구나 풍부한</t>
+          <t>어번돈도 많구나 풍부한</t>
         </is>
       </c>
       <c r="C773" t="inlineStr">
@@ -15892,7 +15892,7 @@
         </is>
       </c>
       <c r="D773" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774">
@@ -15903,7 +15903,7 @@
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>(반칙) 파울 반칙 파울해서 불쾌한</t>
+          <t>파울 반칙 파울해서 불쾌한</t>
         </is>
       </c>
       <c r="C774" t="inlineStr">
@@ -15923,7 +15923,7 @@
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>(막대한) 거대한 이노마우스</t>
+          <t>거대한 이노마우스</t>
         </is>
       </c>
       <c r="C775" t="inlineStr">
@@ -15943,7 +15943,7 @@
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>(엄청난) 거대한걸 둘이멘댓어</t>
+          <t>거대한걸 둘이멘댓어</t>
         </is>
       </c>
       <c r="C776" t="inlineStr">
@@ -15963,7 +15963,7 @@
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>(목초지) 소를 목초지에 메둬</t>
+          <t>소를 목초지에 메둬</t>
         </is>
       </c>
       <c r="C777" t="inlineStr">
@@ -15983,7 +15983,7 @@
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>(향기) 쌘 향기</t>
+          <t>쌘 향기</t>
         </is>
       </c>
       <c r="C778" t="inlineStr">
@@ -16003,7 +16003,7 @@
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>(잡초를 없애다) 위에도 잡초</t>
+          <t>위에도 잡초</t>
         </is>
       </c>
       <c r="C779" t="inlineStr">
@@ -16012,7 +16012,7 @@
         </is>
       </c>
       <c r="D779" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780">
@@ -16023,7 +16023,7 @@
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>(열렬한) 열대의 트로피</t>
+          <t>열대의 트로피</t>
         </is>
       </c>
       <c r="C780" t="inlineStr">
@@ -16032,7 +16032,7 @@
         </is>
       </c>
       <c r="D780" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="781">
@@ -16043,7 +16043,7 @@
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>(험한) 가파른 스텝</t>
+          <t>가파른 스텝</t>
         </is>
       </c>
       <c r="C781" t="inlineStr">
@@ -16063,7 +16063,7 @@
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>(삽) 삽으로 파다</t>
+          <t>삽으로 파다</t>
         </is>
       </c>
       <c r="C782" t="inlineStr">
@@ -16083,7 +16083,7 @@
       </c>
       <c r="B783" t="inlineStr">
         <is>
-          <t>(지진) 지구가 흔들림 지진</t>
+          <t>지구가 흔들림 지진</t>
         </is>
       </c>
       <c r="C783" t="inlineStr">
@@ -16103,7 +16103,7 @@
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t>(세로) 버티컬리미츠 수직한계</t>
+          <t>버티컬리미츠 수직한계</t>
         </is>
       </c>
       <c r="C784" t="inlineStr">
@@ -16123,7 +16123,7 @@
       </c>
       <c r="B785" t="inlineStr">
         <is>
-          <t>(서핑) 서핑 파도타기하다</t>
+          <t>서핑 파도타기하다</t>
         </is>
       </c>
       <c r="C785" t="inlineStr">
@@ -16143,7 +16143,7 @@
       </c>
       <c r="B786" t="inlineStr">
         <is>
-          <t>(재목) 목재 팀봐</t>
+          <t>목재 팀봐</t>
         </is>
       </c>
       <c r="C786" t="inlineStr">
@@ -16163,7 +16163,7 @@
       </c>
       <c r="B787" t="inlineStr">
         <is>
-          <t>(왕국) 낼름삼킨 왕국, 영토</t>
+          <t>낼름삼킨 왕국, 영토</t>
         </is>
       </c>
       <c r="C787" t="inlineStr">
@@ -16183,7 +16183,7 @@
       </c>
       <c r="B788" t="inlineStr">
         <is>
-          <t>(빈민굴) 슬렁대는 빈민가</t>
+          <t>슬렁대는 빈민가</t>
         </is>
       </c>
       <c r="C788" t="inlineStr">
@@ -16203,7 +16203,7 @@
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t>(농업) 농업</t>
+          <t>농업</t>
         </is>
       </c>
       <c r="C789" t="inlineStr">
@@ -16223,7 +16223,7 @@
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t>(메마른) 베린땅 불모의</t>
+          <t>베린땅 불모의</t>
         </is>
       </c>
       <c r="C790" t="inlineStr">
@@ -16243,7 +16243,7 @@
       </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t>(조잡한) 거친 그룹</t>
+          <t>거친 그룹</t>
         </is>
       </c>
       <c r="C791" t="inlineStr">
@@ -16263,7 +16263,7 @@
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t>(엉망) 메스들고 난처함, 난장판</t>
+          <t>메스들고 난처함, 난장판</t>
         </is>
       </c>
       <c r="C792" t="inlineStr">
@@ -16272,7 +16272,7 @@
         </is>
       </c>
       <c r="D792" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793">
@@ -16283,7 +16283,7 @@
       </c>
       <c r="B793" t="inlineStr">
         <is>
-          <t>(해외) 바다위로 해외의, 해외로</t>
+          <t>바다위로 해외의, 해외로</t>
         </is>
       </c>
       <c r="C793" t="inlineStr">
@@ -16303,7 +16303,7 @@
       </c>
       <c r="B794" t="inlineStr">
         <is>
-          <t>(안개) 미스터리한 안개</t>
+          <t>미스터리한 안개</t>
         </is>
       </c>
       <c r="C794" t="inlineStr">
@@ -16323,7 +16323,7 @@
       </c>
       <c r="B795" t="inlineStr">
         <is>
-          <t>(박차) 막판스퍼트 박차를 가하다</t>
+          <t>막판스퍼트 박차를 가하다</t>
         </is>
       </c>
       <c r="C795" t="inlineStr">
@@ -16332,7 +16332,7 @@
         </is>
       </c>
       <c r="D795" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796">
@@ -16343,7 +16343,7 @@
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t>(산등성이) 산등성이 도착(리치)</t>
+          <t>산등성이 도착(리치)</t>
         </is>
       </c>
       <c r="C796" t="inlineStr">
@@ -16363,7 +16363,7 @@
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t>(자갈) 자갈 그레이브(무덤)</t>
+          <t>자갈 그레이브(무덤)</t>
         </is>
       </c>
       <c r="C797" t="inlineStr">
@@ -16383,7 +16383,7 @@
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t>(번득임) 번쩍거림, 번쩍임</t>
+          <t>번쩍거림, 번쩍임</t>
         </is>
       </c>
       <c r="C798" t="inlineStr">
@@ -16403,7 +16403,7 @@
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>(늪) 늪에서 스윔(수영)</t>
+          <t>늪에서 스윔(수영)</t>
         </is>
       </c>
       <c r="C799" t="inlineStr">
@@ -16412,7 +16412,7 @@
         </is>
       </c>
       <c r="D799" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800">
@@ -16423,7 +16423,7 @@
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t>(폭발) 폭발로 불났었다</t>
+          <t>폭발로 불났었다</t>
         </is>
       </c>
       <c r="C800" t="inlineStr">
@@ -16432,7 +16432,7 @@
         </is>
       </c>
       <c r="D800" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801">
@@ -16443,7 +16443,7 @@
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t>(대단원) 큰 재난으로 카타고 피하다</t>
+          <t>큰 재난으로 카타고 피하다</t>
         </is>
       </c>
       <c r="C801" t="inlineStr">
@@ -16452,7 +16452,7 @@
         </is>
       </c>
       <c r="D801" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802">
@@ -16463,7 +16463,7 @@
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>(좁은) 스트레이트한 해협, 궁핍</t>
+          <t>스트레이트한 해협, 궁핍</t>
         </is>
       </c>
       <c r="C802" t="inlineStr">
@@ -16483,7 +16483,7 @@
       </c>
       <c r="B803" t="inlineStr">
         <is>
-          <t>(서리) 추운날엔 콘 프로스트</t>
+          <t>추운날엔 콘 프로스트</t>
         </is>
       </c>
       <c r="C803" t="inlineStr">
@@ -16492,7 +16492,7 @@
         </is>
       </c>
       <c r="D803" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804">
@@ -16503,7 +16503,7 @@
       </c>
       <c r="B804" t="inlineStr">
         <is>
-          <t>(비옥) 퍼뜨릴 비옥한 땅</t>
+          <t>퍼뜨릴 비옥한 땅</t>
         </is>
       </c>
       <c r="C804" t="inlineStr">
@@ -16523,7 +16523,7 @@
       </c>
       <c r="B805" t="inlineStr">
         <is>
-          <t>(어스름) 트와이라잇 여명, 황혼</t>
+          <t>트와이라잇 여명, 황혼</t>
         </is>
       </c>
       <c r="C805" t="inlineStr">
@@ -16543,7 +16543,7 @@
       </c>
       <c r="B806" t="inlineStr">
         <is>
-          <t>(황혼) 더 으슥한 해질녘, 황혼</t>
+          <t>더 으슥한 해질녘, 황혼</t>
         </is>
       </c>
       <c r="C806" t="inlineStr">
@@ -16563,7 +16563,7 @@
       </c>
       <c r="B807" t="inlineStr">
         <is>
-          <t>(축축합니다) 축축한게 머이써</t>
+          <t>축축한게 머이써</t>
         </is>
       </c>
       <c r="C807" t="inlineStr">
@@ -16572,7 +16572,7 @@
         </is>
       </c>
       <c r="D807" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="808">
@@ -16583,7 +16583,7 @@
       </c>
       <c r="B808" t="inlineStr">
         <is>
-          <t>(대초원) 풀에 이리가 있는 대초원</t>
+          <t>풀에 이리가 있는 대초원</t>
         </is>
       </c>
       <c r="C808" t="inlineStr">
@@ -16603,7 +16603,7 @@
       </c>
       <c r="B809" t="inlineStr">
         <is>
-          <t>(서식지) 해비타트운동은 거주장소 지어주는거</t>
+          <t>해비타트운동은 거주장소 지어주는거</t>
         </is>
       </c>
       <c r="C809" t="inlineStr">
@@ -16623,7 +16623,7 @@
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t>(풍경) 땅을 보다 경치, 풍경</t>
+          <t>땅을 보다 경치, 풍경</t>
         </is>
       </c>
       <c r="C810" t="inlineStr">
@@ -16643,7 +16643,7 @@
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t>(위도) 위도로 레티튀다</t>
+          <t>위도로 레티튀다</t>
         </is>
       </c>
       <c r="C811" t="inlineStr">
@@ -16652,7 +16652,7 @@
         </is>
       </c>
       <c r="D811" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="812">
@@ -16663,7 +16663,7 @@
       </c>
       <c r="B812" t="inlineStr">
         <is>
-          <t>(아슬 아슬한) 호흡 의하는 놀랄만한 아슬아슬한</t>
+          <t>호흡 의하는 놀랄만한 아슬아슬한</t>
         </is>
       </c>
       <c r="C812" t="inlineStr">
@@ -16683,7 +16683,7 @@
       </c>
       <c r="B813" t="inlineStr">
         <is>
-          <t>(대리석) 마당벌판 대리석</t>
+          <t>마당벌판 대리석</t>
         </is>
       </c>
       <c r="C813" t="inlineStr">
@@ -16703,7 +16703,7 @@
       </c>
       <c r="B814" t="inlineStr">
         <is>
-          <t>(질질 끌게 하다) 더긴 오래머무르다</t>
+          <t>더긴 오래머무르다</t>
         </is>
       </c>
       <c r="C814" t="inlineStr">
@@ -16723,7 +16723,7 @@
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t>(관개) 이리게이트로 물을대다, 관개하다</t>
+          <t>이리게이트로 물을대다, 관개하다</t>
         </is>
       </c>
       <c r="C815" t="inlineStr">
@@ -16732,7 +16732,7 @@
         </is>
       </c>
       <c r="D815" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="816">
@@ -16743,7 +16743,7 @@
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t>(구획) 껌파트 칸막이, 구획</t>
+          <t>껌파트 칸막이, 구획</t>
         </is>
       </c>
       <c r="C816" t="inlineStr">
@@ -16763,7 +16763,7 @@
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t>(~을 통해) 경유해온 배여</t>
+          <t>경유해온 배여</t>
         </is>
       </c>
       <c r="C817" t="inlineStr">
@@ -16783,7 +16783,7 @@
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t>(담그다) 쏙 스며들게하다</t>
+          <t>쏙 스며들게하다</t>
         </is>
       </c>
       <c r="C818" t="inlineStr">
@@ -16803,7 +16803,7 @@
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t>(구성) 플롯을 부는 음모</t>
+          <t>플롯을 부는 음모</t>
         </is>
       </c>
       <c r="C819" t="inlineStr">
@@ -16823,7 +16823,7 @@
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>(정상 회담) 섬이 정상에서 보인다</t>
+          <t>섬이 정상에서 보인다</t>
         </is>
       </c>
       <c r="C820" t="inlineStr">
@@ -16843,7 +16843,7 @@
       </c>
       <c r="B821" t="inlineStr">
         <is>
-          <t>(봉인) 씰로 봉인하다</t>
+          <t>씰로 봉인하다</t>
         </is>
       </c>
       <c r="C821" t="inlineStr">
@@ -16852,7 +16852,7 @@
         </is>
       </c>
       <c r="D821" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822">
@@ -16863,7 +16863,7 @@
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t>(이사회) 의회 큰소리</t>
+          <t>의회 큰소리</t>
         </is>
       </c>
       <c r="C822" t="inlineStr">
@@ -16883,7 +16883,7 @@
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t>(후보자) 캔디와 데이트할 후보자</t>
+          <t>캔디와 데이트할 후보자</t>
         </is>
       </c>
       <c r="C823" t="inlineStr">
@@ -16903,7 +16903,7 @@
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t>(장벽) 장애물을 베려</t>
+          <t>장애물을 베려</t>
         </is>
       </c>
       <c r="C824" t="inlineStr">
@@ -16912,7 +16912,7 @@
         </is>
       </c>
       <c r="D824" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825">
@@ -16923,7 +16923,7 @@
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t>(생산력) 앞으로 내놓아 생산성</t>
+          <t>앞으로 내놓아 생산성</t>
         </is>
       </c>
       <c r="C825" t="inlineStr">
@@ -16943,7 +16943,7 @@
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t>(본부) 머리부분 본사, 본부</t>
+          <t>머리부분 본사, 본부</t>
         </is>
       </c>
       <c r="C826" t="inlineStr">
@@ -16963,7 +16963,7 @@
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t>(근본적인) 레이디꼴이 근본적인</t>
+          <t>레이디꼴이 근본적인</t>
         </is>
       </c>
       <c r="C827" t="inlineStr">
@@ -16983,7 +16983,7 @@
       </c>
       <c r="B828" t="inlineStr">
         <is>
-          <t>(후원자) 페인트로 보호</t>
+          <t>페인트로 보호</t>
         </is>
       </c>
       <c r="C828" t="inlineStr">
@@ -17003,7 +17003,7 @@
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t>(애국자) 패트리어트 미사일 애국 미사일, 애국자</t>
+          <t>패트리어트 미사일 애국 미사일, 애국자</t>
         </is>
       </c>
       <c r="C829" t="inlineStr">
@@ -17012,7 +17012,7 @@
         </is>
       </c>
       <c r="D829" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830">
@@ -17023,7 +17023,7 @@
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t>(유산) 애셋도 재산</t>
+          <t>애셋도 재산</t>
         </is>
       </c>
       <c r="C830" t="inlineStr">
@@ -17043,7 +17043,7 @@
       </c>
       <c r="B831" t="inlineStr">
         <is>
-          <t>(크루즈) 크루즈선이 순항하다</t>
+          <t>크루즈선이 순항하다</t>
         </is>
       </c>
       <c r="C831" t="inlineStr">
@@ -17063,7 +17063,7 @@
       </c>
       <c r="B832" t="inlineStr">
         <is>
-          <t>(조언) 카운셀링 상담</t>
+          <t>카운셀링 상담</t>
         </is>
       </c>
       <c r="C832" t="inlineStr">
@@ -17083,7 +17083,7 @@
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t>(위업) 디피트 시킨 업적</t>
+          <t>디피트 시킨 업적</t>
         </is>
       </c>
       <c r="C833" t="inlineStr">
@@ -17103,7 +17103,7 @@
       </c>
       <c r="B834" t="inlineStr">
         <is>
-          <t>(웅변) 이로켓은 설득력 있다</t>
+          <t>이로켓은 설득력 있다</t>
         </is>
       </c>
       <c r="C834" t="inlineStr">
@@ -17123,7 +17123,7 @@
       </c>
       <c r="B835" t="inlineStr">
         <is>
-          <t>(탐색) 네비게이션으로 항해하다, 조종하다</t>
+          <t>네비게이션으로 항해하다, 조종하다</t>
         </is>
       </c>
       <c r="C835" t="inlineStr">
@@ -17143,7 +17143,7 @@
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t>(의로운) 라이터스 올바른</t>
+          <t>라이터스 올바른</t>
         </is>
       </c>
       <c r="C836" t="inlineStr">
@@ -17163,7 +17163,7 @@
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t>(선심 쓰는) 자유롭게 리버를 만들자</t>
+          <t>자유롭게 리버를 만들자</t>
         </is>
       </c>
       <c r="C837" t="inlineStr">
@@ -17183,7 +17183,7 @@
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t>(청원) 도움을 찾는 것 청원</t>
+          <t>도움을 찾는 것 청원</t>
         </is>
       </c>
       <c r="C838" t="inlineStr">
@@ -17192,7 +17192,7 @@
         </is>
       </c>
       <c r="D838" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="839">
@@ -17203,7 +17203,7 @@
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t>(소매) 다시 자른느 것 소매</t>
+          <t>다시 자른느 것 소매</t>
         </is>
       </c>
       <c r="C839" t="inlineStr">
@@ -17223,7 +17223,7 @@
       </c>
       <c r="B840" t="inlineStr">
         <is>
-          <t>(명백한) 마니패서 명백히 하다</t>
+          <t>마니패서 명백히 하다</t>
         </is>
       </c>
       <c r="C840" t="inlineStr">
@@ -17232,7 +17232,7 @@
         </is>
       </c>
       <c r="D840" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841">
@@ -17243,7 +17243,7 @@
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t>(청사진) 파란인쇄 청사진</t>
+          <t>파란인쇄 청사진</t>
         </is>
       </c>
       <c r="C841" t="inlineStr">
@@ -17263,7 +17263,7 @@
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t>(자치) 어떤놈이 자치권을 주장</t>
+          <t>어떤놈이 자치권을 주장</t>
         </is>
       </c>
       <c r="C842" t="inlineStr">
@@ -17283,7 +17283,7 @@
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t>(전쟁) 전쟁을 좋아하는 호전적인</t>
+          <t>전쟁을 좋아하는 호전적인</t>
         </is>
       </c>
       <c r="C843" t="inlineStr">
@@ -17292,7 +17292,7 @@
         </is>
       </c>
       <c r="D843" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="844">
@@ -17303,7 +17303,7 @@
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t>(스카우트) 정찰병을 스카우트하다</t>
+          <t>정찰병을 스카우트하다</t>
         </is>
       </c>
       <c r="C844" t="inlineStr">
@@ -17323,7 +17323,7 @@
       </c>
       <c r="B845" t="inlineStr">
         <is>
-          <t>(고백) 시험하는 돈 증언료</t>
+          <t>시험하는 돈 증언료</t>
         </is>
       </c>
       <c r="C845" t="inlineStr">
@@ -17343,7 +17343,7 @@
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t>(동맹국) 스타크래프트 얼라이 동맹</t>
+          <t>스타크래프트 얼라이 동맹</t>
         </is>
       </c>
       <c r="C846" t="inlineStr">
@@ -17352,7 +17352,7 @@
         </is>
       </c>
       <c r="D846" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="847">
@@ -17363,7 +17363,7 @@
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>(변호사) 변호사 어떠니?</t>
+          <t>변호사 어떠니?</t>
         </is>
       </c>
       <c r="C847" t="inlineStr">
@@ -17383,7 +17383,7 @@
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>(배 밖으로) 배너머로 배밖으로</t>
+          <t>배너머로 배밖으로</t>
         </is>
       </c>
       <c r="C848" t="inlineStr">
@@ -17403,7 +17403,7 @@
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t>(도매기) 전체판매하는 사람 도매상</t>
+          <t>전체판매하는 사람 도매상</t>
         </is>
       </c>
       <c r="C849" t="inlineStr">
@@ -17423,7 +17423,7 @@
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t>(연대기) 시간흐름 연대기</t>
+          <t>시간흐름 연대기</t>
         </is>
       </c>
       <c r="C850" t="inlineStr">
@@ -17443,7 +17443,7 @@
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t>(교의) 닉슨독트린 교리 학설</t>
+          <t>닉슨독트린 교리 학설</t>
         </is>
       </c>
       <c r="C851" t="inlineStr">
@@ -17463,7 +17463,7 @@
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t>(군단) 골프숲 군대</t>
+          <t>골프숲 군대</t>
         </is>
       </c>
       <c r="C852" t="inlineStr">
@@ -17483,7 +17483,7 @@
       </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t>(치는) 인상적인 스트라이크 두드러진</t>
+          <t>인상적인 스트라이크 두드러진</t>
         </is>
       </c>
       <c r="C853" t="inlineStr">
@@ -17492,7 +17492,7 @@
         </is>
       </c>
       <c r="D853" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="854">
@@ -17503,7 +17503,7 @@
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t>(맹세) 오쓰의 맹세</t>
+          <t>오쓰의 맹세</t>
         </is>
       </c>
       <c r="C854" t="inlineStr">
@@ -17523,7 +17523,7 @@
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t>(대사) 엠베서더호텔묵는 대사, 사절</t>
+          <t>엠베서더호텔묵는 대사, 사절</t>
         </is>
       </c>
       <c r="C855" t="inlineStr">
@@ -17532,7 +17532,7 @@
         </is>
       </c>
       <c r="D855" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856">
@@ -17543,7 +17543,7 @@
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t>(포학) 폭정하니 튀라네</t>
+          <t>폭정하니 튀라네</t>
         </is>
       </c>
       <c r="C856" t="inlineStr">
@@ -17563,7 +17563,7 @@
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t>(예비의) 한계점 앞 예비의, 임시의</t>
+          <t>한계점 앞 예비의, 임시의</t>
         </is>
       </c>
       <c r="C857" t="inlineStr">
@@ -17572,7 +17572,7 @@
         </is>
       </c>
       <c r="D857" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858">
@@ -17583,7 +17583,7 @@
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t>(주권자) 사버린 군주</t>
+          <t>사버린 군주</t>
         </is>
       </c>
       <c r="C858" t="inlineStr">
@@ -17603,7 +17603,7 @@
       </c>
       <c r="B859" t="inlineStr">
         <is>
-          <t>(대리자) 대표가 데려갔데</t>
+          <t>대표가 데려갔데</t>
         </is>
       </c>
       <c r="C859" t="inlineStr">
@@ -17612,7 +17612,7 @@
         </is>
       </c>
       <c r="D859" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="860">
@@ -17623,7 +17623,7 @@
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t>(귀중한) 귀한 풀이셨어</t>
+          <t>귀한 풀이셨어</t>
         </is>
       </c>
       <c r="C860" t="inlineStr">
@@ -17632,7 +17632,7 @@
         </is>
       </c>
       <c r="D860" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="861">
@@ -17643,7 +17643,7 @@
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t>(절) 법조항책을 닫았다(close)</t>
+          <t>법조항책을 닫았다(close)</t>
         </is>
       </c>
       <c r="C861" t="inlineStr">
@@ -17663,7 +17663,7 @@
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t>(외교) 뒤풀어모셔 외교</t>
+          <t>뒤풀어모셔 외교</t>
         </is>
       </c>
       <c r="C862" t="inlineStr">
@@ -17683,7 +17683,7 @@
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t>(세션) 앉아있는 시간 회기, 개회중</t>
+          <t>앉아있는 시간 회기, 개회중</t>
         </is>
       </c>
       <c r="C863" t="inlineStr">
@@ -17703,7 +17703,7 @@
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t>(병합) 머지않아 합병하다</t>
+          <t>머지않아 합병하다</t>
         </is>
       </c>
       <c r="C864" t="inlineStr">
@@ -17723,7 +17723,7 @@
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t>(잡다) 사야죠하고 붙잡다</t>
+          <t>사야죠하고 붙잡다</t>
         </is>
       </c>
       <c r="C865" t="inlineStr">
@@ -17743,7 +17743,7 @@
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t>(자발적인) 자발적인 스폰테니스</t>
+          <t>자발적인 스폰테니스</t>
         </is>
       </c>
       <c r="C866" t="inlineStr">
@@ -17763,7 +17763,7 @@
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t>(격렬한) 강력한 드럼스틱</t>
+          <t>강력한 드럼스틱</t>
         </is>
       </c>
       <c r="C867" t="inlineStr">
@@ -17783,7 +17783,7 @@
       </c>
       <c r="B868" t="inlineStr">
         <is>
-          <t>(계층) 높은 계급 지배계층</t>
+          <t>높은 계급 지배계층</t>
         </is>
       </c>
       <c r="C868" t="inlineStr">
@@ -17803,7 +17803,7 @@
       </c>
       <c r="B869" t="inlineStr">
         <is>
-          <t>(유명한) 악명높은 노털이었어</t>
+          <t>악명높은 노털이었어</t>
         </is>
       </c>
       <c r="C869" t="inlineStr">
@@ -17823,7 +17823,7 @@
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t>(그릇된 생각) 추락(fall)하는 잘못된 생각</t>
+          <t>추락(fall)하는 잘못된 생각</t>
         </is>
       </c>
       <c r="C870" t="inlineStr">
@@ -17843,7 +17843,7 @@
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t>(급등하다) 큰파도 앞에 섰지</t>
+          <t>큰파도 앞에 섰지</t>
         </is>
       </c>
       <c r="C871" t="inlineStr">
@@ -17863,7 +17863,7 @@
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t>(물물 교환) 받어 물물교환</t>
+          <t>받어 물물교환</t>
         </is>
       </c>
       <c r="C872" t="inlineStr">
@@ -17883,7 +17883,7 @@
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t>(계획) 스키를 계획하다</t>
+          <t>스키를 계획하다</t>
         </is>
       </c>
       <c r="C873" t="inlineStr">
@@ -17903,7 +17903,7 @@
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t>(만장일치) 유내모아서 만장일치의</t>
+          <t>유내모아서 만장일치의</t>
         </is>
       </c>
       <c r="C874" t="inlineStr">
@@ -17923,7 +17923,7 @@
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t>(인플레이션) 안에 불어넣다 팽창</t>
+          <t>안에 불어넣다 팽창</t>
         </is>
       </c>
       <c r="C875" t="inlineStr">
@@ -17943,7 +17943,7 @@
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t>(필수적인) 남자와 데이트 의무적인</t>
+          <t>남자와 데이트 의무적인</t>
         </is>
       </c>
       <c r="C876" t="inlineStr">
@@ -17963,7 +17963,7 @@
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t>(맡기다) 믿음안에 위임하다 맡기다</t>
+          <t>믿음안에 위임하다 맡기다</t>
         </is>
       </c>
       <c r="C877" t="inlineStr">
@@ -17983,7 +17983,7 @@
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t>(승인) 인도시에 배서하다 보증하다</t>
+          <t>인도시에 배서하다 보증하다</t>
         </is>
       </c>
       <c r="C878" t="inlineStr">
@@ -18003,7 +18003,7 @@
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t>(비난하다) 큰댐 건설을 비난하다</t>
+          <t>큰댐 건설을 비난하다</t>
         </is>
       </c>
       <c r="C879" t="inlineStr">
@@ -18023,7 +18023,7 @@
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t>(선포하십시오) 앞으로 소리치다 선언하다, 발표하다</t>
+          <t>앞으로 소리치다 선언하다, 발표하다</t>
         </is>
       </c>
       <c r="C880" t="inlineStr">
@@ -18043,7 +18043,7 @@
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t>(약속) 맹세할테니 풀어주</t>
+          <t>맹세할테니 풀어주</t>
         </is>
       </c>
       <c r="C881" t="inlineStr">
@@ -18063,7 +18063,7 @@
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t>(억지로 시키다) 얜포수 하라고 강요하다, 집행하다</t>
+          <t>얜포수 하라고 강요하다, 집행하다</t>
         </is>
       </c>
       <c r="C882" t="inlineStr">
@@ -18083,7 +18083,7 @@
       </c>
       <c r="B883" t="inlineStr">
         <is>
-          <t>(면제) 밖으로 빼내다 면제하다</t>
+          <t>밖으로 빼내다 면제하다</t>
         </is>
       </c>
       <c r="C883" t="inlineStr">
@@ -18103,7 +18103,7 @@
       </c>
       <c r="B884" t="inlineStr">
         <is>
-          <t>(진본인) 오쌘데 진짜</t>
+          <t>오쌘데 진짜</t>
         </is>
       </c>
       <c r="C884" t="inlineStr">
@@ -18123,7 +18123,7 @@
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t>(유능한) 할 수 있는</t>
+          <t>할 수 있는</t>
         </is>
       </c>
       <c r="C885" t="inlineStr">
@@ -18143,7 +18143,7 @@
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t>(유연한) 구부리기 쉬운 탄력적인, 유연한</t>
+          <t>구부리기 쉬운 탄력적인, 유연한</t>
         </is>
       </c>
       <c r="C886" t="inlineStr">
@@ -18163,7 +18163,7 @@
       </c>
       <c r="B887" t="inlineStr">
         <is>
-          <t>(유창) 흐르는 것 유창함</t>
+          <t>흐르는 것 유창함</t>
         </is>
       </c>
       <c r="C887" t="inlineStr">
@@ -18183,7 +18183,7 @@
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t>(보통의) 척도에 맞는 적절한</t>
+          <t>척도에 맞는 적절한</t>
         </is>
       </c>
       <c r="C888" t="inlineStr">
@@ -18203,7 +18203,7 @@
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t>(취약한) 버너불에 상처받기 쉬운</t>
+          <t>버너불에 상처받기 쉬운</t>
         </is>
       </c>
       <c r="C889" t="inlineStr">
@@ -18223,7 +18223,7 @@
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t>(보증) 워렌버핏 보증섬 담보</t>
+          <t>워렌버핏 보증섬 담보</t>
         </is>
       </c>
       <c r="C890" t="inlineStr">
@@ -18243,7 +18243,7 @@
       </c>
       <c r="B891" t="inlineStr">
         <is>
-          <t>(가정하다) 말을 놓기전에 하는 것 가정하다</t>
+          <t>말을 놓기전에 하는 것 가정하다</t>
         </is>
       </c>
       <c r="C891" t="inlineStr">
@@ -18263,7 +18263,7 @@
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t>(기회) 오퍼주니 기회다</t>
+          <t>오퍼주니 기회다</t>
         </is>
       </c>
       <c r="C892" t="inlineStr">
@@ -18283,7 +18283,7 @@
       </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t>(시장) 시장직에 메이어</t>
+          <t>시장직에 메이어</t>
         </is>
       </c>
       <c r="C893" t="inlineStr">
@@ -18303,7 +18303,7 @@
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t>(운동) 교묘하게 만화봐</t>
+          <t>교묘하게 만화봐</t>
         </is>
       </c>
       <c r="C894" t="inlineStr">
@@ -18323,7 +18323,7 @@
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t>(기업) 안에서 잡는 것 진취적 정신, 기업</t>
+          <t>안에서 잡는 것 진취적 정신, 기업</t>
         </is>
       </c>
       <c r="C895" t="inlineStr">
@@ -18343,7 +18343,7 @@
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t>(폭행) 어 싸울테냐 공격하다, 괴롭히다</t>
+          <t>어 싸울테냐 공격하다, 괴롭히다</t>
         </is>
       </c>
       <c r="C896" t="inlineStr">
@@ -18363,7 +18363,7 @@
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t>(평가하다) 앉아서 평가하다</t>
+          <t>앉아서 평가하다</t>
         </is>
       </c>
       <c r="C897" t="inlineStr">
@@ -18383,7 +18383,7 @@
       </c>
       <c r="B898" t="inlineStr">
         <is>
-          <t>(정복하다) 콩고를 정복하다</t>
+          <t>콩고를 정복하다</t>
         </is>
       </c>
       <c r="C898" t="inlineStr">
@@ -18403,7 +18403,7 @@
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t>(측정하다) 메주로 평가하다, 측정하다</t>
+          <t>메주로 평가하다, 측정하다</t>
         </is>
       </c>
       <c r="C899" t="inlineStr">
@@ -18423,7 +18423,7 @@
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t>(편성) 오르간을 조직하다</t>
+          <t>오르간을 조직하다</t>
         </is>
       </c>
       <c r="C900" t="inlineStr">
@@ -18443,7 +18443,7 @@
       </c>
       <c r="B901" t="inlineStr">
         <is>
-          <t>(참가자) 부분을 차지하다 참가자</t>
+          <t>부분을 차지하다 참가자</t>
         </is>
       </c>
       <c r="C901" t="inlineStr">
@@ -18463,7 +18463,7 @@
       </c>
       <c r="B902" t="inlineStr">
         <is>
-          <t>(조정하다) 다시 함께 부르다 화해하다</t>
+          <t>다시 함께 부르다 화해하다</t>
         </is>
       </c>
       <c r="C902" t="inlineStr">
@@ -18472,7 +18472,7 @@
         </is>
       </c>
       <c r="D902" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="903">
@@ -18483,7 +18483,7 @@
       </c>
       <c r="B903" t="inlineStr">
         <is>
-          <t>(복수) 니 뺀지로 복수하다</t>
+          <t>니 뺀지로 복수하다</t>
         </is>
       </c>
       <c r="C903" t="inlineStr">
@@ -18503,7 +18503,7 @@
       </c>
       <c r="B904" t="inlineStr">
         <is>
-          <t>(둘러 싸다) 넘어 둘러싸다 포위하다</t>
+          <t>넘어 둘러싸다 포위하다</t>
         </is>
       </c>
       <c r="C904" t="inlineStr">

--- a/학습자료/단답형/영어_기초단어.xlsx
+++ b/학습자료/단답형/영어_기초단어.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>별로 가치를 평가하다</t>
+          <t>(값) 별로 가치를 평가하다</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -483,7 +483,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>앞에 보내진→출석한</t>
+          <t>(현재) 앞에 보내진→출석한</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -503,7 +503,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>스스로 나서는 사람→자원봉사자</t>
+          <t>(자원 봉사자) 스스로 나서는 사람→자원봉사자</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -523,7 +523,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>누가 내유산을 차지하면→비난하고 고소해서 책임지게하다</t>
+          <t>(요금) 누가 내유산을 차지하면→비난하고 고소해서 책임지게하다</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>끝까지 폼을 유지해→수행하다 공연하다</t>
+          <t>(공연하다) 끝까지 폼을 유지해→수행하다 공연하다</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>내꺼만 살짝 추천하다</t>
+          <t>(추천하다) 내꺼만 살짝 추천하다</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -583,7 +583,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>디엠지를 건너와 새터민이 되기로 결심하다</t>
+          <t>(결정) 디엠지를 건너와 새터민이 되기로 결심하다</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -603,7 +603,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>앞에서 지키다→감시하다, 준수하다</t>
+          <t>(관찰하다) 앞에서 지키다→감시하다, 준수하다</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -623,7 +623,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>다시 움직이다→제거하다</t>
+          <t>(제거하다) 다시 움직이다→제거하다</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -643,7 +643,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>섭하 → 섭하지만 참다</t>
+          <t>(시달리다) 섭하 → 섭하지만 참다</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -663,7 +663,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>연못(pond)에 돌던지면 반응하다</t>
+          <t>(대답하다) 연못(pond)에 돌던지면 반응하다</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>인터넷아이디 확인 동일시하다</t>
+          <t>(식별하다) 인터넷아이디 확인 동일시하다</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>함께부어 구별이 안됨→혼란시키다</t>
+          <t>(혼란시키다) 함께부어 구별이 안됨→혼란시키다</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>니코아니지?→알아보고 인정하다</t>
+          <t>(인정하다) 니코아니지?→알아보고 인정하다</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>다시 느슨하게 풀어주다, 발표하다</t>
+          <t>(풀어 주다) 다시 느슨하게 풀어주다, 발표하다</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>as+social(사교적인) → 결합시키다. 연상하다</t>
+          <t>(연관짓다) as+social(사교적인) → 결합시키다. 연상하다</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -783,7 +783,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>내선물로 마음을 표현하다. 대표하다</t>
+          <t>(대표하다) 내선물로 마음을 표현하다. 대표하다</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>프러스가 틀어지자 그를 좌절시키다</t>
+          <t>(좌절합니다) 프러스가 틀어지자 그를 좌절시키다</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -823,7 +823,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>파티에 참가하다</t>
+          <t>(참가하다) 파티에 참가하다</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -843,7 +843,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>필드에서 농작물을 생산하다, 양도하다, 굴복하다</t>
+          <t>(생산하다) 필드에서 농작물을 생산하다, 양도하다, 굴복하다</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -863,7 +863,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>밖으로 가치를 평가하다</t>
+          <t>(평가하다) 밖으로 가치를 평가하다</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>확실하게 만들다</t>
+          <t>(원형 실) 확실하게 만들다</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>다시 덮다→회복하다</t>
+          <t>(다시 덮다) 다시 덮다→회복하다</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -923,7 +923,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>노코멘트는 논평안하다→논평하다</t>
+          <t>(논평) 노코멘트는 논평안하다→논평하다</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -943,7 +943,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>장애물(bar)가 있어 당황하게하다</t>
+          <t>(당황합니다) 장애물(bar)가 있어 당황하게하다</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>en+hance(high) → 높게하다</t>
+          <t>(향상시키다) en+hance(high) → 높게하다</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>뒤에 지키다→지키다, 보존하다</t>
+          <t>(예약하다) 뒤에 지키다→지키다, 보존하다</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>인터넷을 탐험하다</t>
+          <t>(탐구하다) 인터넷을 탐험하다</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>서로 확인하다→확증하다, 승인하다</t>
+          <t>(확인하다) 서로 확인하다→확증하다, 승인하다</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>넘어오다 → 극복하다</t>
+          <t>(극복하다) 넘어오다 → 극복하다</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1063,7 +1063,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>완전히 해내다 → 성취하다</t>
+          <t>(성취하다) 완전히 해내다 → 성취하다</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>포수가 짐승을 추적하다</t>
+          <t>(추구하다) 포수가 짐승을 추적하다</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>빵(bread)을 먹여서 기르다</t>
+          <t>(새끼를 낳다) 빵(bread)을 먹여서 기르다</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1123,7 +1123,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>가진 것을 밖으로 내놓다→전시하다</t>
+          <t>(전시하다) 가진 것을 밖으로 내놓다→전시하다</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>아래로 끝을 정하다→정의하다</t>
+          <t>(정의하다) 아래로 끝을 정하다→정의하다</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37">
@@ -1163,7 +1163,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>sting 찔러서 자극하다</t>
+          <t>(자극) sting 찔러서 자극하다</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>뒤에서 찔러서 자국을 내어 구별하다</t>
+          <t>(구별하다) 뒤에서 찔러서 자국을 내어 구별하다</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>직업이란 내가 차지하고 있는 것</t>
+          <t>(점령) 직업이란 내가 차지하고 있는 것</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>큰배로 호송하다</t>
+          <t>(전달하다) 큰배로 호송하다</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1243,7 +1243,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>심사숙고해서 덜입어라</t>
+          <t>(고의의) 심사숙고해서 덜입어라</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>애밴돈을 버리다</t>
+          <t>(버리다) 애밴돈을 버리다</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>일르면 없애버린다→제거하다</t>
+          <t>(제거하다) 일르면 없애버린다→제거하다</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>멘트를 날리다 → 언급하다</t>
+          <t>(언급하다) 멘트를 날리다 → 언급하다</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>따라가니까 어울리다, 정장한벌, 소송</t>
+          <t>(정장) 따라가니까 어울리다, 정장한벌, 소송</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>강으로부터 물을 얻으니까 유래하다</t>
+          <t>(파생) 강으로부터 물을 얻으니까 유래하다</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>다른 사람을 괴롭히다</t>
+          <t>(신경 쓰다) 다른 사람을 괴롭히다</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>전체적으로 느슨하게 분석하다</t>
+          <t>(분석) 전체적으로 느슨하게 분석하다</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>상대방을 올려주는 것 → 칭찬하다</t>
+          <t>(칭찬) 상대방을 올려주는 것 → 칭찬하다</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>마더가 파이만드는 법을 바꾸다</t>
+          <t>(수정하다) 마더가 파이만드는 법을 바꾸다</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>파리시를 광내다</t>
+          <t>(광택) 파리시를 광내다</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>인에게 상처를 줘 해치다</t>
+          <t>(해치다) 인에게 상처를 줘 해치다</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1483,7 +1483,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>해치를 열다, 부화하다</t>
+          <t>(해치) 해치를 열다, 부화하다</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>이리떼이고 저리떼어 짜증나게하다</t>
+          <t>(짜증나게 하다) 이리떼이고 저리떼어 짜증나게하다</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>어 포드차를 살 여유가 있다</t>
+          <t>(형편이되다) 어 포드차를 살 여유가 있다</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>안티실패하리라 예상하다, 고대하다</t>
+          <t>(예상하다) 안티실패하리라 예상하다, 고대하다</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1563,7 +1563,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>덮어져 있는 것을 제거하니까 → 간파하다</t>
+          <t>(감지하다) 덮어져 있는 것을 제거하니까 → 간파하다</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1583,7 +1583,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>색이바래서 파이다</t>
+          <t>(바래다) 색이바래서 파이다</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59">
@@ -1603,7 +1603,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>어꾸물꾸물 재산이 쌓이다 → 축적하다</t>
+          <t>(축적하다) 어꾸물꾸물 재산이 쌓이다 → 축적하다</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>철이씨를 소중히 하다</t>
+          <t>(아끼다) 철이씨를 소중히 하다</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1643,7 +1643,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>밖으로 굴리다 전개하다, 진화하다</t>
+          <t>(진화합니다) 밖으로 굴리다 전개하다, 진화하다</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1663,7 +1663,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>포를 씹어보고 인지하다</t>
+          <t>(감지하다) 포를 씹어보고 인지하다</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>자질이 되는 사람에게 자격을 주다</t>
+          <t>(자격을 갖추십시오) 자질이 되는 사람에게 자격을 주다</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1703,7 +1703,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>쏘아 날아 오르다</t>
+          <t>(날기) 쏘아 날아 오르다</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1723,7 +1723,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>다시 엄격하게 하니까 → 제한하다</t>
+          <t>(얽매다) 다시 엄격하게 하니까 → 제한하다</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>높은 게런티를 보증하다</t>
+          <t>(보장하다) 높은 게런티를 보증하다</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>뒤져볼 가치 있는 누나의 서랍</t>
+          <t>(~ 받을 만하다) 뒤져볼 가치 있는 누나의 서랍</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>다시풀기로 결심하다</t>
+          <t>(해결하다) 다시풀기로 결심하다</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>아이도 돕다</t>
+          <t>(지원) 아이도 돕다</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1823,7 +1823,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>그랜드피아노를 주다</t>
+          <t>(승인하다) 그랜드피아노를 주다</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>끝까지 참다</t>
+          <t>(견디다) 끝까지 참다</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72">
@@ -1863,7 +1863,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>도망간 범인을 쫓아서 고소하다</t>
+          <t>(고소하다) 도망간 범인을 쫓아서 고소하다</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -1883,7 +1883,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>확실하게 근심이 없게하다 보증하다, 장담하다</t>
+          <t>(보증) 확실하게 근심이 없게하다 보증하다, 장담하다</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -1903,7 +1903,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>다시 가게를 되찾다, 회복하다</t>
+          <t>(복원) 다시 가게를 되찾다, 회복하다</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -1923,7 +1923,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>지배하는 거니까 지배하다</t>
+          <t>(억누르다) 지배하는 거니까 지배하다</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>바비큐 립을 먹는다고 좋아서 껑충뛰다</t>
+          <t>(뛰다) 바비큐 립을 먹는다고 좋아서 껑충뛰다</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -1963,7 +1963,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>캠핑가자고 신상텐트로 유혹하다</t>
+          <t>(유혹) 캠핑가자고 신상텐트로 유혹하다</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>어 스타온다 놀라게 하다</t>
+          <t>(놀라게 하다) 어 스타온다 놀라게 하다</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>디지게 표얻기 위해 헌신하다, 바치다</t>
+          <t>(바치다) 디지게 표얻기 위해 헌신하다, 바치다</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>운동하며 힘을 사용하다, 노력하다</t>
+          <t>(발휘) 운동하며 힘을 사용하다, 노력하다</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2043,7 +2043,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>큰실수를 숨기다</t>
+          <t>(숨기다) 큰실수를 숨기다</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2063,7 +2063,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>투레이스에서 찾거나 추적하고 발자국을 찾다</t>
+          <t>(추적하다) 투레이스에서 찾거나 추적하고 발자국을 찾다</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2083,7 +2083,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>런치먹고나서 일을 시작하다</t>
+          <t>(시작하다) 런치먹고나서 일을 시작하다</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84">
@@ -2103,7 +2103,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>함께 약속하다 → 타협하다</t>
+          <t>(타협) 함께 약속하다 → 타협하다</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>정보를 알려주다</t>
+          <t>(알리다) 정보를 알려주다</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2143,7 +2143,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>이동하는 거니까 이주하다</t>
+          <t>(마이그레이션) 이동하는 거니까 이주하다</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>함게 놓으니까 혼합하다, 혼합의</t>
+          <t>(화합물) 함게 놓으니까 혼합하다, 혼합의</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2183,7 +2183,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>뒤에서 톱질하며 방해하다</t>
+          <t>(방해하다) 뒤에서 톱질하며 방해하다</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2203,7 +2203,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>아이를 칭찬하다</t>
+          <t>(칭찬) 아이를 칭찬하다</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2223,7 +2223,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>범퍼끼리 충돌하다</t>
+          <t>(충돌) 범퍼끼리 충돌하다</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2243,7 +2243,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>안으로 눌러 깊은 인상을 주다</t>
+          <t>(감탄시키다) 안으로 눌러 깊은 인상을 주다</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2263,7 +2263,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>프로스포츠가 번영하다</t>
+          <t>(번영) 프로스포츠가 번영하다</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2283,7 +2283,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>공급하다, 보충하다</t>
+          <t>(보충) 공급하다, 보충하다</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2303,7 +2303,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>규칙적이니까 규제하다, 조절하다</t>
+          <t>(규제) 규칙적이니까 규제하다, 조절하다</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>덤프트럭이 짐을 내리다</t>
+          <t>(덤프) 덤프트럭이 짐을 내리다</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>숱하게 굶주리다</t>
+          <t>(굶어 죽다) 숱하게 굶주리다</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2363,7 +2363,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>새우가 오그라들다, 움츠리다</t>
+          <t>(수축) 새우가 오그라들다, 움츠리다</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2383,7 +2383,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>짝을 잃었을때 디지게 절망한다</t>
+          <t>(절망) 짝을 잃었을때 디지게 절망한다</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2403,7 +2403,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>없어 많이 사용해서 남용하다</t>
+          <t>(남용) 없어 많이 사용해서 남용하다</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2423,7 +2423,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>큰펜세트로 보상하다</t>
+          <t>(보상하십시오) 큰펜세트로 보상하다</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2443,7 +2443,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>치마가 더미니해지다 → 감소하다</t>
+          <t>(줄다) 치마가 더미니해지다 → 감소하다</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2463,7 +2463,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>스위퍼가 공격수를 다 휩쓸어버리다(스위퍼)</t>
+          <t>(스위프) 스위퍼가 공격수를 다 휩쓸어버리다(스위퍼)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>경주에서 임과 포옹하다</t>
+          <t>(포옹하다) 경주에서 임과 포옹하다</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2503,7 +2503,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>서로 응답하다→교신하다, 일치하다</t>
+          <t>(해당) 서로 응답하다→교신하다, 일치하다</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -2523,7 +2523,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>상속하다, 물려받다</t>
+          <t>(inres) 상속하다, 물려받다</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2543,7 +2543,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>잔디를 움켜쥐다</t>
+          <t>(파악) 잔디를 움켜쥐다</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2563,7 +2563,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>안에서 습관적으로 있는것 → 살다, 거주하다</t>
+          <t>(거주합니다) 안에서 습관적으로 있는것 → 살다, 거주하다</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -2583,7 +2583,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>함께 잡아당겨서 철수하다</t>
+          <t>(철회하다) 함께 잡아당겨서 철수하다</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -2603,7 +2603,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>수받으려고 트라이해보자 노력하다</t>
+          <t>(애쓰다) 수받으려고 트라이해보자 노력하다</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2623,7 +2623,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>어 펜대로 공격하다</t>
+          <t>(공격하다) 어 펜대로 공격하다</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>니어미가 너를 길렀다, 리어카의 뒤</t>
+          <t>(뒤쪽) 니어미가 너를 길렀다, 리어카의 뒤</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -2663,7 +2663,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>산을 오르다</t>
+          <t>(산) 산을 오르다</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -2683,7 +2683,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>아래를 보며 궁리하다 → 고안하다</t>
+          <t>(유증) 아래를 보며 궁리하다 → 고안하다</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>다 일러쓰! 예를들어 설명해쓰!</t>
+          <t>(설명) 다 일러쓰! 예를들어 설명해쓰!</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -2723,7 +2723,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>서서 펜대를 매달다</t>
+          <t>(유예하다) 서서 펜대를 매달다</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -2743,7 +2743,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>입째져라 떠벌리다 → 과장하다</t>
+          <t>(과장하십시오) 입째져라 떠벌리다 → 과장하다</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -2763,7 +2763,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>비틀다, 왜곡하다</t>
+          <t>(왜곡) 비틀다, 왜곡하다</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -2783,7 +2783,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>함께 앞에 직면하다</t>
+          <t>(대립합니다) 함께 앞에 직면하다</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>플럭플럭 새무리 떼, 모이다</t>
+          <t>(대군) 플럭플럭 새무리 떼, 모이다</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -2823,7 +2823,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>체계, 줄기</t>
+          <t>(줄기) 체계, 줄기</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -2843,7 +2843,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>어 꼬마들이 숙박하네, 수용하네</t>
+          <t>(수용) 어 꼬마들이 숙박하네, 수용하네</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -2863,7 +2863,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>언더 생활을 겪다, 경험하다</t>
+          <t>(받다) 언더 생활을 겪다, 경험하다</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -2883,7 +2883,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>일없으니까 없애고 지우다</t>
+          <t>(삭제) 일없으니까 없애고 지우다</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -2903,7 +2903,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>아래서있는이가 대신하다</t>
+          <t>(대리자) 아래서있는이가 대신하다</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -2923,7 +2923,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>밖으로 내보내니 실행하다</t>
+          <t>(실행하다) 밖으로 내보내니 실행하다</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -2943,7 +2943,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>함께 서서 저항하다, 견디다</t>
+          <t>(버티다) 함께 서서 저항하다, 견디다</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>드라이브가 많으니 번영하다</t>
+          <t>(번창하다) 드라이브가 많으니 번영하다</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>컴맨! 이리와 명령하다</t>
+          <t>(명령) 컴맨! 이리와 명령하다</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -3003,7 +3003,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>안으로 기울다 → 기울다</t>
+          <t>(경사) 안으로 기울다 → 기울다</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -3023,7 +3023,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>수포 일 일이 수포로 돌아가다, 망치다</t>
+          <t>(약탈) 수포 일 일이 수포로 돌아가다, 망치다</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -3043,7 +3043,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>납짝엎드리다 아첨하다</t>
+          <t>(즐겁게 하다) 납짝엎드리다 아첨하다</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -3063,7 +3063,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>소피를 흘리다</t>
+          <t>(엎지르다) 소피를 흘리다</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -3083,7 +3083,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>뒤에서 차다 석방하다, 해고하다</t>
+          <t>(해고하다) 뒤에서 차다 석방하다, 해고하다</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -3103,7 +3103,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>안에서 보이도록 강조하다</t>
+          <t>(강조하다) 안에서 보이도록 강조하다</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -3123,7 +3123,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>del키는 지우다</t>
+          <t>(삭제) del키는 지우다</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -3143,7 +3143,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>백원 달라고 간청하다</t>
+          <t>(빌다) 백원 달라고 간청하다</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -3163,7 +3163,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>카에 브이자를 새기다, 조각하다</t>
+          <t>(새기다) 카에 브이자를 새기다, 조각하다</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -3183,7 +3183,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>수풀이 둘로 쪼개지다</t>
+          <t>(나뉘다) 수풀이 둘로 쪼개지다</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -3203,7 +3203,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>다이아가 코속에 들어가 진단하다</t>
+          <t>(진단) 다이아가 코속에 들어가 진단하다</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -3223,7 +3223,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>실체를 만드니 구체화하다</t>
+          <t>(구현) 실체를 만드니 구체화하다</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -3243,7 +3243,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>수캐들이 흩뜨려 놓다</t>
+          <t>(흩어지게하다) 수캐들이 흩뜨려 놓다</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -3263,7 +3263,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>수두앓는 아이를 진정시키다</t>
+          <t>(달래다) 수두앓는 아이를 진정시키다</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -3283,7 +3283,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>와이퍼로 유리를 닦다</t>
+          <t>(닦음) 와이퍼로 유리를 닦다</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -3303,7 +3303,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>스타를 자극하다</t>
+          <t>(휘젓다) 스타를 자극하다</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -3323,7 +3323,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>다시 좋게하다 정제하다, 순화하다</t>
+          <t>(개선) 다시 좋게하다 정제하다, 순화하다</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -3332,7 +3332,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146">
@@ -3343,7 +3343,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>느슨하게하다</t>
+          <t>(늦추다) 느슨하게하다</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -3363,7 +3363,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>스프레이뿌려서 튀다</t>
+          <t>(튀김) 스프레이뿌려서 튀다</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -3383,7 +3383,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>다시 살아나다</t>
+          <t>(부활) 다시 살아나다</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -3403,7 +3403,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>포스터를 붙여 흥행을 촉진하다</t>
+          <t>(기르다) 포스터를 붙여 흥행을 촉진하다</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>서랜다 항복하다, 포기하다</t>
+          <t>(항복) 서랜다 항복하다, 포기하다</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -3443,7 +3443,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>수풀밖으로 싹이트다</t>
+          <t>(새싹) 수풀밖으로 싹이트다</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -3463,7 +3463,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>사자가 노하니까 으르렁거리다, 포효하다</t>
+          <t>(노호) 사자가 노하니까 으르렁거리다, 포효하다</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -3483,7 +3483,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>페인트칠이 희미해진</t>
+          <t>(희미한) 페인트칠이 희미해진</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -3503,7 +3503,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>타이트하게 잡아당기다 긴장시키다</t>
+          <t>(부담) 타이트하게 잡아당기다 긴장시키다</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -3523,7 +3523,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>코에손! 독가스 조심</t>
+          <t>(주의) 코에손! 독가스 조심</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -3543,7 +3543,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>말투 애간장 녹이는 말투</t>
+          <t>(녹다) 말투 애간장 녹이는 말투</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -3563,7 +3563,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>내쪽에 놓다 → 소유하다</t>
+          <t>(붙잡다) 내쪽에 놓다 → 소유하다</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -3583,7 +3583,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>더하면 중독된다</t>
+          <t>(중독자) 더하면 중독된다</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -3603,7 +3603,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>스스로 의무를 지우다 노력하다</t>
+          <t>(노력) 스스로 의무를 지우다 노력하다</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -3623,7 +3623,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>관습으로 되니까 익숙하게 하다</t>
+          <t>(익숙합니다) 관습으로 되니까 익숙하게 하다</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -3643,7 +3643,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>금지를 명령하다 금지하다</t>
+          <t>(금지) 금지를 명령하다 금지하다</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -3663,7 +3663,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>스타들이 나와 깜짝 놀라게 하다</t>
+          <t>(펄쩍 뛸 만한 놀람) 스타들이 나와 깜짝 놀라게 하다</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -3683,7 +3683,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>바인더로 묶다</t>
+          <t>(묶다) 바인더로 묶다</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -3703,7 +3703,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>길을 지나도록 포장하다</t>
+          <t>(포장길) 길을 지나도록 포장하다</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -3723,7 +3723,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>일류미인만 비추다</t>
+          <t>(비추다) 일류미인만 비추다</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -3743,7 +3743,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>레인지에 호일을 넣으면 분노폭발</t>
+          <t>(격노) 레인지에 호일을 넣으면 분노폭발</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -3763,7 +3763,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>너도나도 끄덕이다, 꾸벅꾸벅 졸다</t>
+          <t>(목례) 너도나도 끄덕이다, 꾸벅꾸벅 졸다</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -3783,7 +3783,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>여자와 함께 시들어 가다</t>
+          <t>(시들다) 여자와 함께 시들어 가다</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -3803,7 +3803,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>몰두해서 주조하다</t>
+          <t>(곰팡이) 몰두해서 주조하다</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -3823,7 +3823,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>아래에서 짐을 받다 떠맡다, 착수하다</t>
+          <t>(맡다) 아래에서 짐을 받다 떠맡다, 착수하다</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -3843,7 +3843,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>바겐세일로 싸게산 물건</t>
+          <t>(싸게 사는 물건) 바겐세일로 싸게산 물건</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -3863,7 +3863,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>낸다 돈을 주다</t>
+          <t>(세우다) 낸다 돈을 주다</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -3883,7 +3883,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>신뢰가 녹슬다</t>
+          <t>(녹) 신뢰가 녹슬다</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -3903,7 +3903,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>어 발리시가 공항을 폐지하다</t>
+          <t>(폐하다) 어 발리시가 공항을 폐지하다</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -3923,7 +3923,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>그녀가 눈물을 흘리다</t>
+          <t>(오두막) 그녀가 눈물을 흘리다</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -3943,7 +3943,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>힌두교가 방해하다, 저지하다</t>
+          <t>(방해) 힌두교가 방해하다, 저지하다</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -3963,7 +3963,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>갖지 못하게 하다, 방해하다</t>
+          <t>(억제) 갖지 못하게 하다, 방해하다</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -3983,7 +3983,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>임풀려면 도구가 필요</t>
+          <t>(구현하다) 임풀려면 도구가 필요</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -4003,7 +4003,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>뒤에서 나를 씹다 → 속이다</t>
+          <t>(속이다) 뒤에서 나를 씹다 → 속이다</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -4023,7 +4023,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>드러운 물에 빠져 익사하다</t>
+          <t>(안 들리게 하다) 드러운 물에 빠져 익사하다</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -4043,7 +4043,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>두애를 낳고 살다, 거주하다</t>
+          <t>(살다) 두애를 낳고 살다, 거주하다</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -4063,7 +4063,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>가득 채워넣다 이행하다, 수행하다</t>
+          <t>(다하다) 가득 채워넣다 이행하다, 수행하다</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -4083,7 +4083,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>아래로 누르다 억누르다, 진압하다</t>
+          <t>(막다) 아래로 누르다 억누르다, 진압하다</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -4103,7 +4103,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>닫지않다 드러내다, 폭로하다</t>
+          <t>(드러내다) 닫지않다 드러내다, 폭로하다</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -4112,7 +4112,7 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="185">
@@ -4123,7 +4123,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>왕에게 이상한 사건을 알리다</t>
+          <t>(의히 알게 하다) 왕에게 이상한 사건을 알리다</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -4143,7 +4143,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>콘때문에 옷을 더럽히다, 오염시키다</t>
+          <t>(오염) 콘때문에 옷을 더럽히다, 오염시키다</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -4163,7 +4163,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>페르시아 죽다, 사라지다</t>
+          <t>(몹시 괴롭히다) 페르시아 죽다, 사라지다</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -4183,7 +4183,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>뿌리부터 썩다</t>
+          <t>(썩음) 뿌리부터 썩다</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -4203,7 +4203,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>초크가루가 나를 질식시키다</t>
+          <t>(초크) 초크가루가 나를 질식시키다</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -4223,7 +4223,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>미리차지하다 → 선점하다</t>
+          <t>(선입견) 미리차지하다 → 선점하다</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -4243,7 +4243,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>먼저 베니까 우세하다</t>
+          <t>(만연하다) 먼저 베니까 우세하다</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -4263,7 +4263,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>인천 앞바다가 사람을 매혹시키다</t>
+          <t>(호리다) 인천 앞바다가 사람을 매혹시키다</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -4283,7 +4283,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>홀드해서 멈추다, 중지하다</t>
+          <t>(정지) 홀드해서 멈추다, 중지하다</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -4303,7 +4303,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>렉걸려 난파 되다</t>
+          <t>(난파선) 렉걸려 난파 되다</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -4323,7 +4323,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>섭섭해서 흐느껴 울다</t>
+          <t>(흐느낌) 섭섭해서 흐느껴 울다</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -4343,7 +4343,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>원을 돌며 순환하다</t>
+          <t>(돌리다) 원을 돌며 순환하다</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -4363,7 +4363,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>로테이션으로 교대하다</t>
+          <t>(회전) 로테이션으로 교대하다</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -4383,7 +4383,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>둘이붙들고 표류하다</t>
+          <t>(경향) 둘이붙들고 표류하다</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -4403,7 +4403,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>헌트 사냥터에 출몰하다</t>
+          <t>(나타나다) 헌트 사냥터에 출몰하다</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -4423,7 +4423,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>큰 절에가서 심사숙고하다</t>
+          <t>(묵상) 큰 절에가서 심사숙고하다</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -4443,7 +4443,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>스타(별)를 보고 배를 조종하다</t>
+          <t>(조종하다) 스타(별)를 보고 배를 조종하다</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -4463,7 +4463,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>바깥선 윤곽, 개요</t>
+          <t>(개요) 바깥선 윤곽, 개요</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -4483,7 +4483,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>게(크랩)는 옆으로 기어 다니다</t>
+          <t>(살금살금 기다) 게(크랩)는 옆으로 기어 다니다</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -4503,7 +4503,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>비와 늦어 약속을 어기다</t>
+          <t>(위반) 비와 늦어 약속을 어기다</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -4523,7 +4523,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>죄를 지어 격리하니까 구별하다</t>
+          <t>(차별) 죄를 지어 격리하니까 구별하다</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -4543,7 +4543,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>카드를 떼어놓으니 버리다</t>
+          <t>(버리다) 카드를 떼어놓으니 버리다</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -4563,7 +4563,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>엑셀러레이터를 밟아 가속하다</t>
+          <t>(가속) 엑셀러레이터를 밟아 가속하다</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -4583,7 +4583,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>어느 장관이나 그 부서를 관리한다</t>
+          <t>(관리) 어느 장관이나 그 부서를 관리한다</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -4603,7 +4603,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>아래로 하다 무시하다, 반항하다</t>
+          <t>(무시하십시오) 아래로 하다 무시하다, 반항하다</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -4623,7 +4623,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>앞으로 목소리를 내다 자극하다, 화나게 하다</t>
+          <t>(화나게 하다) 앞으로 목소리를 내다 자극하다, 화나게 하다</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -4643,7 +4643,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>제목을 만들다 자격을 주다</t>
+          <t>(자격) 제목을 만들다 자격을 주다</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -4663,7 +4663,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>누군가에게 값어치가 있는 도움이 되다</t>
+          <t>(이익) 누군가에게 값어치가 있는 도움이 되다</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>뒤서퍼져 퍼뜨리다</t>
+          <t>(분산) 뒤서퍼져 퍼뜨리다</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -4703,7 +4703,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>기계화하다</t>
+          <t>(기계화) 기계화하다</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -4723,7 +4723,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>펜으로 뚫어 꿰뚫다, 관통하다</t>
+          <t>(침투하십시오) 펜으로 뚫어 꿰뚫다, 관통하다</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -4743,7 +4743,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>밖에서도 높은 능가하다, 뛰어나다</t>
+          <t>(뛰어나다) 밖에서도 높은 능가하다, 뛰어나다</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -4763,7 +4763,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>골프 그립을 꽉잡다</t>
+          <t>(꽉 붙잡음) 골프 그립을 꽉잡다</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -4783,7 +4783,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>배안으로 침입하다</t>
+          <t>(침략) 배안으로 침입하다</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -4803,7 +4803,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>배밖으로 피하다</t>
+          <t>(피하다) 배밖으로 피하다</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -4823,7 +4823,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>푸른쥐가 강물로 뛰어들다</t>
+          <t>(돌진) 푸른쥐가 강물로 뛰어들다</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -4843,7 +4843,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>튀지 튀니까 괴롭히다</t>
+          <t>(놀리다) 튀지 튀니까 괴롭히다</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -4863,7 +4863,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>함께 미끌어져 충돌하다</t>
+          <t>(충돌) 함께 미끌어져 충돌하다</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -4883,7 +4883,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>가진것을 앞으로 내놓다 금지하다</t>
+          <t>(금지) 가진것을 앞으로 내놓다 금지하다</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -4892,7 +4892,7 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
@@ -4903,7 +4903,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>산을 오르다, 극복하다</t>
+          <t>(위에 놓다) 산을 오르다, 극복하다</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -4923,7 +4923,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>완전하게 보완하다, 보충하다</t>
+          <t>(보어) 완전하게 보완하다, 보충하다</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -4943,7 +4943,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>큰 사부를 마음에 품다</t>
+          <t>(배다) 큰 사부를 마음에 품다</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -4963,7 +4963,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>틀어! 불 떨면서 떨다</t>
+          <t>(떨림) 틀어! 불 떨면서 떨다</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -4983,7 +4983,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>함께 잡다 못하게 하다, 억누르다</t>
+          <t>(억누르다) 함께 잡다 못하게 하다, 억누르다</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -5003,7 +5003,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>압박해서 누르다 억누르다</t>
+          <t>(억압) 압박해서 누르다 억누르다</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -5023,7 +5023,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>완전히 제한하다, 가두다</t>
+          <t>(가두다) 완전히 제한하다, 가두다</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -5043,7 +5043,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>스낵칩을 강탈하다</t>
+          <t>(인상) 스낵칩을 강탈하다</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -5063,7 +5063,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>디자인회사를 지명하다</t>
+          <t>(가리키다) 디자인회사를 지명하다</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -5083,7 +5083,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>뒤로 놓다 → 연기하다</t>
+          <t>(연기하다) 뒤로 놓다 → 연기하다</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -5103,7 +5103,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>메놓고 협박하다</t>
+          <t>(위협) 메놓고 협박하다</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -5123,7 +5123,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>반대로 느끼니까 분개하다</t>
+          <t>(화내다) 반대로 느끼니까 분개하다</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -5143,7 +5143,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>전쟁에는 정당한 이유와 근거가 있어야 한다</t>
+          <t>(보증) 전쟁에는 정당한 이유와 근거가 있어야 한다</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -5163,7 +5163,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>무거운거 업으라지 강요하다</t>
+          <t>(의무) 무거운거 업으라지 강요하다</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -5183,7 +5183,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>캐취해서 데려오다</t>
+          <t>(술책) 캐취해서 데려오다</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -5203,7 +5203,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>풀 나온 곳을 쟁기질하다</t>
+          <t>(쟁기) 풀 나온 곳을 쟁기질하다</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -5223,7 +5223,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>중용의 도를 닦으니까 숙고하다</t>
+          <t>(꾀하다) 중용의 도를 닦으니까 숙고하다</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -5243,7 +5243,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>달가닥 소리 클래? 털털</t>
+          <t>(클래터) 달가닥 소리 클래? 털털</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -5263,7 +5263,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>니 꼬시어 협상하다</t>
+          <t>(협상) 니 꼬시어 협상하다</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -5283,7 +5283,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>서로 반대로 놓다 논쟁, 토론</t>
+          <t>(논쟁) 서로 반대로 놓다 논쟁, 토론</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -5303,7 +5303,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>지갑훔쳐가면 저주하고 욕한다</t>
+          <t>(저주) 지갑훔쳐가면 저주하고 욕한다</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -5323,7 +5323,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>마음이 무겁다 슬퍼하다</t>
+          <t>(슬픔) 마음이 무겁다 슬퍼하다</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -5343,7 +5343,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>뒤로 묶다 제지하다, 억누르다</t>
+          <t>(구속) 뒤로 묶다 제지하다, 억누르다</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -5363,7 +5363,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>왜이래 하며 울부짓다</t>
+          <t>(비탄) 왜이래 하며 울부짓다</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -5383,7 +5383,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>신뢰가 녹슬어 찌르다</t>
+          <t>(추력) 신뢰가 녹슬어 찌르다</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -5403,7 +5403,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>등급화하다 분류하다</t>
+          <t>(나누다) 등급화하다 분류하다</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -5423,7 +5423,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>프로선수가 테스트에 항의하다</t>
+          <t>(항의) 프로선수가 테스트에 항의하다</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -5443,7 +5443,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>오밑에다 빠트리다, 생략하다</t>
+          <t>(생략) 오밑에다 빠트리다, 생략하다</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -5463,7 +5463,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>잡담하는 것 재잘거리다, 수다 떨다</t>
+          <t>(끽끽 우는 소리) 잡담하는 것 재잘거리다, 수다 떨다</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -5483,7 +5483,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>바이브레이션 진동하다</t>
+          <t>(떨리다) 바이브레이션 진동하다</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -5503,7 +5503,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>침 뱉으면 안돼죠</t>
+          <t>(침) 침 뱉으면 안돼죠</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -5523,7 +5523,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>인쉬어 보험 들었으니 인제 쉬어</t>
+          <t>(안전하게 하다) 인쉬어 보험 들었으니 인제 쉬어</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -5543,7 +5543,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>코를 땅에 대고 포복하다</t>
+          <t>(기다) 코를 땅에 대고 포복하다</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -5563,7 +5563,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>확고 하게하다, 확인하다</t>
+          <t>(확인) 확고 하게하다, 확인하다</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -5583,7 +5583,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>빛 열을 발하다, 방사하다</t>
+          <t>(방사) 빛 열을 발하다, 방사하다</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -5603,7 +5603,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>시위를 방패로 막다</t>
+          <t>(방패) 시위를 방패로 막다</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -5623,7 +5623,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>날리다 내던지다</t>
+          <t>(시도) 날리다 내던지다</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -5643,7 +5643,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>길을 굴러가듯이 산책하다</t>
+          <t>(한가롭게 이리저리 거닐다) 길을 굴러가듯이 산책하다</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -5663,7 +5663,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>월10% 예배드리러 가서 숭배하다</t>
+          <t>(예배) 월10% 예배드리러 가서 숭배하다</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -5683,7 +5683,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>화장실 가려다 참다</t>
+          <t>(참다) 화장실 가려다 참다</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -5703,7 +5703,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>별 빛이 반짝이다</t>
+          <t>(눈빛) 별 빛이 반짝이다</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -5723,7 +5723,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>이름을 부르다 지명하다, 추천하다</t>
+          <t>(지명) 이름을 부르다 지명하다, 추천하다</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -5743,7 +5743,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>니 뒤꼴 보고 비웃다, 조롱하다</t>
+          <t>(조소) 니 뒤꼴 보고 비웃다, 조롱하다</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -5763,7 +5763,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>습한굴에서 사색하다</t>
+          <t>(추측) 습한굴에서 사색하다</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -5783,7 +5783,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>감옥안에 넣다, 투옥하다</t>
+          <t>(투옥) 감옥안에 넣다, 투옥하다</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -5803,7 +5803,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>바위에 맹세하다</t>
+          <t>(맹세) 바위에 맹세하다</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -5823,7 +5823,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>패트롤카 순찰차</t>
+          <t>(순찰) 패트롤카 순찰차</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -5843,7 +5843,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>플러스해서 번창하다</t>
+          <t>(융성) 플러스해서 번창하다</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -5863,7 +5863,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>먼산을 보며 슬퍼하다</t>
+          <t>(애도) 먼산을 보며 슬퍼하다</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -5883,7 +5883,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>괴로운 신음소리를 내다</t>
+          <t>(신음 소리) 괴로운 신음소리를 내다</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -5903,7 +5903,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>홀 안으로 잡아끌다</t>
+          <t>(세게 끌기) 홀 안으로 잡아끌다</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -5923,7 +5923,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>뒤섞어져 메스껍다, 역겹게 하다</t>
+          <t>(싫음) 뒤섞어져 메스껍다, 역겹게 하다</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -5943,7 +5943,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>너의티를 이용하다</t>
+          <t>(활용하십시오) 너의티를 이용하다</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -5963,7 +5963,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>안에 때리다 입히다, 가하다</t>
+          <t>(가하다) 안에 때리다 입히다, 가하다</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -5983,7 +5983,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>억 내돈을 사용했다 비난하다, 고소하다</t>
+          <t>(고발하다) 억 내돈을 사용했다 비난하다, 고소하다</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -6003,7 +6003,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>리프 거두다, 획득하다</t>
+          <t>(베다) 리프 거두다, 획득하다</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -6023,7 +6023,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>후에 돌아서서 반항, 반란을 일으키다</t>
+          <t>(반란) 후에 돌아서서 반항, 반란을 일으키다</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -6043,7 +6043,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>베스트하면 상을 수여하죠</t>
+          <t>(두다) 베스트하면 상을 수여하죠</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -6063,7 +6063,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>비틀어 배반한놈 목 → 배신하다</t>
+          <t>(팔다) 비틀어 배반한놈 목 → 배신하다</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -6083,7 +6083,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>안에 여전히 남아 불어넣다</t>
+          <t>(주입) 안에 여전히 남아 불어넣다</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -6103,7 +6103,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>함께 손뻗어 다투다</t>
+          <t>(다투다) 함께 손뻗어 다투다</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -6123,7 +6123,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>놀라운 말벌이었어</t>
+          <t>(마블) 놀라운 말벌이었어</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -6143,7 +6143,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>에그 잘도 추방하다</t>
+          <t>(망명) 에그 잘도 추방하다</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -6163,7 +6163,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>앞으로 손 체포하다</t>
+          <t>(깨닫다) 앞으로 손 체포하다</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -6172,7 +6172,7 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="288">
@@ -6183,7 +6183,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>체험해보는 것 실험</t>
+          <t>(실험) 체험해보는 것 실험</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -6203,7 +6203,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>페이쓴 직장에서 인내하다</t>
+          <t>(인내심 있는) 페이쓴 직장에서 인내하다</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -6223,7 +6223,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>강력한, 잠재적인</t>
+          <t>(잠재적인) 강력한, 잠재적인</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -6243,7 +6243,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>신경상태에 따라 바뀌니까 신경질적인</t>
+          <t>(불안한) 신경상태에 따라 바뀌니까 신경질적인</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -6263,7 +6263,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>내어드려 진귀한 음식</t>
+          <t>(희귀한) 내어드려 진귀한 음식</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -6283,7 +6283,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>볼수있도록 만드는 것 특수한, 독특한</t>
+          <t>(특정한) 볼수있도록 만드는 것 특수한, 독특한</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -6303,7 +6303,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>배우가 되려면 여러 요소를</t>
+          <t>(요인) 배우가 되려면 여러 요소를</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -6323,7 +6323,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>다양한 경험 전문가</t>
+          <t>(전문가) 다양한 경험 전문가</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -6343,7 +6343,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>파리시의 정책</t>
+          <t>(정책) 파리시의 정책</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -6363,7 +6363,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>플어보리 적절하게</t>
+          <t>(적절한) 플어보리 적절하게</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -6383,7 +6383,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>만들기에 적합한 시설, 편의</t>
+          <t>(시설) 만들기에 적합한 시설, 편의</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -6403,7 +6403,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>무관심한</t>
+          <t>(무관심한) 무관심한</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -6423,7 +6423,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>오번가 도시</t>
+          <t>(도시의) 오번가 도시</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -6443,7 +6443,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>집안으로 들어오는 것 → 수입</t>
+          <t>(소득) 집안으로 들어오는 것 → 수입</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -6463,7 +6463,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>얼터너티비로 대체</t>
+          <t>(대안) 얼터너티비로 대체</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -6483,7 +6483,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>과학자들이 일하는 곳 실험실</t>
+          <t>(실혐실) 과학자들이 일하는 곳 실험실</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -6503,7 +6503,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>우수한</t>
+          <t>(우수한) 우수한</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -6523,7 +6523,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>적당한 재산</t>
+          <t>(속성) 적당한 재산</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -6543,7 +6543,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>피나면은 피곤한 현상</t>
+          <t>(현상) 피나면은 피곤한 현상</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -6563,7 +6563,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>본인에게 자기자신의 것이니까 적절한</t>
+          <t>(적절한) 본인에게 자기자신의 것이니까 적절한</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -6583,7 +6583,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>우리의 지위</t>
+          <t>(상태) 우리의 지위</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -6603,7 +6603,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>지금 날들 요즘, 오늘날</t>
+          <t>(요즘에는) 지금 날들 요즘, 오늘날</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -6623,7 +6623,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>심통은 병의 징조</t>
+          <t>(징후) 심통은 병의 징조</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -6643,7 +6643,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>해져서 골목은 위험</t>
+          <t>(위험) 해져서 골목은 위험</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -6663,7 +6663,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>안에서 강렬한 댄스</t>
+          <t>(극심한) 안에서 강렬한 댄스</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -6683,7 +6683,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>인스턴트 식품은 즉석, 즉각</t>
+          <t>(즉각적인) 인스턴트 식품은 즉석, 즉각</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -6692,7 +6692,7 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="314">
@@ -6703,7 +6703,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>대머리가 발라도 효과있는, 타당한</t>
+          <t>(유효한) 대머리가 발라도 효과있는, 타당한</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -6723,7 +6723,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>특허 받은 파란텐트</t>
+          <t>(특허) 특허 받은 파란텐트</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -6743,7 +6743,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>펀드와 정신은 기초적이다</t>
+          <t>(근본적인) 펀드와 정신은 기초적이다</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -6763,7 +6763,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>피식스 구하는 물리학</t>
+          <t>(물리학) 피식스 구하는 물리학</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -6783,7 +6783,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>함께 운영 → 협동</t>
+          <t>(협력) 함께 운영 → 협동</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -6803,7 +6803,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>특성을 보여주는 초상화</t>
+          <t>(초상화) 특성을 보여주는 초상화</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -6823,7 +6823,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>끌어져 나오는 것 → 특성</t>
+          <t>(특성) 끌어져 나오는 것 → 특성</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -6843,7 +6843,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>구름이 많아 우울한</t>
+          <t>(음울한) 구름이 많아 우울한</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -6863,7 +6863,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>압서테클로 방해</t>
+          <t>(장애) 압서테클로 방해</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -6883,7 +6883,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>뒤서풀린 규율, 훈련</t>
+          <t>(규율) 뒤서풀린 규율, 훈련</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -6903,7 +6903,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>스타는 드물다</t>
+          <t>(부족한) 스타는 드물다</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -6923,7 +6923,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>스트라이프 티셔츠 줄무늬</t>
+          <t>(줄무늬) 스트라이프 티셔츠 줄무늬</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -6943,7 +6943,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>인센티브 장려금</t>
+          <t>(자극) 인센티브 장려금</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -6963,7 +6963,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>어쪽팔리지 사과</t>
+          <t>(사과) 어쪽팔리지 사과</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -6983,7 +6983,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>대 맞춰 들어오고 나가는 조수</t>
+          <t>(조류) 대 맞춰 들어오고 나가는 조수</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -7003,7 +7003,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>이모 전시에요 → 비상사태</t>
+          <t>(비상) 이모 전시에요 → 비상사태</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -7023,7 +7023,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>사냥으로 잡힌 동물 먹이, 희생자</t>
+          <t>(먹이) 사냥으로 잡힌 동물 먹이, 희생자</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -7043,7 +7043,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>몸이 아프면 환상이 보여</t>
+          <t>(환각) 몸이 아프면 환상이 보여</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -7063,7 +7063,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>뭐 잔뜩 파는 상인</t>
+          <t>(상인) 뭐 잔뜩 파는 상인</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -7083,7 +7083,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>서있는 안정된 견고한</t>
+          <t>(안정적인) 서있는 안정된 견고한</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -7103,7 +7103,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>반대하는 적수</t>
+          <t>(상대) 반대하는 적수</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -7123,7 +7123,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>비타민은 필수적인 요소</t>
+          <t>(필수적인) 비타민은 필수적인 요소</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -7143,7 +7143,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>돼서 튄나라가 목적지</t>
+          <t>(목적지) 돼서 튄나라가 목적지</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -7163,7 +7163,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>누이는 파멸했다</t>
+          <t>(망치다) 누이는 파멸했다</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -7183,7 +7183,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>일을 들인 공들인</t>
+          <t>(정교한) 일을 들인 공들인</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -7203,7 +7203,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>돈내셔 기부하셔</t>
+          <t>(기부) 돈내셔 기부하셔</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -7223,7 +7223,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>큰피던데 자신하는</t>
+          <t>(자신감) 큰피던데 자신하는</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -7243,7 +7243,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>버티기 힘든 피로</t>
+          <t>(피로) 버티기 힘든 피로</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -7263,7 +7263,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>빅팀의 희생자들</t>
+          <t>(피해자) 빅팀의 희생자들</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -7283,7 +7283,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>소들을 패서처 넣는곳 → 목장</t>
+          <t>(목장) 소들을 패서처 넣는곳 → 목장</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -7303,7 +7303,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>마진(이익)이 남다</t>
+          <t>(여유) 마진(이익)이 남다</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -7323,7 +7323,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>앞으로 튀어 나온 것 눈에띄는, 두드러진</t>
+          <t>(중요한) 앞으로 튀어 나온 것 눈에띄는, 두드러진</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -7343,7 +7343,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>속타지 돈이 부족해서</t>
+          <t>(부족) 속타지 돈이 부족해서</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -7363,7 +7363,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>피티기니 불쌍</t>
+          <t>(연민) 피티기니 불쌍</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -7383,7 +7383,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>비행기처럼 나는 것 → 행성</t>
+          <t>(행성) 비행기처럼 나는 것 → 행성</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -7403,7 +7403,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>무거우니까 중력</t>
+          <t>(중력) 무거우니까 중력</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -7423,7 +7423,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>땅은 단단한 고체</t>
+          <t>(단단한) 땅은 단단한 고체</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -7443,7 +7443,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>아래에 서있는것 본질 실체</t>
+          <t>(물질) 아래에 서있는것 본질 실체</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -7463,7 +7463,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>프로가 찾은 심오함</t>
+          <t>(심오한) 프로가 찾은 심오함</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -7483,7 +7483,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>죽은사람보면 무서워지다</t>
+          <t>(공포) 죽은사람보면 무서워지다</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -7503,7 +7503,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>틀에찍 비극적이다</t>
+          <t>(비참한) 틀에찍 비극적이다</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -7523,7 +7523,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>인수와 지애는 열정적이다</t>
+          <t>(열광) 인수와 지애는 열정적이다</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -7543,7 +7543,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>트렁크 가방</t>
+          <t>(트렁크) 트렁크 가방</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -7563,7 +7563,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>맞추어 성숙하다</t>
+          <t>(성숙한) 맞추어 성숙하다</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -7583,7 +7583,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>성질이 불같은, 사나운, 맹렬한</t>
+          <t>(사나운) 성질이 불같은, 사나운, 맹렬한</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -7603,7 +7603,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>알수 있는 현저한, 뚜렷한</t>
+          <t>(눈에 띄게) 알수 있는 현저한, 뚜렷한</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -7623,7 +7623,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>후에 남겨진것 나머지, 남은음식</t>
+          <t>(나머지) 후에 남겨진것 나머지, 남은음식</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -7643,7 +7643,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>추워서 우는 조각상</t>
+          <t>(동상) 추워서 우는 조각상</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -7663,7 +7663,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>잘가 작별인사</t>
+          <t>(작별) 잘가 작별인사</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -7683,7 +7683,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>패닉에 빠져 공포</t>
+          <t>(공황) 패닉에 빠져 공포</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -7703,7 +7703,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>호스트를 몹시 싫어하는, 적대적인</t>
+          <t>(적의) 호스트를 몹시 싫어하는, 적대적인</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -7723,7 +7723,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>SK는 회의가 많아 회의적</t>
+          <t>(의심 많은) SK는 회의가 많아 회의적</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -7743,7 +7743,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>메리트증권의 장점</t>
+          <t>(장점) 메리트증권의 장점</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -7763,7 +7763,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>셀돈이 거의 없는</t>
+          <t>(드물게) 셀돈이 거의 없는</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -7783,7 +7783,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>안에서 찌르는 것 → 본능</t>
+          <t>(본능) 안에서 찌르는 것 → 본능</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -7803,7 +7803,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>그동안 미인이 되는 타임 미인타임</t>
+          <t>(그 동안에) 그동안 미인이 되는 타임 미인타임</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -7823,7 +7823,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>맘마먹는 포유동물</t>
+          <t>(포유류) 맘마먹는 포유동물</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -7832,7 +7832,7 @@
         </is>
       </c>
       <c r="D370" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="371">
@@ -7843,7 +7843,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>비비다! 농부들이 활기찬</t>
+          <t>(생생한) 비비다! 농부들이 활기찬</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -7863,7 +7863,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>밖으로 끄집어낸 예외적인, 뛰어난</t>
+          <t>(특별한) 밖으로 끄집어낸 예외적인, 뛰어난</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -7883,7 +7883,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>콘크리트가 구체적인</t>
+          <t>(콘크리트) 콘크리트가 구체적인</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -7903,7 +7903,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>대스타가 운명</t>
+          <t>(운명) 대스타가 운명</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -7923,7 +7923,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>버거를 훔치면 강도</t>
+          <t>(강도) 버거를 훔치면 강도</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -7943,7 +7943,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>영향을 끼치는 것은 엄마의 애정</t>
+          <t>(애정) 영향을 끼치는 것은 엄마의 애정</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -7963,7 +7963,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>육체를 다루는 의사</t>
+          <t>(내과 의사) 육체를 다루는 의사</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -7983,7 +7983,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>서부 교외</t>
+          <t>(근교) 서부 교외</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -8003,7 +8003,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>벗츄를 외치는 순결한 원더걸스</t>
+          <t>(덕) 벗츄를 외치는 순결한 원더걸스</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -8023,7 +8023,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>카오스 혼돈</t>
+          <t>(혼돈) 카오스 혼돈</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -8043,7 +8043,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>결합할 수 있는 사교적인</t>
+          <t>(간친회) 결합할 수 있는 사교적인</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -8063,7 +8063,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>대항하여 씨름하는 내키지 않는, 꺼리는</t>
+          <t>(주저하는) 대항하여 씨름하는 내키지 않는, 꺼리는</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -8083,7 +8083,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>소 비지 먹는 야만인</t>
+          <t>(야만적인) 소 비지 먹는 야만인</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -8103,7 +8103,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>둠스데이 운명의 날</t>
+          <t>(운명) 둠스데이 운명의 날</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -8112,7 +8112,7 @@
         </is>
       </c>
       <c r="D384" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="385">
@@ -8123,7 +8123,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>곧장 앞으로 솔직한</t>
+          <t>(똑바로) 곧장 앞으로 솔직한</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -8143,7 +8143,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>두번째손 간접적인, 중고의</t>
+          <t>(두번째 손) 두번째손 간접적인, 중고의</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -8163,7 +8163,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>똑바른 엄격한, 완고한</t>
+          <t>(엄격한) 똑바른 엄격한, 완고한</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -8183,7 +8183,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>머저리의 불행</t>
+          <t>(불행) 머저리의 불행</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -8203,7 +8203,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>벌두 무서워 않는 대담한</t>
+          <t>(굵게) 벌두 무서워 않는 대담한</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -8223,7 +8223,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>왜이리 피로한</t>
+          <t>(피곤한) 왜이리 피로한</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -8243,7 +8243,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>날려번트 → 적절한 번트</t>
+          <t>(관련 있는) 날려번트 → 적절한 번트</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -8263,7 +8263,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>불에탄 게시판</t>
+          <t>(회보) 불에탄 게시판</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -8283,7 +8283,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>깊이 연구하여 존엄한, 품위</t>
+          <t>(위엄) 깊이 연구하여 존엄한, 품위</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -8303,7 +8303,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>컴퓨턴 능력 있는 물건</t>
+          <t>(능숙한) 컴퓨턴 능력 있는 물건</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -8323,7 +8323,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>밖으로 나와 서있는 두드러진, 현저한</t>
+          <t>(훌륭해) 밖으로 나와 서있는 두드러진, 현저한</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -8343,7 +8343,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>어끄테가 날카로운</t>
+          <t>(심각한) 어끄테가 날카로운</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -8363,7 +8363,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>컴팩트 디스크는 소형</t>
+          <t>(콤팩트) 컴팩트 디스크는 소형</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -8383,7 +8383,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>아파트 살기 적절한</t>
+          <t>(적절한) 아파트 살기 적절한</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -8403,7 +8403,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>하씨~ 거친</t>
+          <t>(가혹한) 하씨~ 거친</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -8423,7 +8423,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>펑추월해서 시간을 엄수하는</t>
+          <t>(시간 엄수) 펑추월해서 시간을 엄수하는</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -8443,7 +8443,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>치료책이 없어 불명확한, 애매한</t>
+          <t>(모호) 치료책이 없어 불명확한, 애매한</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -8452,7 +8452,7 @@
         </is>
       </c>
       <c r="D401" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="402">
@@ -8463,7 +8463,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>리딩 컴프리헨션은 독해, 이해</t>
+          <t>(이해력) 리딩 컴프리헨션은 독해, 이해</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -8472,7 +8472,7 @@
         </is>
       </c>
       <c r="D402" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="403">
@@ -8483,7 +8483,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>쁘릭쁘릭 마찰, 충돌</t>
+          <t>(마찰) 쁘릭쁘릭 마찰, 충돌</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -8503,7 +8503,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>질서를 멀리 무질서</t>
+          <t>(무질서) 질서를 멀리 무질서</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -8523,7 +8523,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>플라그는 전염된다</t>
+          <t>(역병) 플라그는 전염된다</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -8543,7 +8543,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>애씩스를 보니 윤리학을 가르치고 싶다</t>
+          <t>(윤리학) 애씩스를 보니 윤리학을 가르치고 싶다</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -8563,7 +8563,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>포가10개 강력한</t>
+          <t>(유력한) 포가10개 강력한</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -8583,7 +8583,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>살찐사람은 치명적이다</t>
+          <t>(치명적인) 살찐사람은 치명적이다</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="D408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409">
@@ -8603,7 +8603,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>시간에 따라 변하는 기분, 기질</t>
+          <t>(성질) 시간에 따라 변하는 기분, 기질</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -8623,7 +8623,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>큰선수의 양심</t>
+          <t>(양심) 큰선수의 양심</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -8643,7 +8643,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>눈이 딤딤한 침침한, 희미한</t>
+          <t>(어둑한) 눈이 딤딤한 침침한, 희미한</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -8663,7 +8663,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>파래서 창백한</t>
+          <t>(창백한) 파래서 창백한</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -8672,7 +8672,7 @@
         </is>
       </c>
       <c r="D412" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="413">
@@ -8683,7 +8683,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>이 비율을 풀어보셔</t>
+          <t>(비율) 이 비율을 풀어보셔</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -8703,7 +8703,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>시민 사람 정치가</t>
+          <t>(정치가) 시민 사람 정치가</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -8723,7 +8723,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>없어두돼 불합리한 사람은</t>
+          <t>(터무니없는) 없어두돼 불합리한 사람은</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -8743,7 +8743,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>재빠르게 바꾸다</t>
+          <t>(빠른) 재빠르게 바꾸다</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -8763,7 +8763,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>정크푸드는 쓰레기 음식</t>
+          <t>(정크) 정크푸드는 쓰레기 음식</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -8783,7 +8783,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>검소(thrift)해야 번영(thrive)하지</t>
+          <t>(절약) 검소(thrift)해야 번영(thrive)하지</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -8803,7 +8803,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>물흐르듯 유창한</t>
+          <t>(유창한) 물흐르듯 유창한</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -8823,7 +8823,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>미리 앞서 보는것 대비, 공급</t>
+          <t>(공급) 미리 앞서 보는것 대비, 공급</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -8843,7 +8843,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>이미넌 탁월해</t>
+          <t>(저명한) 이미넌 탁월해</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -8863,7 +8863,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>나빠 강도</t>
+          <t>(강도) 나빠 강도</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -8883,7 +8883,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>오빠는 고아</t>
+          <t>(유아) 오빠는 고아</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -8903,7 +8903,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>넌 수녀</t>
+          <t>(수녀) 넌 수녀</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -8923,7 +8923,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>전쟁의 여정 전쟁, 전투</t>
+          <t>(전쟁) 전쟁의 여정 전쟁, 전투</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -8943,7 +8943,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>테이블위 알약</t>
+          <t>(태블릿) 테이블위 알약</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -8963,7 +8963,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>인어순수 순결</t>
+          <t>(무죄) 인어순수 순결</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -8983,7 +8983,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>강한인상가진 엄격한 군인</t>
+          <t>(고물) 강한인상가진 엄격한 군인</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -9003,7 +9003,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>같게 만들다 적도</t>
+          <t>(적도) 같게 만들다 적도</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -9023,7 +9023,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>죽게하는 것 치명적인</t>
+          <t>(치명적인) 죽게하는 것 치명적인</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -9043,7 +9043,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>솔로몬왕 앞에 엄숙히</t>
+          <t>(엄숙한) 솔로몬왕 앞에 엄숙히</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -9063,7 +9063,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>돈버는 데 열심인 성실한</t>
+          <t>(진지한) 돈버는 데 열심인 성실한</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -9083,7 +9083,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>이리굴러 불규칙한</t>
+          <t>(불규칙한) 이리굴러 불규칙한</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -9103,7 +9103,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>수학풀때 형태 공식</t>
+          <t>(공식) 수학풀때 형태 공식</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -9123,7 +9123,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>폐를 다치는 위험</t>
+          <t>(위험) 폐를 다치는 위험</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -9143,7 +9143,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>싸움하는거 보면 공포를 느낀다</t>
+          <t>(공포) 싸움하는거 보면 공포를 느낀다</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -9163,7 +9163,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>선택가능하다 믿는 것 낙천주의</t>
+          <t>(낙천주의) 선택가능하다 믿는 것 낙천주의</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -9183,7 +9183,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>패스미스 비관적</t>
+          <t>(염세주의) 패스미스 비관적</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -9203,7 +9203,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>모래알 같은 사기</t>
+          <t>(사기) 모래알 같은 사기</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -9223,7 +9223,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>차고(garage)에 쓰레기</t>
+          <t>(쓰레기) 차고(garage)에 쓰레기</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -9243,7 +9243,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>가족이 많으면 부족으로 기근</t>
+          <t>(기근) 가족이 많으면 부족으로 기근</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -9263,7 +9263,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>부분</t>
+          <t>(부분) 부분</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -9283,7 +9283,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>눈이멀어 행동이 무딘</t>
+          <t>(무딘) 눈이멀어 행동이 무딘</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -9303,7 +9303,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>그리도 탐욕스러운지</t>
+          <t>(탐욕) 그리도 탐욕스러운지</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -9323,7 +9323,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>뭣이 자비냐</t>
+          <t>(자비) 뭣이 자비냐</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -9343,7 +9343,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>언어(학)에 대해 연구하는 사람</t>
+          <t>(언어) 언어(학)에 대해 연구하는 사람</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -9363,7 +9363,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>지구의 대부분은 숲이여</t>
+          <t>(구체) 지구의 대부분은 숲이여</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -9383,7 +9383,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>디플로 마감한 졸업장성적</t>
+          <t>(졸업 증서) 디플로 마감한 졸업장성적</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -9403,7 +9403,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>바닥에 결점이 많다</t>
+          <t>(결함) 바닥에 결점이 많다</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -9423,7 +9423,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>태어나면서 안에 있는 선천적인</t>
+          <t>(타고난) 태어나면서 안에 있는 선천적인</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -9443,7 +9443,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>많은 사람들 사이에 있는 유행, 전염</t>
+          <t>(감염병 유행) 많은 사람들 사이에 있는 유행, 전염</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -9463,7 +9463,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>불이튀는 총알</t>
+          <t>(총알) 불이튀는 총알</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -9483,7 +9483,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>흐르는 것 유동체, 액체</t>
+          <t>(체액) 흐르는 것 유동체, 액체</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -9503,7 +9503,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>풀앤드또풀 풀이 풍부한, 많은</t>
+          <t>(풍부합니다) 풀앤드또풀 풀이 풍부한, 많은</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -9512,7 +9512,7 @@
         </is>
       </c>
       <c r="D454" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="455">
@@ -9523,7 +9523,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>빛이 활동하는 거니까 방사능의, 방사의</t>
+          <t>(방사성) 빛이 활동하는 거니까 방사능의, 방사의</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -9543,7 +9543,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>허리띠지 유산으로 받은 허리띠지</t>
+          <t>(유산) 허리띠지 유산으로 받은 허리띠지</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -9563,7 +9563,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>신이껄 신이 껄껄 웃으며 냉소적인</t>
+          <t>(냉소적) 신이껄 신이 껄껄 웃으며 냉소적인</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -9583,7 +9583,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>스타본다는걸 굽히지 않는, 고집센</t>
+          <t>(고집스러운) 스타본다는걸 굽히지 않는, 고집센</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -9603,7 +9603,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>영양분이 많은 넛(nut) 드리셨어</t>
+          <t>(영양가) 영양분이 많은 넛(nut) 드리셨어</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -9623,7 +9623,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>명성(위신)있는 사람은 맨앞에 튀지</t>
+          <t>(명성) 명성(위신)있는 사람은 맨앞에 튀지</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -9643,7 +9643,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>들이 드라이한것 가뭄</t>
+          <t>(가뭄) 들이 드라이한것 가뭄</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -9663,7 +9663,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>주리 배심원이 판결을 주리</t>
+          <t>(배심) 주리 배심원이 판결을 주리</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -9683,7 +9683,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>위에 놓여 사람들의 생각을 지배하는 것 미신</t>
+          <t>(미신) 위에 놓여 사람들의 생각을 지배하는 것 미신</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -9703,7 +9703,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>다시 이름 거듭이름을 댐 명성</t>
+          <t>(명성) 다시 이름 거듭이름을 댐 명성</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -9723,7 +9723,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>누나 달만 뜨면 우는 누나</t>
+          <t>(달의) 누나 달만 뜨면 우는 누나</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -9743,7 +9743,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>cow(소)를 무서워하는 겁쟁이</t>
+          <t>(겁쟁이) cow(소)를 무서워하는 겁쟁이</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -9763,7 +9763,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>센치 감정이 센치하네</t>
+          <t>(감정) 센치 감정이 센치하네</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -9783,7 +9783,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>에워 할아버지를 에워싼 상속자들</t>
+          <t>(후계자) 에워 할아버지를 에워싼 상속자들</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -9803,7 +9803,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>우리의 허례와더티한 의식은 유전되지 않도록 하자</t>
+          <t>(유전) 우리의 허례와더티한 의식은 유전되지 않도록 하자</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -9823,7 +9823,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>함께 싸우다 싸우다, 충돌하다</t>
+          <t>(갈등) 함께 싸우다 싸우다, 충돌하다</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -9843,7 +9843,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>복장을 보면 풍습(custom)을 알 수 있다</t>
+          <t>(복장) 복장을 보면 풍습(custom)을 알 수 있다</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -9863,7 +9863,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>걱정에서 벗어난 안전한</t>
+          <t>(안전한) 걱정에서 벗어난 안전한</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -9883,7 +9883,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>서러워 슬퍼하다</t>
+          <t>(슬픔) 서러워 슬퍼하다</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -9903,7 +9903,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>한 조직의 몸체에 해당하니 법인의</t>
+          <t>(기업) 한 조직의 몸체에 해당하니 법인의</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -9923,7 +9923,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>한 마디가 겸손한 학생</t>
+          <t>(보통의) 한 마디가 겸손한 학생</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -9943,7 +9943,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>노비를 부리는 귀족</t>
+          <t>(고귀한) 노비를 부리는 귀족</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -9952,7 +9952,7 @@
         </is>
       </c>
       <c r="D476" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="477">
@@ -9963,7 +9963,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>코그으니선 인식위해 코에 선 긋는</t>
+          <t>(인식) 코그으니선 인식위해 코에 선 긋는</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -9983,7 +9983,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>돈을 돌려받으니 환불하다</t>
+          <t>(환불하다) 돈을 돌려받으니 환불하다</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -10003,7 +10003,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>생태에 관한 학문 생태학</t>
+          <t>(생태학) 생태에 관한 학문 생태학</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -10012,7 +10012,7 @@
         </is>
       </c>
       <c r="D479" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="480">
@@ -10023,7 +10023,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>칼티베이 칼로 티나게 베임 경작하다</t>
+          <t>(경작) 칼티베이 칼로 티나게 베임 경작하다</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -10043,7 +10043,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>조상으로부터 내려온 사람 후손</t>
+          <t>(후손) 조상으로부터 내려온 사람 후손</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -10063,7 +10063,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>네짓스트레이트로 기록하겠다</t>
+          <t>(등록) 네짓스트레이트로 기록하겠다</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -10083,7 +10083,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>다시 찾다 회복하다, 되찾다</t>
+          <t>(검색하다) 다시 찾다 회복하다, 되찾다</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -10103,7 +10103,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>예술품은 인공적인</t>
+          <t>(인공의) 예술품은 인공적인</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -10123,7 +10123,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>나를 발로 차며 주장을 논박하다</t>
+          <t>(논박) 나를 발로 차며 주장을 논박하다</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -10143,7 +10143,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>퍼니씨만 처벌받다</t>
+          <t>(처벌) 퍼니씨만 처벌받다</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -10163,7 +10163,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>항상 같은 길을 가는 일상의, 판에 박힌일</t>
+          <t>(루틴) 항상 같은 길을 가는 일상의, 판에 박힌일</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -10183,7 +10183,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>씨마스터 학기중에 씨마스터</t>
+          <t>(학기) 씨마스터 학기중에 씨마스터</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -10203,7 +10203,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>쉴터 피난처</t>
+          <t>(대피소) 쉴터 피난처</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -10223,7 +10223,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>발로 걷는 사람 보행자</t>
+          <t>(보행자) 발로 걷는 사람 보행자</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -10243,7 +10243,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>이브가 뜨개질하다</t>
+          <t>(짜다) 이브가 뜨개질하다</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -10263,7 +10263,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>트리를 정돈하다</t>
+          <t>(손질) 트리를 정돈하다</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -10272,7 +10272,7 @@
         </is>
       </c>
       <c r="D492" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="493">
@@ -10283,7 +10283,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>짧게자른길 지름길</t>
+          <t>(지름길) 짧게자른길 지름길</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -10303,7 +10303,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>치를 떠는 추위, 한기</t>
+          <t>(냉기) 치를 떠는 추위, 한기</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -10323,7 +10323,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>자르는 사람 재봉사</t>
+          <t>(재단사) 자르는 사람 재봉사</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -10343,7 +10343,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>결혼식날 브라이트한(bright) 신부</t>
+          <t>(신부) 결혼식날 브라이트한(bright) 신부</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -10363,7 +10363,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>폐품 향수</t>
+          <t>(향수) 폐품 향수</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -10383,7 +10383,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>찹찹찹 자르다</t>
+          <t>(촙) 찹찹찹 자르다</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -10403,7 +10403,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>까만티 의복, 의상</t>
+          <t>(외피) 까만티 의복, 의상</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -10423,7 +10423,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>밖으로 딱 맞는 의상한벌</t>
+          <t>(차림새) 밖으로 딱 맞는 의상한벌</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -10443,7 +10443,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>동쪽에서 불을지펴 잔치를 벌이다</t>
+          <t>(잔치) 동쪽에서 불을지펴 잔치를 벌이다</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -10463,7 +10463,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>맹글 섞어 맹글다</t>
+          <t>(섞다) 맹글 섞어 맹글다</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
@@ -10483,7 +10483,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>버스안은 야단법석</t>
+          <t>(야단법석) 버스안은 야단법석</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
@@ -10503,7 +10503,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>그녀를 던지다</t>
+          <t>(던지다) 그녀를 던지다</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
@@ -10523,7 +10523,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>랩하는 친구가 낮잠잔다</t>
+          <t>(선잠) 랩하는 친구가 낮잠잔다</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
@@ -10543,7 +10543,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>또조는 졸다</t>
+          <t>(선잠) 또조는 졸다</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
@@ -10563,7 +10563,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>지속할 수 있으니까 내구력 있는, 튼튼한</t>
+          <t>(튼튼한) 지속할 수 있으니까 내구력 있는, 튼튼한</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
@@ -10583,7 +10583,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>결합하려니까 접하다, 인접하다</t>
+          <t>(인접) 결합하려니까 접하다, 인접하다</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
@@ -10603,7 +10603,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>사용, 사용법</t>
+          <t>(용법) 사용, 사용법</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
@@ -10623,7 +10623,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>C모양 구부러져 있는 곱슬머리</t>
+          <t>(곱슬 곱슬하다) C모양 구부러져 있는 곱슬머리</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
@@ -10643,7 +10643,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>미스치부 미스치부를 드러내는 나쁜행동</t>
+          <t>(장난) 미스치부 미스치부를 드러내는 나쁜행동</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
@@ -10663,7 +10663,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>어 바운드하는 풍부한 물고기</t>
+          <t>(많이 있다) 어 바운드하는 풍부한 물고기</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
@@ -10683,7 +10683,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>나도 언젠가는 빛 볼날이 생기다</t>
+          <t>(생기다) 나도 언젠가는 빛 볼날이 생기다</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
@@ -10703,7 +10703,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>보기좋은 것 맞는, 예의바른</t>
+          <t>(품위 있는) 보기좋은 것 맞는, 예의바른</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
@@ -10723,7 +10723,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>이리다우해서 주다</t>
+          <t>(기부) 이리다우해서 주다</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
@@ -10743,7 +10743,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>창문(window)에 서있는 과부(widow)</t>
+          <t>(과부) 창문(window)에 서있는 과부(widow)</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
@@ -10763,7 +10763,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>구름에 날아가는 신랑</t>
+          <t>(신랑) 구름에 날아가는 신랑</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
@@ -10783,7 +10783,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>인간적인것 자비로운, 인도적인</t>
+          <t>(인도적) 인간적인것 자비로운, 인도적인</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -10803,7 +10803,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>델몬트먹고 자는 기숙사</t>
+          <t>(기숙사) 델몬트먹고 자는 기숙사</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
@@ -10823,7 +10823,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>레시피 조리법</t>
+          <t>(레시피) 레시피 조리법</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
@@ -10843,7 +10843,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>아래로 그리다 그리다, 묘사하다</t>
+          <t>(설명) 아래로 그리다 그리다, 묘사하다</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
@@ -10852,7 +10852,7 @@
         </is>
       </c>
       <c r="D521" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="522">
@@ -10863,7 +10863,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>치워 허드렛일</t>
+          <t>(하기 싫은 일) 치워 허드렛일</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
@@ -10883,7 +10883,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>안에서 태어난 선천적인, 타고난</t>
+          <t>(타고난) 안에서 태어난 선천적인, 타고난</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
@@ -10903,7 +10903,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>안에 두루마리 두루마리에 등록하다</t>
+          <t>(싸다) 안에 두루마리 두루마리에 등록하다</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
@@ -10923,7 +10923,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>파는 사람 행상, 상인</t>
+          <t>(공급업체) 파는 사람 행상, 상인</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
@@ -10943,7 +10943,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>코밑으로 통근하다</t>
+          <t>(갈다) 코밑으로 통근하다</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
@@ -10963,7 +10963,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>서있는 곳의 고정된, 정지된</t>
+          <t>(변화 없는) 서있는 곳의 고정된, 정지된</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
@@ -10983,7 +10983,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>사람을 다루는 부서 인사과</t>
+          <t>(인원) 사람을 다루는 부서 인사과</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
@@ -11003,7 +11003,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>서로 함께하기로 한 사람 배우자</t>
+          <t>(배우자) 서로 함께하기로 한 사람 배우자</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
@@ -11023,7 +11023,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>전구를 전선에 연결하니 깜박이다</t>
+          <t>(깜박거리다) 전구를 전선에 연결하니 깜박이다</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
@@ -11043,7 +11043,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>떼는 소작료 떼는 소작인, 세입자</t>
+          <t>(거주자) 떼는 소작료 떼는 소작인, 세입자</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
@@ -11063,7 +11063,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>아이예뻐 기저귀한 아기</t>
+          <t>(기저귀) 아이예뻐 기저귀한 아기</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
@@ -11083,7 +11083,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>투우사가 소의 시선을 끌다, 견인하다</t>
+          <t>(끌리는 배) 투우사가 소의 시선을 끌다, 견인하다</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
@@ -11103,7 +11103,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>불리한자를 괴롭히다</t>
+          <t>(괴롭히는 사람) 불리한자를 괴롭히다</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
@@ -11123,7 +11123,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>살아가는 처지, 생계</t>
+          <t>(살림) 살아가는 처지, 생계</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
@@ -11143,7 +11143,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>일반적인 상품 일용품, 상품</t>
+          <t>(상품) 일반적인 상품 일용품, 상품</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
@@ -11163,7 +11163,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>음료수를 많이 마시면 배버리지</t>
+          <t>(음료) 음료수를 많이 마시면 배버리지</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
@@ -11183,7 +11183,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>잇(eat)터블 먹을 수 있는</t>
+          <t>(먹을 수 있는) 잇(eat)터블 먹을 수 있는</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
@@ -11203,7 +11203,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>오더 오더러운 냄새, 향기</t>
+          <t>(냄새) 오더 오더러운 냄새, 향기</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
@@ -11223,7 +11223,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>병원에 입원하니 환대해주다</t>
+          <t>(환대) 병원에 입원하니 환대해주다</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
@@ -11243,7 +11243,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>애니메이션에 생명을 불어넣다</t>
+          <t>(생명 있는) 애니메이션에 생명을 불어넣다</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
@@ -11263,7 +11263,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>나를 능가하는 최고의</t>
+          <t>(최고) 나를 능가하는 최고의</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
@@ -11283,7 +11283,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>스카프로 흉터가림, 자국</t>
+          <t>(흉터) 스카프로 흉터가림, 자국</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
@@ -11303,7 +11303,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>앞치마(apron)를 두르는 경향이 있어</t>
+          <t>(경향이 있습니다) 앞치마(apron)를 두르는 경향이 있어</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
@@ -11323,7 +11323,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>아래를 파니까 손상시키다</t>
+          <t>(훼손하십시오) 아래를 파니까 손상시키다</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
@@ -11343,7 +11343,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>타이를 디처럼 매니 단정한, 잘 정돈된</t>
+          <t>(깔끔한) 타이를 디처럼 매니 단정한, 잘 정돈된</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
@@ -11363,7 +11363,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>뱉지 고기는 뱉지 채식주의자</t>
+          <t>(채식) 뱉지 고기는 뱉지 채식주의자</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
@@ -11383,7 +11383,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>향기로운</t>
+          <t>(향긋한) 향기로운</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
@@ -11403,7 +11403,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>스컹크는 악취를 풍기다</t>
+          <t>(악취) 스컹크는 악취를 풍기다</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
@@ -11423,7 +11423,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>봐밑 토한거 → 토하다</t>
+          <t>(토하다) 봐밑 토한거 → 토하다</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
@@ -11443,7 +11443,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>나이먹을 나이먹을수록 책임이 있는</t>
+          <t>(책임이 있습니다) 나이먹을 나이먹을수록 책임이 있는</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
@@ -11463,7 +11463,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>애쓰리 운동선수가 애쓰리</t>
+          <t>(운동 선수) 애쓰리 운동선수가 애쓰리</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
@@ -11483,7 +11483,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>싸워 서로 신거 먹겟다고 싸워</t>
+          <t>(시큼한) 싸워 서로 신거 먹겟다고 싸워</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
@@ -11503,7 +11503,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>레슬링(wrestling)선수가 상대 손목(wrist)을 비틀다(wrest)</t>
+          <t>(손목) 레슬링(wrestling)선수가 상대 손목(wrist)을 비틀다(wrest)</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
@@ -11523,7 +11523,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>작은(small) 재산을 잘(well) 부풀리다(swell)</t>
+          <t>(팽창) 작은(small) 재산을 잘(well) 부풀리다(swell)</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
@@ -11543,7 +11543,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>벌써 맥박이 뛰다</t>
+          <t>(맥박) 벌써 맥박이 뛰다</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
@@ -11563,7 +11563,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>다시 중간으로 치료하다, 교정하다</t>
+          <t>(치료) 다시 중간으로 치료하다, 교정하다</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
@@ -11583,7 +11583,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>라운지에서 빈둥거리다</t>
+          <t>(라운지) 라운지에서 빈둥거리다</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
@@ -11603,7 +11603,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>어 터 어 터놓고 말하다</t>
+          <t>(전적인) 어 터 어 터놓고 말하다</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
@@ -11623,7 +11623,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>아나토막 아 나 토막나네 해부학</t>
+          <t>(해부) 아나토막 아 나 토막나네 해부학</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
@@ -11643,7 +11643,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>아들에쌘스 사춘기 아들에게 에쌘스</t>
+          <t>(청년기) 아들에쌘스 사춘기 아들에게 에쌘스</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
@@ -11663,7 +11663,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>비가 오니 활기띠는 농촌</t>
+          <t>(활기) 비가 오니 활기띠는 농촌</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
@@ -11683,7 +11683,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>다이제스티브 먹고 소화하다</t>
+          <t>(요람) 다이제스티브 먹고 소화하다</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
@@ -11703,7 +11703,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>점처럼 생긴 세균</t>
+          <t>(세균) 점처럼 생긴 세균</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
@@ -11723,7 +11723,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>스틱은 빳빳한, 경직된</t>
+          <t>(뻣뻣한) 스틱은 빳빳한, 경직된</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
@@ -11743,7 +11743,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>덩어리(lump) 살찐 엉덩이, 뚱뚱한</t>
+          <t>(통통한) 덩어리(lump) 살찐 엉덩이, 뚱뚱한</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
@@ -11763,7 +11763,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>설렌다 날씬하니 설렌다</t>
+          <t>(날씬한) 설렌다 날씬하니 설렌다</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
@@ -11783,7 +11783,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>브라운 갈색 이마</t>
+          <t>(이마) 브라운 갈색 이마</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
@@ -11803,7 +11803,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>줄기처럼 갈라지는 것 동맥</t>
+          <t>(동맥) 줄기처럼 갈라지는 것 동맥</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
@@ -11823,7 +11823,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>패를 나이제 폐가 마비(못쓰게 되다)되어 이제 못쓴다</t>
+          <t>(마비) 패를 나이제 폐가 마비(못쓰게 되다)되어 이제 못쓴다</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
@@ -11843,7 +11843,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>의문 면제라니 의문이네, 면역의</t>
+          <t>(면역) 의문 면제라니 의문이네, 면역의</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
@@ -11863,7 +11863,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>톡 코를 톡쏘는 독성의, 독소의</t>
+          <t>(독성) 톡 코를 톡쏘는 독성의, 독소의</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
@@ -11872,7 +11872,7 @@
         </is>
       </c>
       <c r="D572" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="573">
@@ -11883,7 +11883,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>디지게 현기증 나는</t>
+          <t>(어지러운) 디지게 현기증 나는</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
@@ -11903,7 +11903,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>벨리댄스 배(복부)춤</t>
+          <t>(배) 벨리댄스 배(복부)춤</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
@@ -11923,7 +11923,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>끌으니 질질끌으니 만성적이 되지, 장기간 지속 되는</t>
+          <t>(만성병 환자) 끌으니 질질끌으니 만성적이 되지, 장기간 지속 되는</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
@@ -11943,7 +11943,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>다이어트 하지 않으면 당뇨병</t>
+          <t>(당뇨병) 다이어트 하지 않으면 당뇨병</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
@@ -11963,7 +11963,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>볼수 없는 보이지 않는</t>
+          <t>(보이지 않는) 볼수 없는 보이지 않는</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
@@ -11972,7 +11972,7 @@
         </is>
       </c>
       <c r="D577" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="578">
@@ -11983,7 +11983,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>엥 비겼어? 애매한 경기</t>
+          <t>(모호한) 엥 비겼어? 애매한 경기</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
@@ -12003,7 +12003,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>소버 소주를 버리다 술 취하지 않은 진지한, 냉정한</t>
+          <t>(냉철한) 소버 소주를 버리다 술 취하지 않은 진지한, 냉정한</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
@@ -12023,7 +12023,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>어느 하나도 아닌 것 중립의</t>
+          <t>(중립적) 어느 하나도 아닌 것 중립의</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
@@ -12043,7 +12043,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>방아쇠</t>
+          <t>(방아쇠) 방아쇠</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
@@ -12063,7 +12063,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>숱해 애플 애플이 주요산물</t>
+          <t>(스테이플) 숱해 애플 애플이 주요산물</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
@@ -12083,7 +12083,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>악화시키다</t>
+          <t>(악화) 악화시키다</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
@@ -12103,7 +12103,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>수퀴즈 수많은 퀴즈로 머리를 짜내다</t>
+          <t>(짜내다) 수퀴즈 수많은 퀴즈로 머리를 짜내다</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
@@ -12123,7 +12123,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>모래처럼 작은 분자</t>
+          <t>(분자) 모래처럼 작은 분자</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
@@ -12143,7 +12143,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>노선 노선(생각)</t>
+          <t>(개념) 노선 노선(생각)</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
@@ -12163,7 +12163,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>환타지 소설 공상소설</t>
+          <t>(공상) 환타지 소설 공상소설</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
@@ -12183,7 +12183,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>닥치는 대로 냉동, 무작위의</t>
+          <t>(무작위의) 닥치는 대로 냉동, 무작위의</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
@@ -12203,7 +12203,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>페이지 한페이지 책의 한 면</t>
+          <t>(단계) 페이지 한페이지 책의 한 면</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
@@ -12223,7 +12223,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>엔틱 가구 골동품 가구</t>
+          <t>(고대 미술) 엔틱 가구 골동품 가구</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
@@ -12243,7 +12243,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>뗏목을 디자인하니까 도안, 설계</t>
+          <t>(초안) 뗏목을 디자인하니까 도안, 설계</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
@@ -12263,7 +12263,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>내빼지 피난처로</t>
+          <t>(피난) 내빼지 피난처로</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
@@ -12283,7 +12283,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>일어 일어나는 시대, 연대</t>
+          <t>(연대) 일어 일어나는 시대, 연대</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
@@ -12303,7 +12303,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>표면의, 피상적인</t>
+          <t>(피상적) 표면의, 피상적인</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
@@ -12323,7 +12323,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>맨션의 규모</t>
+          <t>(치수) 맨션의 규모</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
@@ -12343,7 +12343,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>부분처럼 작고 티끌 같은 것 분자</t>
+          <t>(입자) 부분처럼 작고 티끌 같은 것 분자</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
@@ -12363,7 +12363,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>레일(렐)은 평행하다</t>
+          <t>(평행한) 레일(렐)은 평행하다</t>
         </is>
       </c>
       <c r="C597" t="inlineStr">
@@ -12383,7 +12383,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>빙돌아 다방면으로 교육하다 백과사전</t>
+          <t>(백과 사전) 빙돌아 다방면으로 교육하다 백과사전</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
@@ -12403,7 +12403,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>이터널은 끝없다 영원한, 불변의</t>
+          <t>(영원한) 이터널은 끝없다 영원한, 불변의</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
@@ -12423,7 +12423,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>니들 니들 수수께끼 맞혀봐</t>
+          <t>(수수께끼) 니들 니들 수수께끼 맞혀봐</t>
         </is>
       </c>
       <c r="C600" t="inlineStr">
@@ -12443,7 +12443,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>오 빛! 오 빛의 궤도</t>
+          <t>(궤도) 오 빛! 오 빛의 궤도</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
@@ -12452,7 +12452,7 @@
         </is>
       </c>
       <c r="D601" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="602">
@@ -12463,7 +12463,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>질문에 답을 찾다, 추구하다</t>
+          <t>(탐구) 질문에 답을 찾다, 추구하다</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
@@ -12483,7 +12483,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>앞에라투스 앞에 기계 놔두다, 기구, 장치</t>
+          <t>(기구) 앞에라투스 앞에 기계 놔두다, 기구, 장치</t>
         </is>
       </c>
       <c r="C603" t="inlineStr">
@@ -12503,7 +12503,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>시골부처 조각상</t>
+          <t>(조각품) 시골부처 조각상</t>
         </is>
       </c>
       <c r="C604" t="inlineStr">
@@ -12523,7 +12523,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>글자를 읽고 쓸 수 있는</t>
+          <t>(교양 있는) 글자를 읽고 쓸 수 있는</t>
         </is>
       </c>
       <c r="C605" t="inlineStr">
@@ -12543,7 +12543,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>페어리 테일 요정 이야기</t>
+          <t>(요정) 페어리 테일 요정 이야기</t>
         </is>
       </c>
       <c r="C606" t="inlineStr">
@@ -12563,7 +12563,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>뒤바위 뒤바위는 신성한, 신의</t>
+          <t>(신성한) 뒤바위 뒤바위는 신성한, 신의</t>
         </is>
       </c>
       <c r="C607" t="inlineStr">
@@ -12583,7 +12583,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>세인들 세인들이 존경하는 성인, 성자</t>
+          <t>(성자) 세인들 세인들이 존경하는 성인, 성자</t>
         </is>
       </c>
       <c r="C608" t="inlineStr">
@@ -12603,7 +12603,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>위저어 항아리 위를 저어가는 마법사</t>
+          <t>(마법사) 위저어 항아리 위를 저어가는 마법사</t>
         </is>
       </c>
       <c r="C609" t="inlineStr">
@@ -12623,7 +12623,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>배쫄러 독신남성</t>
+          <t>(미혼 남자) 배쫄러 독신남성</t>
         </is>
       </c>
       <c r="C610" t="inlineStr">
@@ -12643,7 +12643,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>교과과정 외의, 과외의</t>
+          <t>(과외의 외과) 교과과정 외의, 과외의</t>
         </is>
       </c>
       <c r="C611" t="inlineStr">
@@ -12663,7 +12663,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>생각나는 것 기념물</t>
+          <t>(기념물) 생각나는 것 기념물</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
@@ -12683,7 +12683,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>입학 입학으로 새시대, 신기원</t>
+          <t>(시대) 입학 입학으로 새시대, 신기원</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
@@ -12703,7 +12703,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>혁신</t>
+          <t>(혁신) 혁신</t>
         </is>
       </c>
       <c r="C614" t="inlineStr">
@@ -12723,7 +12723,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>균형, 평형</t>
+          <t>(평형) 균형, 평형</t>
         </is>
       </c>
       <c r="C615" t="inlineStr">
@@ -12743,7 +12743,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>소피의스케이트가 세련된, 정교한</t>
+          <t>(정교한) 소피의스케이트가 세련된, 정교한</t>
         </is>
       </c>
       <c r="C616" t="inlineStr">
@@ -12763,7 +12763,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>글로 써 놓은 것이니까 원고, 대본</t>
+          <t>(스크립트) 글로 써 놓은 것이니까 원고, 대본</t>
         </is>
       </c>
       <c r="C617" t="inlineStr">
@@ -12783,7 +12783,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>어맨뒤 어머니가 맨뒤를 고치다</t>
+          <t>(개정하다) 어맨뒤 어머니가 맨뒤를 고치다</t>
         </is>
       </c>
       <c r="C618" t="inlineStr">
@@ -12803,7 +12803,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>다 이것이 내것 명문, 왕조, 명가</t>
+          <t>(왕조) 다 이것이 내것 명문, 왕조, 명가</t>
         </is>
       </c>
       <c r="C619" t="inlineStr">
@@ -12823,7 +12823,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>엘라스틴 하세요 탄력있는, 유연한</t>
+          <t>(탄력있는) 엘라스틴 하세요 탄력있는, 유연한</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
@@ -12843,7 +12843,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>스킵하듯 흝어보다, 걷어내다</t>
+          <t>(웃더껑이) 스킵하듯 흝어보다, 걷어내다</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
@@ -12863,7 +12863,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>풀어서 쓴글 산문</t>
+          <t>(산문) 풀어서 쓴글 산문</t>
         </is>
       </c>
       <c r="C622" t="inlineStr">
@@ -12883,7 +12883,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>막 조롱하다</t>
+          <t>(모조품) 막 조롱하다</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
@@ -12903,7 +12903,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>스스로 쓴거니까 자필, 서명</t>
+          <t>(자필) 스스로 쓴거니까 자필, 서명</t>
         </is>
       </c>
       <c r="C624" t="inlineStr">
@@ -12923,7 +12923,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>사이트를 인용하다</t>
+          <t>(인용하다) 사이트를 인용하다</t>
         </is>
       </c>
       <c r="C625" t="inlineStr">
@@ -12943,7 +12943,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>콰이어 가요 부르는 합창단</t>
+          <t>(성가대) 콰이어 가요 부르는 합창단</t>
         </is>
       </c>
       <c r="C626" t="inlineStr">
@@ -12963,7 +12963,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>의식, 의례</t>
+          <t>(의식) 의식, 의례</t>
         </is>
       </c>
       <c r="C627" t="inlineStr">
@@ -12983,7 +12983,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>에스팀을 존경하다</t>
+          <t>(존중) 에스팀을 존경하다</t>
         </is>
       </c>
       <c r="C628" t="inlineStr">
@@ -13003,7 +13003,7 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>쌈한 사람을 호출하다, 소환하다</t>
+          <t>(소환) 쌈한 사람을 호출하다, 소환하다</t>
         </is>
       </c>
       <c r="C629" t="inlineStr">
@@ -13023,7 +13023,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>밑줄긋다, 강조하다</t>
+          <t>(밑줄) 밑줄긋다, 강조하다</t>
         </is>
       </c>
       <c r="C630" t="inlineStr">
@@ -13043,7 +13043,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>나가는 루트 길, 통로</t>
+          <t>(노선) 나가는 루트 길, 통로</t>
         </is>
       </c>
       <c r="C631" t="inlineStr">
@@ -13063,7 +13063,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>베었을 혈관, 용기, 배</t>
+          <t>(선박) 베었을 혈관, 용기, 배</t>
         </is>
       </c>
       <c r="C632" t="inlineStr">
@@ -13083,7 +13083,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>무장하는 것 갑옷, 부대</t>
+          <t>(갑옷) 무장하는 것 갑옷, 부대</t>
         </is>
       </c>
       <c r="C633" t="inlineStr">
@@ -13103,7 +13103,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>차로 가는 화물</t>
+          <t>(뱃짐) 차로 가는 화물</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
@@ -13123,7 +13123,7 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>디프 깊이 담그다</t>
+          <t>(담그다) 디프 깊이 담그다</t>
         </is>
       </c>
       <c r="C635" t="inlineStr">
@@ -13143,7 +13143,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>로마를 배회하다</t>
+          <t>(로밍) 로마를 배회하다</t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
@@ -13163,7 +13163,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>반으로 시작하는 반창고, 헛간</t>
+          <t>(외양간) 반으로 시작하는 반창고, 헛간</t>
         </is>
       </c>
       <c r="C637" t="inlineStr">
@@ -13183,7 +13183,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>통나무(log)로 만든 오두막집(lodge)</t>
+          <t>(별장) 통나무(log)로 만든 오두막집(lodge)</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
@@ -13203,7 +13203,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>집뉘 집위 굴뚝</t>
+          <t>(굴뚝) 집뉘 집위 굴뚝</t>
         </is>
       </c>
       <c r="C639" t="inlineStr">
@@ -13223,7 +13223,7 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>비어도 비어도 계속나는 턱수염</t>
+          <t>(수염) 비어도 비어도 계속나는 턱수염</t>
         </is>
       </c>
       <c r="C640" t="inlineStr">
@@ -13243,7 +13243,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>포지 표지가 붙은 현관, 베란다</t>
+          <t>(현관) 포지 표지가 붙은 현관, 베란다</t>
         </is>
       </c>
       <c r="C641" t="inlineStr">
@@ -13252,7 +13252,7 @@
         </is>
       </c>
       <c r="D641" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="642">
@@ -13263,7 +13263,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>방황하는 길을 잃은</t>
+          <t>(흩어진) 방황하는 길을 잃은</t>
         </is>
       </c>
       <c r="C642" t="inlineStr">
@@ -13283,7 +13283,7 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>문구점</t>
+          <t>(문방구) 문구점</t>
         </is>
       </c>
       <c r="C643" t="inlineStr">
@@ -13292,7 +13292,7 @@
         </is>
       </c>
       <c r="D643" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="644">
@@ -13303,7 +13303,7 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>반대로 하다 원상태로 하다</t>
+          <t>(실행 취소) 반대로 하다 원상태로 하다</t>
         </is>
       </c>
       <c r="C644" t="inlineStr">
@@ -13323,7 +13323,7 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>나선형의</t>
+          <t>(나선) 나선형의</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
@@ -13343,7 +13343,7 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>이국저틱 이국적인</t>
+          <t>(이국적인) 이국저틱 이국적인</t>
         </is>
       </c>
       <c r="C646" t="inlineStr">
@@ -13363,7 +13363,7 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>트로트 부르는 송어</t>
+          <t>(송어) 트로트 부르는 송어</t>
         </is>
       </c>
       <c r="C647" t="inlineStr">
@@ -13383,7 +13383,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>불났음 꽃을 피우다, 번영하다</t>
+          <t>(꽃) 불났음 꽃을 피우다, 번영하다</t>
         </is>
       </c>
       <c r="C648" t="inlineStr">
@@ -13403,7 +13403,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>살아있는것을 비축하는 것 가축</t>
+          <t>(가축) 살아있는것을 비축하는 것 가축</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
@@ -13423,7 +13423,7 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>헤어나오지 못하는 산토끼</t>
+          <t>(토끼) 헤어나오지 못하는 산토끼</t>
         </is>
       </c>
       <c r="C650" t="inlineStr">
@@ -13443,7 +13443,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>혼을빼는 경적소리, 뿔</t>
+          <t>(뿔) 혼을빼는 경적소리, 뿔</t>
         </is>
       </c>
       <c r="C651" t="inlineStr">
@@ -13463,7 +13463,7 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>깃든 새끼 고양이</t>
+          <t>(주방) 깃든 새끼 고양이</t>
         </is>
       </c>
       <c r="C652" t="inlineStr">
@@ -13483,7 +13483,7 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>쌔면 연어야</t>
+          <t>(연어) 쌔면 연어야</t>
         </is>
       </c>
       <c r="C653" t="inlineStr">
@@ -13492,7 +13492,7 @@
         </is>
       </c>
       <c r="D653" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="654">
@@ -13503,7 +13503,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>포 크로 사용하는 발톱</t>
+          <t>(발) 포 크로 사용하는 발톱</t>
         </is>
       </c>
       <c r="C654" t="inlineStr">
@@ -13523,7 +13523,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>부르르떨 짐승같은</t>
+          <t>(잔인한) 부르르떨 짐승같은</t>
         </is>
       </c>
       <c r="C655" t="inlineStr">
@@ -13543,7 +13543,7 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>돼지삼겹살을 와인에</t>
+          <t>(돼지) 돼지삼겹살을 와인에</t>
         </is>
       </c>
       <c r="C656" t="inlineStr">
@@ -13563,7 +13563,7 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>포도나무(vine)로 포도주(wine)</t>
+          <t>(덩굴) 포도나무(vine)로 포도주(wine)</t>
         </is>
       </c>
       <c r="C657" t="inlineStr">
@@ -13583,7 +13583,7 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>뿌리다털 뿌리까지 다 털어먹는 약탈자, 육식동물</t>
+          <t>(포식자) 뿌리다털 뿌리까지 다 털어먹는 약탈자, 육식동물</t>
         </is>
       </c>
       <c r="C658" t="inlineStr">
@@ -13603,7 +13603,7 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>카우프 카우 친구는 송아지</t>
+          <t>(송아지) 카우프 카우 친구는 송아지</t>
         </is>
       </c>
       <c r="C659" t="inlineStr">
@@ -13623,7 +13623,7 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>타이프 칼 칼같이 유형을 정하는 전형적인, 일반적인</t>
+          <t>(전형적인) 타이프 칼 칼같이 유형을 정하는 전형적인, 일반적인</t>
         </is>
       </c>
       <c r="C660" t="inlineStr">
@@ -13643,7 +13643,7 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>튀어나와 분리 된 것 자손, 자식</t>
+          <t>(자식) 튀어나와 분리 된 것 자손, 자식</t>
         </is>
       </c>
       <c r="C661" t="inlineStr">
@@ -13663,7 +13663,7 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>뉴스앵커가 닻을 내리다</t>
+          <t>(닻) 뉴스앵커가 닻을 내리다</t>
         </is>
       </c>
       <c r="C662" t="inlineStr">
@@ -13683,7 +13683,7 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>부서져 내리는 붕괴, 고장</t>
+          <t>(고장) 부서져 내리는 붕괴, 고장</t>
         </is>
       </c>
       <c r="C663" t="inlineStr">
@@ -13703,7 +13703,7 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>포쏘는 적군</t>
+          <t>(적) 포쏘는 적군</t>
         </is>
       </c>
       <c r="C664" t="inlineStr">
@@ -13723,7 +13723,7 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>자유찾아 달아나다</t>
+          <t>(서두르다) 자유찾아 달아나다</t>
         </is>
       </c>
       <c r="C665" t="inlineStr">
@@ -13743,7 +13743,7 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>기차레일처럼 뒤를 추적하다</t>
+          <t>(자취) 기차레일처럼 뒤를 추적하다</t>
         </is>
       </c>
       <c r="C666" t="inlineStr">
@@ -13763,7 +13763,7 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>멀리옮겨간 먼, 원격의</t>
+          <t>(원격) 멀리옮겨간 먼, 원격의</t>
         </is>
       </c>
       <c r="C667" t="inlineStr">
@@ -13783,7 +13783,7 @@
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>유텐쓸 당신은 열개의 도구를 쓸 수없다, 도구, 기구</t>
+          <t>(기구) 유텐쓸 당신은 열개의 도구를 쓸 수없다, 도구, 기구</t>
         </is>
       </c>
       <c r="C668" t="inlineStr">
@@ -13803,7 +13803,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>아래서 가져온 것 기념품</t>
+          <t>(기념품) 아래서 가져온 것 기념품</t>
         </is>
       </c>
       <c r="C669" t="inlineStr">
@@ -13823,7 +13823,7 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>세구멍 세개의 부분 구멍, 부분, 구획, 조각</t>
+          <t>(분절) 세구멍 세개의 부분 구멍, 부분, 구획, 조각</t>
         </is>
       </c>
       <c r="C670" t="inlineStr">
@@ -13843,7 +13843,7 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>아치모양의 문서보관소</t>
+          <t>(보관소) 아치모양의 문서보관소</t>
         </is>
       </c>
       <c r="C671" t="inlineStr">
@@ -13852,7 +13852,7 @@
         </is>
       </c>
       <c r="D671" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="672">
@@ -13863,7 +13863,7 @@
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>아일 통로에 두지마세요, 복도, 통로</t>
+          <t>(통로) 아일 통로에 두지마세요, 복도, 통로</t>
         </is>
       </c>
       <c r="C672" t="inlineStr">
@@ -13883,7 +13883,7 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>친구같은 우호적인</t>
+          <t>(친숙한) 친구같은 우호적인</t>
         </is>
       </c>
       <c r="C673" t="inlineStr">
@@ -13903,7 +13903,7 @@
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>날짜에서 벗어난 구식의, 시대에 뒤떨어진</t>
+          <t>(시대에 뒤쳐진) 날짜에서 벗어난 구식의, 시대에 뒤떨어진</t>
         </is>
       </c>
       <c r="C674" t="inlineStr">
@@ -13923,7 +13923,7 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>오너만의 장식품</t>
+          <t>(장식) 오너만의 장식품</t>
         </is>
       </c>
       <c r="C675" t="inlineStr">
@@ -13943,7 +13943,7 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>럭쉬어리 사치품</t>
+          <t>(사치) 럭쉬어리 사치품</t>
         </is>
       </c>
       <c r="C676" t="inlineStr">
@@ -13963,7 +13963,7 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>모양에서 멀어지다 변장하다, 위장하다</t>
+          <t>(위장하다) 모양에서 멀어지다 변장하다, 위장하다</t>
         </is>
       </c>
       <c r="C677" t="inlineStr">
@@ -13983,7 +13983,7 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>함께 의무를 나누는게 아닌 것 드문, 보통이 아닌</t>
+          <t>(드문) 함께 의무를 나누는게 아닌 것 드문, 보통이 아닌</t>
         </is>
       </c>
       <c r="C678" t="inlineStr">
@@ -14003,7 +14003,7 @@
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>피어나서 동료를 자세히보다</t>
+          <t>(동료) 피어나서 동료를 자세히보다</t>
         </is>
       </c>
       <c r="C679" t="inlineStr">
@@ -14023,7 +14023,7 @@
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>접힌것을 밖으로 개발하다, 착취하다</t>
+          <t>(악용하다) 접힌것을 밖으로 개발하다, 착취하다</t>
         </is>
       </c>
       <c r="C680" t="inlineStr">
@@ -14043,7 +14043,7 @@
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>뒤떼지? 분리하다, 떼어내다</t>
+          <t>(분리하다) 뒤떼지? 분리하다, 떼어내다</t>
         </is>
       </c>
       <c r="C681" t="inlineStr">
@@ -14063,7 +14063,7 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>스타크래프트는 기술이 있어야한다</t>
+          <t>(선박) 스타크래프트는 기술이 있어야한다</t>
         </is>
       </c>
       <c r="C682" t="inlineStr">
@@ -14083,7 +14083,7 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>그 cafeteria는 기준이 된다</t>
+          <t>(표준) 그 cafeteria는 기준이 된다</t>
         </is>
       </c>
       <c r="C683" t="inlineStr">
@@ -14103,7 +14103,7 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>가제트는 기계장치로 된 인간이다</t>
+          <t>(간단한 기계 장치) 가제트는 기계장치로 된 인간이다</t>
         </is>
       </c>
       <c r="C684" t="inlineStr">
@@ -14123,7 +14123,7 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>가짜모션 페이크</t>
+          <t>(가짜) 가짜모션 페이크</t>
         </is>
       </c>
       <c r="C685" t="inlineStr">
@@ -14143,7 +14143,7 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>이미 취한 것을 흉내내다</t>
+          <t>(본뜨다) 이미 취한 것을 흉내내다</t>
         </is>
       </c>
       <c r="C686" t="inlineStr">
@@ -14163,7 +14163,7 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>특이한 피클이야</t>
+          <t>(이상한) 특이한 피클이야</t>
         </is>
       </c>
       <c r="C687" t="inlineStr">
@@ -14183,7 +14183,7 @@
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>안에다 놓다 투입</t>
+          <t>(입력) 안에다 놓다 투입</t>
         </is>
       </c>
       <c r="C688" t="inlineStr">
@@ -14203,7 +14203,7 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>브라운색을 둘러보다</t>
+          <t>(검색) 브라운색을 둘러보다</t>
         </is>
       </c>
       <c r="C689" t="inlineStr">
@@ -14223,7 +14223,7 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>새털처럼 가벼운 인공위성</t>
+          <t>(위성) 새털처럼 가벼운 인공위성</t>
         </is>
       </c>
       <c r="C690" t="inlineStr">
@@ -14243,7 +14243,7 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>시뮬레이션 가상게임</t>
+          <t>(시뮬레이션) 시뮬레이션 가상게임</t>
         </is>
       </c>
       <c r="C691" t="inlineStr">
@@ -14263,7 +14263,7 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>삐하고 경적을 울리다</t>
+          <t>(삑 하는 소리) 삐하고 경적을 울리다</t>
         </is>
       </c>
       <c r="C692" t="inlineStr">
@@ -14283,7 +14283,7 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>스토커가 뒤를밟다 줄기</t>
+          <t>(줄기) 스토커가 뒤를밟다 줄기</t>
         </is>
       </c>
       <c r="C693" t="inlineStr">
@@ -14303,7 +14303,7 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>아지트를 흔들다</t>
+          <t>(흔들다) 아지트를 흔들다</t>
         </is>
       </c>
       <c r="C694" t="inlineStr">
@@ -14323,7 +14323,7 @@
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>보렴 공개토론회</t>
+          <t>(법정) 보렴 공개토론회</t>
         </is>
       </c>
       <c r="C695" t="inlineStr">
@@ -14343,7 +14343,7 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>무우철에는 상호협력</t>
+          <t>(상호간의) 무우철에는 상호협력</t>
         </is>
       </c>
       <c r="C696" t="inlineStr">
@@ -14363,7 +14363,7 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>거대한 이면수</t>
+          <t>(엄청난) 거대한 이면수</t>
         </is>
       </c>
       <c r="C697" t="inlineStr">
@@ -14383,7 +14383,7 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>울트라모스트 최고의</t>
+          <t>(최상의 것) 울트라모스트 최고의</t>
         </is>
       </c>
       <c r="C698" t="inlineStr">
@@ -14403,7 +14403,7 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>앞으로 길게 연장하다</t>
+          <t>(길게 하다) 앞으로 길게 연장하다</t>
         </is>
       </c>
       <c r="C699" t="inlineStr">
@@ -14423,7 +14423,7 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>네스트(둥지)가 더러운</t>
+          <t>(끔찍한) 네스트(둥지)가 더러운</t>
         </is>
       </c>
       <c r="C700" t="inlineStr">
@@ -14443,7 +14443,7 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>새익 새로운 이익</t>
+          <t>(때문) 새익 새로운 이익</t>
         </is>
       </c>
       <c r="C701" t="inlineStr">
@@ -14463,7 +14463,7 @@
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>비슷한(=like) 때이니 동시의</t>
+          <t>(동시) 비슷한(=like) 때이니 동시의</t>
         </is>
       </c>
       <c r="C702" t="inlineStr">
@@ -14483,7 +14483,7 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>본보기로 패러다님</t>
+          <t>(어형 변화표) 본보기로 패러다님</t>
         </is>
       </c>
       <c r="C703" t="inlineStr">
@@ -14503,7 +14503,7 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>큰선수들의 합의 일치</t>
+          <t>(의견 일치) 큰선수들의 합의 일치</t>
         </is>
       </c>
       <c r="C704" t="inlineStr">
@@ -14523,7 +14523,7 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>특별한 파티끌어</t>
+          <t>(특정한) 특별한 파티끌어</t>
         </is>
       </c>
       <c r="C705" t="inlineStr">
@@ -14543,7 +14543,7 @@
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>의심스러운 두부였어</t>
+          <t>(모호한) 의심스러운 두부였어</t>
         </is>
       </c>
       <c r="C706" t="inlineStr">
@@ -14563,7 +14563,7 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>풀(=full)이었어 꽉차서 격노한</t>
+          <t>(맹렬한) 풀(=full)이었어 꽉차서 격노한</t>
         </is>
       </c>
       <c r="C707" t="inlineStr">
@@ -14583,7 +14583,7 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>애들이 벤처기업하는건 모험이다</t>
+          <t>(모험) 애들이 벤처기업하는건 모험이다</t>
         </is>
       </c>
       <c r="C708" t="inlineStr">
@@ -14603,7 +14603,7 @@
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>소스가 음식맛의 원천이다</t>
+          <t>(원천) 소스가 음식맛의 원천이다</t>
         </is>
       </c>
       <c r="C709" t="inlineStr">
@@ -14623,7 +14623,7 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>감각적으로 센세이션을 일으킴</t>
+          <t>(감각) 감각적으로 센세이션을 일으킴</t>
         </is>
       </c>
       <c r="C710" t="inlineStr">
@@ -14643,7 +14643,7 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>옆모습, 윤곽, 개요</t>
+          <t>(프로필) 옆모습, 윤곽, 개요</t>
         </is>
       </c>
       <c r="C711" t="inlineStr">
@@ -14663,7 +14663,7 @@
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>완전히 봄 관점, 시각, 원근법</t>
+          <t>(관점) 완전히 봄 관점, 시각, 원근법</t>
         </is>
       </c>
       <c r="C712" t="inlineStr">
@@ -14683,7 +14683,7 @@
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>과거시간에 즐긴 오락, 취미</t>
+          <t>(오락) 과거시간에 즐긴 오락, 취미</t>
         </is>
       </c>
       <c r="C713" t="inlineStr">
@@ -14703,7 +14703,7 @@
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>오로지 논리</t>
+          <t>(논리) 오로지 논리</t>
         </is>
       </c>
       <c r="C714" t="inlineStr">
@@ -14712,7 +14712,7 @@
         </is>
       </c>
       <c r="D714" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="715">
@@ -14723,7 +14723,7 @@
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>니 키지? 키크기가 유출되다</t>
+          <t>(누출) 니 키지? 키크기가 유출되다</t>
         </is>
       </c>
       <c r="C715" t="inlineStr">
@@ -14743,7 +14743,7 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>예가 충분한</t>
+          <t>(앰플) 예가 충분한</t>
         </is>
       </c>
       <c r="C716" t="inlineStr">
@@ -14763,7 +14763,7 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>뻗어 멀리</t>
+          <t>(더 나아가) 뻗어 멀리</t>
         </is>
       </c>
       <c r="C717" t="inlineStr">
@@ -14783,7 +14783,7 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>쟤 넣었어 관대하게</t>
+          <t>(관대한) 쟤 넣었어 관대하게</t>
         </is>
       </c>
       <c r="C718" t="inlineStr">
@@ -14803,7 +14803,7 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>놀라운 말벌이었어</t>
+          <t>(기이) 놀라운 말벌이었어</t>
         </is>
       </c>
       <c r="C719" t="inlineStr">
@@ -14823,7 +14823,7 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>먼가 있을거야 풀어봐봐</t>
+          <t>(유망한 후보자) 먼가 있을거야 풀어봐봐</t>
         </is>
       </c>
       <c r="C720" t="inlineStr">
@@ -14843,7 +14843,7 @@
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>미묘한 셔틀</t>
+          <t>(미묘한) 미묘한 셔틀</t>
         </is>
       </c>
       <c r="C721" t="inlineStr">
@@ -14863,7 +14863,7 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>완전히 앞서랬다</t>
+          <t>(순수한) 완전히 앞서랬다</t>
         </is>
       </c>
       <c r="C722" t="inlineStr">
@@ -14883,7 +14883,7 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>이내 애비 테이블을 피할 수 없는</t>
+          <t>(불가피한) 이내 애비 테이블을 피할 수 없는</t>
         </is>
       </c>
       <c r="C723" t="inlineStr">
@@ -14903,7 +14903,7 @@
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>패션으로 매혹시키다</t>
+          <t>(홀리다) 패션으로 매혹시키다</t>
         </is>
       </c>
       <c r="C724" t="inlineStr">
@@ -14923,7 +14923,7 @@
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>적색경보는 red alert</t>
+          <t>(알리다) 적색경보는 red alert</t>
         </is>
       </c>
       <c r="C725" t="inlineStr">
@@ -14943,7 +14943,7 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>신성한 새를 그리다</t>
+          <t>(신성한) 신성한 새를 그리다</t>
         </is>
       </c>
       <c r="C726" t="inlineStr">
@@ -14963,7 +14963,7 @@
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>예배당에서 차빼래(채플)</t>
+          <t>(예배당) 예배당에서 차빼래(채플)</t>
         </is>
       </c>
       <c r="C727" t="inlineStr">
@@ -14983,7 +14983,7 @@
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>악행을 봤어</t>
+          <t>(바이스) 악행을 봤어</t>
         </is>
       </c>
       <c r="C728" t="inlineStr">
@@ -15003,7 +15003,7 @@
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>오 경이롭고 두렵다</t>
+          <t>(두려움) 오 경이롭고 두렵다</t>
         </is>
       </c>
       <c r="C729" t="inlineStr">
@@ -15012,7 +15012,7 @@
         </is>
       </c>
       <c r="D729" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="730">
@@ -15023,7 +15023,7 @@
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>호화로운 집을 가졌어</t>
+          <t>(아주 멋진) 호화로운 집을 가졌어</t>
         </is>
       </c>
       <c r="C730" t="inlineStr">
@@ -15043,7 +15043,7 @@
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>엘레강스 구두는 우아해</t>
+          <t>(우아) 엘레강스 구두는 우아해</t>
         </is>
       </c>
       <c r="C731" t="inlineStr">
@@ -15063,7 +15063,7 @@
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>거만한 애로가</t>
+          <t>(오만한) 거만한 애로가</t>
         </is>
       </c>
       <c r="C732" t="inlineStr">
@@ -15083,7 +15083,7 @@
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>함께유혹을 경멸하다</t>
+          <t>(경멸) 함께유혹을 경멸하다</t>
         </is>
       </c>
       <c r="C733" t="inlineStr">
@@ -15103,7 +15103,7 @@
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>순수한 시어</t>
+          <t>(얇은) 순수한 시어</t>
         </is>
       </c>
       <c r="C734" t="inlineStr">
@@ -15123,7 +15123,7 @@
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>캔디도 솔직한</t>
+          <t>(솔직한) 캔디도 솔직한</t>
         </is>
       </c>
       <c r="C735" t="inlineStr">
@@ -15143,7 +15143,7 @@
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>화로 속이 빈, 움푹 들어간</t>
+          <t>(구멍) 화로 속이 빈, 움푹 들어간</t>
         </is>
       </c>
       <c r="C736" t="inlineStr">
@@ -15163,7 +15163,7 @@
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>서있는점 관점, 입장</t>
+          <t>(점) 서있는점 관점, 입장</t>
         </is>
       </c>
       <c r="C737" t="inlineStr">
@@ -15183,7 +15183,7 @@
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>안에서 펄스 자극, 충동</t>
+          <t>(충동) 안에서 펄스 자극, 충동</t>
         </is>
       </c>
       <c r="C738" t="inlineStr">
@@ -15203,7 +15203,7 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>구린입으로 씽긋 웃다</t>
+          <t>(이를 드러내고 웃다) 구린입으로 씽긋 웃다</t>
         </is>
       </c>
       <c r="C739" t="inlineStr">
@@ -15223,7 +15223,7 @@
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>퇴임하고 길들이다</t>
+          <t>(길들인) 퇴임하고 길들이다</t>
         </is>
       </c>
       <c r="C740" t="inlineStr">
@@ -15243,7 +15243,7 @@
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>드라이해서 따분한, 황량한</t>
+          <t>(음성) 드라이해서 따분한, 황량한</t>
         </is>
       </c>
       <c r="C741" t="inlineStr">
@@ -15263,7 +15263,7 @@
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>철저히 얽혀 당황하게 하다</t>
+          <t>(당황) 철저히 얽혀 당황하게 하다</t>
         </is>
       </c>
       <c r="C742" t="inlineStr">
@@ -15283,7 +15283,7 @@
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>이거(this)매 하니 당황하다</t>
+          <t>(당황) 이거(this)매 하니 당황하다</t>
         </is>
       </c>
       <c r="C743" t="inlineStr">
@@ -15303,7 +15303,7 @@
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>무모하게 내가끌렸어</t>
+          <t>(무모한) 무모하게 내가끌렸어</t>
         </is>
       </c>
       <c r="C744" t="inlineStr">
@@ -15323,7 +15323,7 @@
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>코스가 거칠은 난코스</t>
+          <t>(조잡한) 코스가 거칠은 난코스</t>
         </is>
       </c>
       <c r="C745" t="inlineStr">
@@ -15343,7 +15343,7 @@
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>또 라면? 슬프다…, 한탄하다</t>
+          <t>(비탄) 또 라면? 슬프다…, 한탄하다</t>
         </is>
       </c>
       <c r="C746" t="inlineStr">
@@ -15363,7 +15363,7 @@
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>인도지에 몰두하다</t>
+          <t>(빠지다) 인도지에 몰두하다</t>
         </is>
       </c>
       <c r="C747" t="inlineStr">
@@ -15383,7 +15383,7 @@
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>앞으로 박수치다</t>
+          <t>(박수) 앞으로 박수치다</t>
         </is>
       </c>
       <c r="C748" t="inlineStr">
@@ -15403,7 +15403,7 @@
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>코오트에서는 예의바르게</t>
+          <t>(예의 바른) 코오트에서는 예의바르게</t>
         </is>
       </c>
       <c r="C749" t="inlineStr">
@@ -15423,7 +15423,7 @@
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>아이돌만 생각하는 이상적인</t>
+          <t>(이상주의) 아이돌만 생각하는 이상적인</t>
         </is>
       </c>
       <c r="C750" t="inlineStr">
@@ -15443,7 +15443,7 @@
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>어부놈이 정상이 아니다 비정상적인</t>
+          <t>(이상) 어부놈이 정상이 아니다 비정상적인</t>
         </is>
       </c>
       <c r="C751" t="inlineStr">
@@ -15463,7 +15463,7 @@
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>문제를 신중히 풀던데</t>
+          <t>(신중한) 문제를 신중히 풀던데</t>
         </is>
       </c>
       <c r="C752" t="inlineStr">
@@ -15483,7 +15483,7 @@
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>오번지에 복수하다</t>
+          <t>(복수) 오번지에 복수하다</t>
         </is>
       </c>
       <c r="C753" t="inlineStr">
@@ -15503,7 +15503,7 @@
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>이프레임을 금지해라</t>
+          <t>(그만두다) 이프레임을 금지해라</t>
         </is>
       </c>
       <c r="C754" t="inlineStr">
@@ -15512,7 +15512,7 @@
         </is>
       </c>
       <c r="D754" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="755">
@@ -15523,7 +15523,7 @@
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>임피던 담배버려서 뻔뻔한</t>
+          <t>(불가피합니다) 임피던 담배버려서 뻔뻔한</t>
         </is>
       </c>
       <c r="C755" t="inlineStr">
@@ -15543,7 +15543,7 @@
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>악당 멜리스 악의</t>
+          <t>(악의) 악당 멜리스 악의</t>
         </is>
       </c>
       <c r="C756" t="inlineStr">
@@ -15563,7 +15563,7 @@
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>이성적인 내선</t>
+          <t>(합리적인) 이성적인 내선</t>
         </is>
       </c>
       <c r="C757" t="inlineStr">
@@ -15583,7 +15583,7 @@
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>더스트레스받게 괴롭히다</t>
+          <t>(고통) 더스트레스받게 괴롭히다</t>
         </is>
       </c>
       <c r="C758" t="inlineStr">
@@ -15603,7 +15603,7 @@
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>게이지 하고 응시하다</t>
+          <t>(시선) 게이지 하고 응시하다</t>
         </is>
       </c>
       <c r="C759" t="inlineStr">
@@ -15623,7 +15623,7 @@
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>나이브는 순진한 (아담과 이브)</t>
+          <t>(순진한) 나이브는 순진한 (아담과 이브)</t>
         </is>
       </c>
       <c r="C760" t="inlineStr">
@@ -15643,7 +15643,7 @@
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>프로 사기꾼</t>
+          <t>(사기) 프로 사기꾼</t>
         </is>
       </c>
       <c r="C761" t="inlineStr">
@@ -15663,7 +15663,7 @@
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>뮤직들으며 명상하다</t>
+          <t>(뮤즈 신) 뮤직들으며 명상하다</t>
         </is>
       </c>
       <c r="C762" t="inlineStr">
@@ -15683,7 +15683,7 @@
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>겁많은 팀이다</t>
+          <t>(소심한) 겁많은 팀이다</t>
         </is>
       </c>
       <c r="C763" t="inlineStr">
@@ -15703,7 +15703,7 @@
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>넘 추워 무감각한</t>
+          <t>(무감각) 넘 추워 무감각한</t>
         </is>
       </c>
       <c r="C764" t="inlineStr">
@@ -15723,7 +15723,7 @@
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>능숙한 프로피션</t>
+          <t>(능숙합니다) 능숙한 프로피션</t>
         </is>
       </c>
       <c r="C765" t="inlineStr">
@@ -15743,7 +15743,7 @@
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>철저히 엄격한 인내하다</t>
+          <t>(인내하십시오) 철저히 엄격한 인내하다</t>
         </is>
       </c>
       <c r="C766" t="inlineStr">
@@ -15763,7 +15763,7 @@
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>또쳐 괴롭히다 고문하다</t>
+          <t>(고문) 또쳐 괴롭히다 고문하다</t>
         </is>
       </c>
       <c r="C767" t="inlineStr">
@@ -15783,7 +15783,7 @@
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>비가 와일드해서 당황하다</t>
+          <t>(어리석은) 비가 와일드해서 당황하다</t>
         </is>
       </c>
       <c r="C768" t="inlineStr">
@@ -15803,7 +15803,7 @@
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>뒷선을 분간하다, 식별하다</t>
+          <t>(분별하다) 뒷선을 분간하다, 식별하다</t>
         </is>
       </c>
       <c r="C769" t="inlineStr">
@@ -15823,7 +15823,7 @@
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>파리떼 같은 해적</t>
+          <t>(해적) 파리떼 같은 해적</t>
         </is>
       </c>
       <c r="C770" t="inlineStr">
@@ -15843,7 +15843,7 @@
       </c>
       <c r="B771" t="inlineStr">
         <is>
-          <t>빽빽한 댄스장</t>
+          <t>(밀집한) 빽빽한 댄스장</t>
         </is>
       </c>
       <c r="C771" t="inlineStr">
@@ -15863,7 +15863,7 @@
       </c>
       <c r="B772" t="inlineStr">
         <is>
-          <t>차본넷에서 나오는 탄소</t>
+          <t>(탄소) 차본넷에서 나오는 탄소</t>
         </is>
       </c>
       <c r="C772" t="inlineStr">
@@ -15883,7 +15883,7 @@
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>어번돈도 많구나 풍부한</t>
+          <t>(풍부한) 어번돈도 많구나 풍부한</t>
         </is>
       </c>
       <c r="C773" t="inlineStr">
@@ -15903,7 +15903,7 @@
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>파울 반칙 파울해서 불쾌한</t>
+          <t>(반칙) 파울 반칙 파울해서 불쾌한</t>
         </is>
       </c>
       <c r="C774" t="inlineStr">
@@ -15923,7 +15923,7 @@
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>거대한 이노마우스</t>
+          <t>(막대한) 거대한 이노마우스</t>
         </is>
       </c>
       <c r="C775" t="inlineStr">
@@ -15943,7 +15943,7 @@
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>거대한걸 둘이멘댓어</t>
+          <t>(엄청난) 거대한걸 둘이멘댓어</t>
         </is>
       </c>
       <c r="C776" t="inlineStr">
@@ -15963,7 +15963,7 @@
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>소를 목초지에 메둬</t>
+          <t>(목초지) 소를 목초지에 메둬</t>
         </is>
       </c>
       <c r="C777" t="inlineStr">
@@ -15983,7 +15983,7 @@
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>쌘 향기</t>
+          <t>(향기) 쌘 향기</t>
         </is>
       </c>
       <c r="C778" t="inlineStr">
@@ -16003,7 +16003,7 @@
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>위에도 잡초</t>
+          <t>(잡초를 없애다) 위에도 잡초</t>
         </is>
       </c>
       <c r="C779" t="inlineStr">
@@ -16023,7 +16023,7 @@
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>열대의 트로피</t>
+          <t>(열렬한) 열대의 트로피</t>
         </is>
       </c>
       <c r="C780" t="inlineStr">
@@ -16043,7 +16043,7 @@
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>가파른 스텝</t>
+          <t>(험한) 가파른 스텝</t>
         </is>
       </c>
       <c r="C781" t="inlineStr">
@@ -16063,7 +16063,7 @@
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>삽으로 파다</t>
+          <t>(삽) 삽으로 파다</t>
         </is>
       </c>
       <c r="C782" t="inlineStr">
@@ -16083,7 +16083,7 @@
       </c>
       <c r="B783" t="inlineStr">
         <is>
-          <t>지구가 흔들림 지진</t>
+          <t>(지진) 지구가 흔들림 지진</t>
         </is>
       </c>
       <c r="C783" t="inlineStr">
@@ -16103,7 +16103,7 @@
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t>버티컬리미츠 수직한계</t>
+          <t>(세로) 버티컬리미츠 수직한계</t>
         </is>
       </c>
       <c r="C784" t="inlineStr">
@@ -16123,7 +16123,7 @@
       </c>
       <c r="B785" t="inlineStr">
         <is>
-          <t>서핑 파도타기하다</t>
+          <t>(서핑) 서핑 파도타기하다</t>
         </is>
       </c>
       <c r="C785" t="inlineStr">
@@ -16143,7 +16143,7 @@
       </c>
       <c r="B786" t="inlineStr">
         <is>
-          <t>목재 팀봐</t>
+          <t>(재목) 목재 팀봐</t>
         </is>
       </c>
       <c r="C786" t="inlineStr">
@@ -16163,7 +16163,7 @@
       </c>
       <c r="B787" t="inlineStr">
         <is>
-          <t>낼름삼킨 왕국, 영토</t>
+          <t>(왕국) 낼름삼킨 왕국, 영토</t>
         </is>
       </c>
       <c r="C787" t="inlineStr">
@@ -16183,7 +16183,7 @@
       </c>
       <c r="B788" t="inlineStr">
         <is>
-          <t>슬렁대는 빈민가</t>
+          <t>(빈민굴) 슬렁대는 빈민가</t>
         </is>
       </c>
       <c r="C788" t="inlineStr">
@@ -16203,7 +16203,7 @@
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t>농업</t>
+          <t>(농업) 농업</t>
         </is>
       </c>
       <c r="C789" t="inlineStr">
@@ -16223,7 +16223,7 @@
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t>베린땅 불모의</t>
+          <t>(메마른) 베린땅 불모의</t>
         </is>
       </c>
       <c r="C790" t="inlineStr">
@@ -16243,7 +16243,7 @@
       </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t>거친 그룹</t>
+          <t>(조잡한) 거친 그룹</t>
         </is>
       </c>
       <c r="C791" t="inlineStr">
@@ -16263,7 +16263,7 @@
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t>메스들고 난처함, 난장판</t>
+          <t>(엉망) 메스들고 난처함, 난장판</t>
         </is>
       </c>
       <c r="C792" t="inlineStr">
@@ -16283,7 +16283,7 @@
       </c>
       <c r="B793" t="inlineStr">
         <is>
-          <t>바다위로 해외의, 해외로</t>
+          <t>(해외) 바다위로 해외의, 해외로</t>
         </is>
       </c>
       <c r="C793" t="inlineStr">
@@ -16303,7 +16303,7 @@
       </c>
       <c r="B794" t="inlineStr">
         <is>
-          <t>미스터리한 안개</t>
+          <t>(안개) 미스터리한 안개</t>
         </is>
       </c>
       <c r="C794" t="inlineStr">
@@ -16323,7 +16323,7 @@
       </c>
       <c r="B795" t="inlineStr">
         <is>
-          <t>막판스퍼트 박차를 가하다</t>
+          <t>(박차) 막판스퍼트 박차를 가하다</t>
         </is>
       </c>
       <c r="C795" t="inlineStr">
@@ -16343,7 +16343,7 @@
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t>산등성이 도착(리치)</t>
+          <t>(산등성이) 산등성이 도착(리치)</t>
         </is>
       </c>
       <c r="C796" t="inlineStr">
@@ -16363,7 +16363,7 @@
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t>자갈 그레이브(무덤)</t>
+          <t>(자갈) 자갈 그레이브(무덤)</t>
         </is>
       </c>
       <c r="C797" t="inlineStr">
@@ -16383,7 +16383,7 @@
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t>번쩍거림, 번쩍임</t>
+          <t>(번득임) 번쩍거림, 번쩍임</t>
         </is>
       </c>
       <c r="C798" t="inlineStr">
@@ -16403,7 +16403,7 @@
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>늪에서 스윔(수영)</t>
+          <t>(늪) 늪에서 스윔(수영)</t>
         </is>
       </c>
       <c r="C799" t="inlineStr">
@@ -16423,7 +16423,7 @@
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t>폭발로 불났었다</t>
+          <t>(폭발) 폭발로 불났었다</t>
         </is>
       </c>
       <c r="C800" t="inlineStr">
@@ -16443,7 +16443,7 @@
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t>큰 재난으로 카타고 피하다</t>
+          <t>(대단원) 큰 재난으로 카타고 피하다</t>
         </is>
       </c>
       <c r="C801" t="inlineStr">
@@ -16463,7 +16463,7 @@
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>스트레이트한 해협, 궁핍</t>
+          <t>(좁은) 스트레이트한 해협, 궁핍</t>
         </is>
       </c>
       <c r="C802" t="inlineStr">
@@ -16483,7 +16483,7 @@
       </c>
       <c r="B803" t="inlineStr">
         <is>
-          <t>추운날엔 콘 프로스트</t>
+          <t>(서리) 추운날엔 콘 프로스트</t>
         </is>
       </c>
       <c r="C803" t="inlineStr">
@@ -16503,7 +16503,7 @@
       </c>
       <c r="B804" t="inlineStr">
         <is>
-          <t>퍼뜨릴 비옥한 땅</t>
+          <t>(비옥) 퍼뜨릴 비옥한 땅</t>
         </is>
       </c>
       <c r="C804" t="inlineStr">
@@ -16523,7 +16523,7 @@
       </c>
       <c r="B805" t="inlineStr">
         <is>
-          <t>트와이라잇 여명, 황혼</t>
+          <t>(어스름) 트와이라잇 여명, 황혼</t>
         </is>
       </c>
       <c r="C805" t="inlineStr">
@@ -16543,7 +16543,7 @@
       </c>
       <c r="B806" t="inlineStr">
         <is>
-          <t>더 으슥한 해질녘, 황혼</t>
+          <t>(황혼) 더 으슥한 해질녘, 황혼</t>
         </is>
       </c>
       <c r="C806" t="inlineStr">
@@ -16563,7 +16563,7 @@
       </c>
       <c r="B807" t="inlineStr">
         <is>
-          <t>축축한게 머이써</t>
+          <t>(축축합니다) 축축한게 머이써</t>
         </is>
       </c>
       <c r="C807" t="inlineStr">
@@ -16583,7 +16583,7 @@
       </c>
       <c r="B808" t="inlineStr">
         <is>
-          <t>풀에 이리가 있는 대초원</t>
+          <t>(대초원) 풀에 이리가 있는 대초원</t>
         </is>
       </c>
       <c r="C808" t="inlineStr">
@@ -16603,7 +16603,7 @@
       </c>
       <c r="B809" t="inlineStr">
         <is>
-          <t>해비타트운동은 거주장소 지어주는거</t>
+          <t>(서식지) 해비타트운동은 거주장소 지어주는거</t>
         </is>
       </c>
       <c r="C809" t="inlineStr">
@@ -16623,7 +16623,7 @@
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t>땅을 보다 경치, 풍경</t>
+          <t>(풍경) 땅을 보다 경치, 풍경</t>
         </is>
       </c>
       <c r="C810" t="inlineStr">
@@ -16643,7 +16643,7 @@
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t>위도로 레티튀다</t>
+          <t>(위도) 위도로 레티튀다</t>
         </is>
       </c>
       <c r="C811" t="inlineStr">
@@ -16663,7 +16663,7 @@
       </c>
       <c r="B812" t="inlineStr">
         <is>
-          <t>호흡 의하는 놀랄만한 아슬아슬한</t>
+          <t>(아슬 아슬한) 호흡 의하는 놀랄만한 아슬아슬한</t>
         </is>
       </c>
       <c r="C812" t="inlineStr">
@@ -16683,7 +16683,7 @@
       </c>
       <c r="B813" t="inlineStr">
         <is>
-          <t>마당벌판 대리석</t>
+          <t>(대리석) 마당벌판 대리석</t>
         </is>
       </c>
       <c r="C813" t="inlineStr">
@@ -16703,7 +16703,7 @@
       </c>
       <c r="B814" t="inlineStr">
         <is>
-          <t>더긴 오래머무르다</t>
+          <t>(질질 끌게 하다) 더긴 오래머무르다</t>
         </is>
       </c>
       <c r="C814" t="inlineStr">
@@ -16723,7 +16723,7 @@
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t>이리게이트로 물을대다, 관개하다</t>
+          <t>(관개) 이리게이트로 물을대다, 관개하다</t>
         </is>
       </c>
       <c r="C815" t="inlineStr">
@@ -16743,7 +16743,7 @@
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t>껌파트 칸막이, 구획</t>
+          <t>(구획) 껌파트 칸막이, 구획</t>
         </is>
       </c>
       <c r="C816" t="inlineStr">
@@ -16763,7 +16763,7 @@
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t>경유해온 배여</t>
+          <t>(~을 통해) 경유해온 배여</t>
         </is>
       </c>
       <c r="C817" t="inlineStr">
@@ -16783,7 +16783,7 @@
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t>쏙 스며들게하다</t>
+          <t>(담그다) 쏙 스며들게하다</t>
         </is>
       </c>
       <c r="C818" t="inlineStr">
@@ -16803,7 +16803,7 @@
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t>플롯을 부는 음모</t>
+          <t>(구성) 플롯을 부는 음모</t>
         </is>
       </c>
       <c r="C819" t="inlineStr">
@@ -16823,7 +16823,7 @@
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>섬이 정상에서 보인다</t>
+          <t>(정상 회담) 섬이 정상에서 보인다</t>
         </is>
       </c>
       <c r="C820" t="inlineStr">
@@ -16832,7 +16832,7 @@
         </is>
       </c>
       <c r="D820" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="821">
@@ -16843,7 +16843,7 @@
       </c>
       <c r="B821" t="inlineStr">
         <is>
-          <t>씰로 봉인하다</t>
+          <t>(봉인) 씰로 봉인하다</t>
         </is>
       </c>
       <c r="C821" t="inlineStr">
@@ -16863,7 +16863,7 @@
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t>의회 큰소리</t>
+          <t>(이사회) 의회 큰소리</t>
         </is>
       </c>
       <c r="C822" t="inlineStr">
@@ -16883,7 +16883,7 @@
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t>캔디와 데이트할 후보자</t>
+          <t>(후보자) 캔디와 데이트할 후보자</t>
         </is>
       </c>
       <c r="C823" t="inlineStr">
@@ -16903,7 +16903,7 @@
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t>장애물을 베려</t>
+          <t>(장벽) 장애물을 베려</t>
         </is>
       </c>
       <c r="C824" t="inlineStr">
@@ -16923,7 +16923,7 @@
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t>앞으로 내놓아 생산성</t>
+          <t>(생산력) 앞으로 내놓아 생산성</t>
         </is>
       </c>
       <c r="C825" t="inlineStr">
@@ -16943,7 +16943,7 @@
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t>머리부분 본사, 본부</t>
+          <t>(본부) 머리부분 본사, 본부</t>
         </is>
       </c>
       <c r="C826" t="inlineStr">
@@ -16963,7 +16963,7 @@
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t>레이디꼴이 근본적인</t>
+          <t>(근본적인) 레이디꼴이 근본적인</t>
         </is>
       </c>
       <c r="C827" t="inlineStr">
@@ -16983,7 +16983,7 @@
       </c>
       <c r="B828" t="inlineStr">
         <is>
-          <t>페인트로 보호</t>
+          <t>(후원자) 페인트로 보호</t>
         </is>
       </c>
       <c r="C828" t="inlineStr">
@@ -17003,7 +17003,7 @@
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t>패트리어트 미사일 애국 미사일, 애국자</t>
+          <t>(애국자) 패트리어트 미사일 애국 미사일, 애국자</t>
         </is>
       </c>
       <c r="C829" t="inlineStr">
@@ -17023,7 +17023,7 @@
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t>애셋도 재산</t>
+          <t>(유산) 애셋도 재산</t>
         </is>
       </c>
       <c r="C830" t="inlineStr">
@@ -17043,7 +17043,7 @@
       </c>
       <c r="B831" t="inlineStr">
         <is>
-          <t>크루즈선이 순항하다</t>
+          <t>(크루즈) 크루즈선이 순항하다</t>
         </is>
       </c>
       <c r="C831" t="inlineStr">
@@ -17063,7 +17063,7 @@
       </c>
       <c r="B832" t="inlineStr">
         <is>
-          <t>카운셀링 상담</t>
+          <t>(조언) 카운셀링 상담</t>
         </is>
       </c>
       <c r="C832" t="inlineStr">
@@ -17083,7 +17083,7 @@
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t>디피트 시킨 업적</t>
+          <t>(위업) 디피트 시킨 업적</t>
         </is>
       </c>
       <c r="C833" t="inlineStr">
@@ -17103,7 +17103,7 @@
       </c>
       <c r="B834" t="inlineStr">
         <is>
-          <t>이로켓은 설득력 있다</t>
+          <t>(웅변) 이로켓은 설득력 있다</t>
         </is>
       </c>
       <c r="C834" t="inlineStr">
@@ -17123,7 +17123,7 @@
       </c>
       <c r="B835" t="inlineStr">
         <is>
-          <t>네비게이션으로 항해하다, 조종하다</t>
+          <t>(탐색) 네비게이션으로 항해하다, 조종하다</t>
         </is>
       </c>
       <c r="C835" t="inlineStr">
@@ -17143,7 +17143,7 @@
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t>라이터스 올바른</t>
+          <t>(의로운) 라이터스 올바른</t>
         </is>
       </c>
       <c r="C836" t="inlineStr">
@@ -17163,7 +17163,7 @@
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t>자유롭게 리버를 만들자</t>
+          <t>(선심 쓰는) 자유롭게 리버를 만들자</t>
         </is>
       </c>
       <c r="C837" t="inlineStr">
@@ -17172,7 +17172,7 @@
         </is>
       </c>
       <c r="D837" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="838">
@@ -17183,7 +17183,7 @@
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t>도움을 찾는 것 청원</t>
+          <t>(청원) 도움을 찾는 것 청원</t>
         </is>
       </c>
       <c r="C838" t="inlineStr">
@@ -17203,7 +17203,7 @@
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t>다시 자른느 것 소매</t>
+          <t>(소매) 다시 자른느 것 소매</t>
         </is>
       </c>
       <c r="C839" t="inlineStr">
@@ -17223,7 +17223,7 @@
       </c>
       <c r="B840" t="inlineStr">
         <is>
-          <t>마니패서 명백히 하다</t>
+          <t>(명백한) 마니패서 명백히 하다</t>
         </is>
       </c>
       <c r="C840" t="inlineStr">
@@ -17243,7 +17243,7 @@
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t>파란인쇄 청사진</t>
+          <t>(청사진) 파란인쇄 청사진</t>
         </is>
       </c>
       <c r="C841" t="inlineStr">
@@ -17263,7 +17263,7 @@
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t>어떤놈이 자치권을 주장</t>
+          <t>(자치) 어떤놈이 자치권을 주장</t>
         </is>
       </c>
       <c r="C842" t="inlineStr">
@@ -17283,7 +17283,7 @@
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t>전쟁을 좋아하는 호전적인</t>
+          <t>(전쟁) 전쟁을 좋아하는 호전적인</t>
         </is>
       </c>
       <c r="C843" t="inlineStr">
@@ -17303,7 +17303,7 @@
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t>정찰병을 스카우트하다</t>
+          <t>(스카우트) 정찰병을 스카우트하다</t>
         </is>
       </c>
       <c r="C844" t="inlineStr">
@@ -17323,7 +17323,7 @@
       </c>
       <c r="B845" t="inlineStr">
         <is>
-          <t>시험하는 돈 증언료</t>
+          <t>(고백) 시험하는 돈 증언료</t>
         </is>
       </c>
       <c r="C845" t="inlineStr">
@@ -17343,7 +17343,7 @@
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t>스타크래프트 얼라이 동맹</t>
+          <t>(동맹국) 스타크래프트 얼라이 동맹</t>
         </is>
       </c>
       <c r="C846" t="inlineStr">
@@ -17363,7 +17363,7 @@
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>변호사 어떠니?</t>
+          <t>(변호사) 변호사 어떠니?</t>
         </is>
       </c>
       <c r="C847" t="inlineStr">
@@ -17383,7 +17383,7 @@
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>배너머로 배밖으로</t>
+          <t>(배 밖으로) 배너머로 배밖으로</t>
         </is>
       </c>
       <c r="C848" t="inlineStr">
@@ -17403,7 +17403,7 @@
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t>전체판매하는 사람 도매상</t>
+          <t>(도매기) 전체판매하는 사람 도매상</t>
         </is>
       </c>
       <c r="C849" t="inlineStr">
@@ -17412,7 +17412,7 @@
         </is>
       </c>
       <c r="D849" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="850">
@@ -17423,7 +17423,7 @@
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t>시간흐름 연대기</t>
+          <t>(연대기) 시간흐름 연대기</t>
         </is>
       </c>
       <c r="C850" t="inlineStr">
@@ -17443,7 +17443,7 @@
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t>닉슨독트린 교리 학설</t>
+          <t>(교의) 닉슨독트린 교리 학설</t>
         </is>
       </c>
       <c r="C851" t="inlineStr">
@@ -17463,7 +17463,7 @@
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t>골프숲 군대</t>
+          <t>(군단) 골프숲 군대</t>
         </is>
       </c>
       <c r="C852" t="inlineStr">
@@ -17483,7 +17483,7 @@
       </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t>인상적인 스트라이크 두드러진</t>
+          <t>(치는) 인상적인 스트라이크 두드러진</t>
         </is>
       </c>
       <c r="C853" t="inlineStr">
@@ -17503,7 +17503,7 @@
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t>오쓰의 맹세</t>
+          <t>(맹세) 오쓰의 맹세</t>
         </is>
       </c>
       <c r="C854" t="inlineStr">
@@ -17523,7 +17523,7 @@
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t>엠베서더호텔묵는 대사, 사절</t>
+          <t>(대사) 엠베서더호텔묵는 대사, 사절</t>
         </is>
       </c>
       <c r="C855" t="inlineStr">
@@ -17543,7 +17543,7 @@
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t>폭정하니 튀라네</t>
+          <t>(포학) 폭정하니 튀라네</t>
         </is>
       </c>
       <c r="C856" t="inlineStr">
@@ -17563,7 +17563,7 @@
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t>한계점 앞 예비의, 임시의</t>
+          <t>(예비의) 한계점 앞 예비의, 임시의</t>
         </is>
       </c>
       <c r="C857" t="inlineStr">
@@ -17583,7 +17583,7 @@
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t>사버린 군주</t>
+          <t>(주권자) 사버린 군주</t>
         </is>
       </c>
       <c r="C858" t="inlineStr">
@@ -17603,7 +17603,7 @@
       </c>
       <c r="B859" t="inlineStr">
         <is>
-          <t>대표가 데려갔데</t>
+          <t>(대리자) 대표가 데려갔데</t>
         </is>
       </c>
       <c r="C859" t="inlineStr">
@@ -17623,7 +17623,7 @@
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t>귀한 풀이셨어</t>
+          <t>(귀중한) 귀한 풀이셨어</t>
         </is>
       </c>
       <c r="C860" t="inlineStr">
@@ -17643,7 +17643,7 @@
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t>법조항책을 닫았다(close)</t>
+          <t>(절) 법조항책을 닫았다(close)</t>
         </is>
       </c>
       <c r="C861" t="inlineStr">
@@ -17663,7 +17663,7 @@
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t>뒤풀어모셔 외교</t>
+          <t>(외교) 뒤풀어모셔 외교</t>
         </is>
       </c>
       <c r="C862" t="inlineStr">
@@ -17683,7 +17683,7 @@
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t>앉아있는 시간 회기, 개회중</t>
+          <t>(세션) 앉아있는 시간 회기, 개회중</t>
         </is>
       </c>
       <c r="C863" t="inlineStr">
@@ -17703,7 +17703,7 @@
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t>머지않아 합병하다</t>
+          <t>(병합) 머지않아 합병하다</t>
         </is>
       </c>
       <c r="C864" t="inlineStr">
@@ -17723,7 +17723,7 @@
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t>사야죠하고 붙잡다</t>
+          <t>(잡다) 사야죠하고 붙잡다</t>
         </is>
       </c>
       <c r="C865" t="inlineStr">
@@ -17743,7 +17743,7 @@
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t>자발적인 스폰테니스</t>
+          <t>(자발적인) 자발적인 스폰테니스</t>
         </is>
       </c>
       <c r="C866" t="inlineStr">
@@ -17763,7 +17763,7 @@
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t>강력한 드럼스틱</t>
+          <t>(격렬한) 강력한 드럼스틱</t>
         </is>
       </c>
       <c r="C867" t="inlineStr">
@@ -17783,7 +17783,7 @@
       </c>
       <c r="B868" t="inlineStr">
         <is>
-          <t>높은 계급 지배계층</t>
+          <t>(계층) 높은 계급 지배계층</t>
         </is>
       </c>
       <c r="C868" t="inlineStr">
@@ -17803,7 +17803,7 @@
       </c>
       <c r="B869" t="inlineStr">
         <is>
-          <t>악명높은 노털이었어</t>
+          <t>(유명한) 악명높은 노털이었어</t>
         </is>
       </c>
       <c r="C869" t="inlineStr">
@@ -17823,7 +17823,7 @@
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t>추락(fall)하는 잘못된 생각</t>
+          <t>(그릇된 생각) 추락(fall)하는 잘못된 생각</t>
         </is>
       </c>
       <c r="C870" t="inlineStr">
@@ -17843,7 +17843,7 @@
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t>큰파도 앞에 섰지</t>
+          <t>(급등하다) 큰파도 앞에 섰지</t>
         </is>
       </c>
       <c r="C871" t="inlineStr">
@@ -17863,7 +17863,7 @@
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t>받어 물물교환</t>
+          <t>(물물 교환) 받어 물물교환</t>
         </is>
       </c>
       <c r="C872" t="inlineStr">
@@ -17883,7 +17883,7 @@
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t>스키를 계획하다</t>
+          <t>(계획) 스키를 계획하다</t>
         </is>
       </c>
       <c r="C873" t="inlineStr">
@@ -17903,7 +17903,7 @@
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t>유내모아서 만장일치의</t>
+          <t>(만장일치) 유내모아서 만장일치의</t>
         </is>
       </c>
       <c r="C874" t="inlineStr">
@@ -17923,7 +17923,7 @@
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t>안에 불어넣다 팽창</t>
+          <t>(인플레이션) 안에 불어넣다 팽창</t>
         </is>
       </c>
       <c r="C875" t="inlineStr">
@@ -17943,7 +17943,7 @@
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t>남자와 데이트 의무적인</t>
+          <t>(필수적인) 남자와 데이트 의무적인</t>
         </is>
       </c>
       <c r="C876" t="inlineStr">
@@ -17963,7 +17963,7 @@
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t>믿음안에 위임하다 맡기다</t>
+          <t>(맡기다) 믿음안에 위임하다 맡기다</t>
         </is>
       </c>
       <c r="C877" t="inlineStr">
@@ -17983,7 +17983,7 @@
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t>인도시에 배서하다 보증하다</t>
+          <t>(승인) 인도시에 배서하다 보증하다</t>
         </is>
       </c>
       <c r="C878" t="inlineStr">
@@ -18003,7 +18003,7 @@
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t>큰댐 건설을 비난하다</t>
+          <t>(비난하다) 큰댐 건설을 비난하다</t>
         </is>
       </c>
       <c r="C879" t="inlineStr">
@@ -18023,7 +18023,7 @@
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t>앞으로 소리치다 선언하다, 발표하다</t>
+          <t>(선포하십시오) 앞으로 소리치다 선언하다, 발표하다</t>
         </is>
       </c>
       <c r="C880" t="inlineStr">
@@ -18043,7 +18043,7 @@
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t>맹세할테니 풀어주</t>
+          <t>(약속) 맹세할테니 풀어주</t>
         </is>
       </c>
       <c r="C881" t="inlineStr">
@@ -18063,7 +18063,7 @@
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t>얜포수 하라고 강요하다, 집행하다</t>
+          <t>(억지로 시키다) 얜포수 하라고 강요하다, 집행하다</t>
         </is>
       </c>
       <c r="C882" t="inlineStr">
@@ -18083,7 +18083,7 @@
       </c>
       <c r="B883" t="inlineStr">
         <is>
-          <t>밖으로 빼내다 면제하다</t>
+          <t>(면제) 밖으로 빼내다 면제하다</t>
         </is>
       </c>
       <c r="C883" t="inlineStr">
@@ -18103,7 +18103,7 @@
       </c>
       <c r="B884" t="inlineStr">
         <is>
-          <t>오쌘데 진짜</t>
+          <t>(진본인) 오쌘데 진짜</t>
         </is>
       </c>
       <c r="C884" t="inlineStr">
@@ -18123,7 +18123,7 @@
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t>할 수 있는</t>
+          <t>(유능한) 할 수 있는</t>
         </is>
       </c>
       <c r="C885" t="inlineStr">
@@ -18143,7 +18143,7 @@
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t>구부리기 쉬운 탄력적인, 유연한</t>
+          <t>(유연한) 구부리기 쉬운 탄력적인, 유연한</t>
         </is>
       </c>
       <c r="C886" t="inlineStr">
@@ -18163,7 +18163,7 @@
       </c>
       <c r="B887" t="inlineStr">
         <is>
-          <t>흐르는 것 유창함</t>
+          <t>(유창) 흐르는 것 유창함</t>
         </is>
       </c>
       <c r="C887" t="inlineStr">
@@ -18183,7 +18183,7 @@
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t>척도에 맞는 적절한</t>
+          <t>(보통의) 척도에 맞는 적절한</t>
         </is>
       </c>
       <c r="C888" t="inlineStr">
@@ -18203,7 +18203,7 @@
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t>버너불에 상처받기 쉬운</t>
+          <t>(취약) 버너불에 상처받기 쉬운</t>
         </is>
       </c>
       <c r="C889" t="inlineStr">
@@ -18223,7 +18223,7 @@
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t>워렌버핏 보증섬 담보</t>
+          <t>(보증) 워렌버핏 보증섬 담보</t>
         </is>
       </c>
       <c r="C890" t="inlineStr">
@@ -18243,7 +18243,7 @@
       </c>
       <c r="B891" t="inlineStr">
         <is>
-          <t>말을 놓기전에 하는 것 가정하다</t>
+          <t>(가정하다) 말을 놓기전에 하는 것 가정하다</t>
         </is>
       </c>
       <c r="C891" t="inlineStr">
@@ -18263,7 +18263,7 @@
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t>오퍼주니 기회다</t>
+          <t>(기회) 오퍼주니 기회다</t>
         </is>
       </c>
       <c r="C892" t="inlineStr">
@@ -18283,7 +18283,7 @@
       </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t>시장직에 메이어</t>
+          <t>(시장) 시장직에 메이어</t>
         </is>
       </c>
       <c r="C893" t="inlineStr">
@@ -18303,7 +18303,7 @@
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t>교묘하게 만화봐</t>
+          <t>(운동) 교묘하게 만화봐</t>
         </is>
       </c>
       <c r="C894" t="inlineStr">
@@ -18323,7 +18323,7 @@
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t>안에서 잡는 것 진취적 정신, 기업</t>
+          <t>(기업) 안에서 잡는 것 진취적 정신, 기업</t>
         </is>
       </c>
       <c r="C895" t="inlineStr">
@@ -18343,7 +18343,7 @@
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t>어 싸울테냐 공격하다, 괴롭히다</t>
+          <t>(폭행) 어 싸울테냐 공격하다, 괴롭히다</t>
         </is>
       </c>
       <c r="C896" t="inlineStr">
@@ -18363,7 +18363,7 @@
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t>앉아서 평가하다</t>
+          <t>(평가하다) 앉아서 평가하다</t>
         </is>
       </c>
       <c r="C897" t="inlineStr">
@@ -18372,7 +18372,7 @@
         </is>
       </c>
       <c r="D897" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="898">
@@ -18383,7 +18383,7 @@
       </c>
       <c r="B898" t="inlineStr">
         <is>
-          <t>콩고를 정복하다</t>
+          <t>(정복하다) 콩고를 정복하다</t>
         </is>
       </c>
       <c r="C898" t="inlineStr">
@@ -18403,7 +18403,7 @@
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t>메주로 평가하다, 측정하다</t>
+          <t>(측정하다) 메주로 평가하다, 측정하다</t>
         </is>
       </c>
       <c r="C899" t="inlineStr">
@@ -18423,7 +18423,7 @@
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t>오르간을 조직하다</t>
+          <t>(정리하다) 오르간을 조직하다</t>
         </is>
       </c>
       <c r="C900" t="inlineStr">
@@ -18443,7 +18443,7 @@
       </c>
       <c r="B901" t="inlineStr">
         <is>
-          <t>부분을 차지하다 참가자</t>
+          <t>(참가자) 부분을 차지하다 참가자</t>
         </is>
       </c>
       <c r="C901" t="inlineStr">
@@ -18463,7 +18463,7 @@
       </c>
       <c r="B902" t="inlineStr">
         <is>
-          <t>다시 함께 부르다 화해하다</t>
+          <t>(조정하다) 다시 함께 부르다 화해하다</t>
         </is>
       </c>
       <c r="C902" t="inlineStr">
@@ -18483,7 +18483,7 @@
       </c>
       <c r="B903" t="inlineStr">
         <is>
-          <t>니 뺀지로 복수하다</t>
+          <t>(복수) 니 뺀지로 복수하다</t>
         </is>
       </c>
       <c r="C903" t="inlineStr">
@@ -18503,7 +18503,7 @@
       </c>
       <c r="B904" t="inlineStr">
         <is>
-          <t>넘어 둘러싸다 포위하다</t>
+          <t>(둘러 싸다) 넘어 둘러싸다 포위하다</t>
         </is>
       </c>
       <c r="C904" t="inlineStr">

--- a/학습자료/단답형/영어_기초단어.xlsx
+++ b/학습자료/단답형/영어_기초단어.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73">
@@ -3392,7 +3392,7 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149">
@@ -4452,7 +4452,7 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
@@ -5832,7 +5832,7 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="271">
@@ -6112,7 +6112,7 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="285">
@@ -7672,7 +7672,7 @@
         </is>
       </c>
       <c r="D362" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="363">
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="D367" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="368">
@@ -8892,7 +8892,7 @@
         </is>
       </c>
       <c r="D423" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="424">
@@ -9232,7 +9232,7 @@
         </is>
       </c>
       <c r="D440" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="441">
@@ -9832,7 +9832,7 @@
         </is>
       </c>
       <c r="D470" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="471">
@@ -9912,7 +9912,7 @@
         </is>
       </c>
       <c r="D474" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="475">
@@ -10032,7 +10032,7 @@
         </is>
       </c>
       <c r="D480" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="481">
@@ -10052,7 +10052,7 @@
         </is>
       </c>
       <c r="D481" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="482">
@@ -11172,7 +11172,7 @@
         </is>
       </c>
       <c r="D537" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="538">
@@ -11192,7 +11192,7 @@
         </is>
       </c>
       <c r="D538" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="539">
@@ -11212,7 +11212,7 @@
         </is>
       </c>
       <c r="D539" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="540">
@@ -11372,7 +11372,7 @@
         </is>
       </c>
       <c r="D547" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="548">
@@ -11592,7 +11592,7 @@
         </is>
       </c>
       <c r="D558" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="559">
@@ -11792,7 +11792,7 @@
         </is>
       </c>
       <c r="D568" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="569">
@@ -11992,7 +11992,7 @@
         </is>
       </c>
       <c r="D578" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="579">
@@ -12032,7 +12032,7 @@
         </is>
       </c>
       <c r="D580" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="581">
@@ -12172,7 +12172,7 @@
         </is>
       </c>
       <c r="D587" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="588">
@@ -12732,7 +12732,7 @@
         </is>
       </c>
       <c r="D615" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="616">
@@ -12872,7 +12872,7 @@
         </is>
       </c>
       <c r="D622" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623">
@@ -14372,7 +14372,7 @@
         </is>
       </c>
       <c r="D697" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="698">
@@ -14652,7 +14652,7 @@
         </is>
       </c>
       <c r="D711" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="712">
@@ -15252,7 +15252,7 @@
         </is>
       </c>
       <c r="D741" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="742">
@@ -15752,7 +15752,7 @@
         </is>
       </c>
       <c r="D766" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="767">
@@ -16692,7 +16692,7 @@
         </is>
       </c>
       <c r="D813" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="814">
